--- a/data-raw/abs/6345.0/634505b.xlsx
+++ b/data-raw/abs/6345.0/634505b.xlsx
@@ -12,404 +12,404 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A2602859F">Data1!$R$1:$R$10,Data1!$R$11:$R$108</definedName>
-    <definedName name="A2602859F_Data">Data1!$R$11:$R$108</definedName>
-    <definedName name="A2602859F_Latest">Data1!$R$108</definedName>
-    <definedName name="A2602860R">Data1!$BJ$1:$BJ$10,Data1!$BJ$11:$BJ$108</definedName>
-    <definedName name="A2602860R_Data">Data1!$BJ$11:$BJ$108</definedName>
-    <definedName name="A2602860R_Latest">Data1!$BJ$108</definedName>
-    <definedName name="A2602861T">Data1!$DB$1:$DB$10,Data1!$DB$11:$DB$108</definedName>
-    <definedName name="A2602861T_Data">Data1!$DB$11:$DB$108</definedName>
-    <definedName name="A2602861T_Latest">Data1!$DB$108</definedName>
-    <definedName name="A2602869K">Data1!$H$1:$H$10,Data1!$H$11:$H$108</definedName>
-    <definedName name="A2602869K_Data">Data1!$H$11:$H$108</definedName>
-    <definedName name="A2602869K_Latest">Data1!$H$108</definedName>
-    <definedName name="A2602870V">Data1!$AZ$1:$AZ$10,Data1!$AZ$11:$AZ$108</definedName>
-    <definedName name="A2602870V_Data">Data1!$AZ$11:$AZ$108</definedName>
-    <definedName name="A2602870V_Latest">Data1!$AZ$108</definedName>
-    <definedName name="A2602871W">Data1!$CR$1:$CR$10,Data1!$CR$11:$CR$108</definedName>
-    <definedName name="A2602871W_Data">Data1!$CR$11:$CR$108</definedName>
-    <definedName name="A2602871W_Latest">Data1!$CR$108</definedName>
-    <definedName name="A2602879R">Data1!$P$1:$P$10,Data1!$P$11:$P$108</definedName>
-    <definedName name="A2602879R_Data">Data1!$P$11:$P$108</definedName>
-    <definedName name="A2602879R_Latest">Data1!$P$108</definedName>
-    <definedName name="A2602880X">Data1!$BH$1:$BH$10,Data1!$BH$11:$BH$108</definedName>
-    <definedName name="A2602880X_Data">Data1!$BH$11:$BH$108</definedName>
-    <definedName name="A2602880X_Latest">Data1!$BH$108</definedName>
-    <definedName name="A2602881A">Data1!$CZ$1:$CZ$10,Data1!$CZ$11:$CZ$108</definedName>
-    <definedName name="A2602881A_Data">Data1!$CZ$11:$CZ$108</definedName>
-    <definedName name="A2602881A_Latest">Data1!$CZ$108</definedName>
-    <definedName name="A2602889V">Data1!$K$1:$K$10,Data1!$K$11:$K$108</definedName>
-    <definedName name="A2602889V_Data">Data1!$K$11:$K$108</definedName>
-    <definedName name="A2602889V_Latest">Data1!$K$108</definedName>
-    <definedName name="A2602890C">Data1!$BC$1:$BC$10,Data1!$BC$11:$BC$108</definedName>
-    <definedName name="A2602890C_Data">Data1!$BC$11:$BC$108</definedName>
-    <definedName name="A2602890C_Latest">Data1!$BC$108</definedName>
-    <definedName name="A2602891F">Data1!$CU$1:$CU$10,Data1!$CU$11:$CU$108</definedName>
-    <definedName name="A2602891F_Data">Data1!$CU$11:$CU$108</definedName>
-    <definedName name="A2602891F_Latest">Data1!$CU$108</definedName>
-    <definedName name="A2602899X">Data1!$I$1:$I$10,Data1!$I$11:$I$108</definedName>
-    <definedName name="A2602899X_Data">Data1!$I$11:$I$108</definedName>
-    <definedName name="A2602899X_Latest">Data1!$I$108</definedName>
-    <definedName name="A2602900W">Data1!$BA$1:$BA$10,Data1!$BA$11:$BA$108</definedName>
-    <definedName name="A2602900W_Data">Data1!$BA$11:$BA$108</definedName>
-    <definedName name="A2602900W_Latest">Data1!$BA$108</definedName>
-    <definedName name="A2602901X">Data1!$CS$1:$CS$10,Data1!$CS$11:$CS$108</definedName>
-    <definedName name="A2602901X_Data">Data1!$CS$11:$CS$108</definedName>
-    <definedName name="A2602901X_Latest">Data1!$CS$108</definedName>
-    <definedName name="A2602909T">Data1!$M$1:$M$10,Data1!$M$11:$M$108</definedName>
-    <definedName name="A2602909T_Data">Data1!$M$11:$M$108</definedName>
-    <definedName name="A2602909T_Latest">Data1!$M$108</definedName>
-    <definedName name="A2602910A">Data1!$BE$1:$BE$10,Data1!$BE$11:$BE$108</definedName>
-    <definedName name="A2602910A_Data">Data1!$BE$11:$BE$108</definedName>
-    <definedName name="A2602910A_Latest">Data1!$BE$108</definedName>
-    <definedName name="A2602911C">Data1!$CW$1:$CW$10,Data1!$CW$11:$CW$108</definedName>
-    <definedName name="A2602911C_Data">Data1!$CW$11:$CW$108</definedName>
-    <definedName name="A2602911C_Latest">Data1!$CW$108</definedName>
-    <definedName name="A2602919W">Data1!$D$1:$D$10,Data1!$D$11:$D$108</definedName>
-    <definedName name="A2602919W_Data">Data1!$D$11:$D$108</definedName>
-    <definedName name="A2602919W_Latest">Data1!$D$108</definedName>
-    <definedName name="A2602920F">Data1!$AV$1:$AV$10,Data1!$AV$11:$AV$108</definedName>
-    <definedName name="A2602920F_Data">Data1!$AV$11:$AV$108</definedName>
-    <definedName name="A2602920F_Latest">Data1!$AV$108</definedName>
-    <definedName name="A2602921J">Data1!$CN$1:$CN$10,Data1!$CN$11:$CN$108</definedName>
-    <definedName name="A2602921J_Data">Data1!$CN$11:$CN$108</definedName>
-    <definedName name="A2602921J_Latest">Data1!$CN$108</definedName>
-    <definedName name="A2602929A">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$108</definedName>
-    <definedName name="A2602929A_Data">Data1!$Q$11:$Q$108</definedName>
-    <definedName name="A2602929A_Latest">Data1!$Q$108</definedName>
-    <definedName name="A2602930K">Data1!$BI$1:$BI$10,Data1!$BI$11:$BI$108</definedName>
-    <definedName name="A2602930K_Data">Data1!$BI$11:$BI$108</definedName>
-    <definedName name="A2602930K_Latest">Data1!$BI$108</definedName>
-    <definedName name="A2602931L">Data1!$DA$1:$DA$10,Data1!$DA$11:$DA$108</definedName>
-    <definedName name="A2602931L_Data">Data1!$DA$11:$DA$108</definedName>
-    <definedName name="A2602931L_Latest">Data1!$DA$108</definedName>
-    <definedName name="A2602939F">Data1!$B$1:$B$10,Data1!$B$11:$B$108</definedName>
-    <definedName name="A2602939F_Data">Data1!$B$11:$B$108</definedName>
-    <definedName name="A2602939F_Latest">Data1!$B$108</definedName>
-    <definedName name="A2602940R">Data1!$AT$1:$AT$10,Data1!$AT$11:$AT$108</definedName>
-    <definedName name="A2602940R_Data">Data1!$AT$11:$AT$108</definedName>
-    <definedName name="A2602940R_Latest">Data1!$AT$108</definedName>
-    <definedName name="A2602941T">Data1!$CL$1:$CL$10,Data1!$CL$11:$CL$108</definedName>
-    <definedName name="A2602941T_Data">Data1!$CL$11:$CL$108</definedName>
-    <definedName name="A2602941T_Latest">Data1!$CL$108</definedName>
-    <definedName name="A2602949K">Data1!$J$1:$J$10,Data1!$J$11:$J$108</definedName>
-    <definedName name="A2602949K_Data">Data1!$J$11:$J$108</definedName>
-    <definedName name="A2602949K_Latest">Data1!$J$108</definedName>
-    <definedName name="A2602950V">Data1!$BB$1:$BB$10,Data1!$BB$11:$BB$108</definedName>
-    <definedName name="A2602950V_Data">Data1!$BB$11:$BB$108</definedName>
-    <definedName name="A2602950V_Latest">Data1!$BB$108</definedName>
-    <definedName name="A2602951W">Data1!$CT$1:$CT$10,Data1!$CT$11:$CT$108</definedName>
-    <definedName name="A2602951W_Data">Data1!$CT$11:$CT$108</definedName>
-    <definedName name="A2602951W_Latest">Data1!$CT$108</definedName>
-    <definedName name="A2602959R">Data1!$C$1:$C$10,Data1!$C$11:$C$108</definedName>
-    <definedName name="A2602959R_Data">Data1!$C$11:$C$108</definedName>
-    <definedName name="A2602959R_Latest">Data1!$C$108</definedName>
-    <definedName name="A2602960X">Data1!$AU$1:$AU$10,Data1!$AU$11:$AU$108</definedName>
-    <definedName name="A2602960X_Data">Data1!$AU$11:$AU$108</definedName>
-    <definedName name="A2602960X_Latest">Data1!$AU$108</definedName>
-    <definedName name="A2602961A">Data1!$CM$1:$CM$10,Data1!$CM$11:$CM$108</definedName>
-    <definedName name="A2602961A_Data">Data1!$CM$11:$CM$108</definedName>
-    <definedName name="A2602961A_Latest">Data1!$CM$108</definedName>
-    <definedName name="A2602969V">Data1!$N$1:$N$10,Data1!$N$11:$N$108</definedName>
-    <definedName name="A2602969V_Data">Data1!$N$11:$N$108</definedName>
-    <definedName name="A2602969V_Latest">Data1!$N$108</definedName>
-    <definedName name="A2602970C">Data1!$BF$1:$BF$10,Data1!$BF$11:$BF$108</definedName>
-    <definedName name="A2602970C_Data">Data1!$BF$11:$BF$108</definedName>
-    <definedName name="A2602970C_Latest">Data1!$BF$108</definedName>
-    <definedName name="A2602971F">Data1!$CX$1:$CX$10,Data1!$CX$11:$CX$108</definedName>
-    <definedName name="A2602971F_Data">Data1!$CX$11:$CX$108</definedName>
-    <definedName name="A2602971F_Latest">Data1!$CX$108</definedName>
-    <definedName name="A2602979X">Data1!$O$1:$O$10,Data1!$O$11:$O$108</definedName>
-    <definedName name="A2602979X_Data">Data1!$O$11:$O$108</definedName>
-    <definedName name="A2602979X_Latest">Data1!$O$108</definedName>
-    <definedName name="A2602980J">Data1!$BG$1:$BG$10,Data1!$BG$11:$BG$108</definedName>
-    <definedName name="A2602980J_Data">Data1!$BG$11:$BG$108</definedName>
-    <definedName name="A2602980J_Latest">Data1!$BG$108</definedName>
-    <definedName name="A2602981K">Data1!$CY$1:$CY$10,Data1!$CY$11:$CY$108</definedName>
-    <definedName name="A2602981K_Data">Data1!$CY$11:$CY$108</definedName>
-    <definedName name="A2602981K_Latest">Data1!$CY$108</definedName>
-    <definedName name="A2602989C">Data1!$G$1:$G$10,Data1!$G$11:$G$108</definedName>
-    <definedName name="A2602989C_Data">Data1!$G$11:$G$108</definedName>
-    <definedName name="A2602989C_Latest">Data1!$G$108</definedName>
-    <definedName name="A2602990L">Data1!$AY$1:$AY$10,Data1!$AY$11:$AY$108</definedName>
-    <definedName name="A2602990L_Data">Data1!$AY$11:$AY$108</definedName>
-    <definedName name="A2602990L_Latest">Data1!$AY$108</definedName>
-    <definedName name="A2602991R">Data1!$CQ$1:$CQ$10,Data1!$CQ$11:$CQ$108</definedName>
-    <definedName name="A2602991R_Data">Data1!$CQ$11:$CQ$108</definedName>
-    <definedName name="A2602991R_Latest">Data1!$CQ$108</definedName>
-    <definedName name="A2602999J">Data1!$F$1:$F$10,Data1!$F$11:$F$108</definedName>
-    <definedName name="A2602999J_Data">Data1!$F$11:$F$108</definedName>
-    <definedName name="A2602999J_Latest">Data1!$F$108</definedName>
-    <definedName name="A2603000J">Data1!$AX$1:$AX$10,Data1!$AX$11:$AX$108</definedName>
-    <definedName name="A2603000J_Data">Data1!$AX$11:$AX$108</definedName>
-    <definedName name="A2603000J_Latest">Data1!$AX$108</definedName>
-    <definedName name="A2603001K">Data1!$CP$1:$CP$10,Data1!$CP$11:$CP$108</definedName>
-    <definedName name="A2603001K_Data">Data1!$CP$11:$CP$108</definedName>
-    <definedName name="A2603001K_Latest">Data1!$CP$108</definedName>
-    <definedName name="A2603009C">Data1!$S$1:$S$10,Data1!$S$11:$S$108</definedName>
-    <definedName name="A2603009C_Data">Data1!$S$11:$S$108</definedName>
-    <definedName name="A2603009C_Latest">Data1!$S$108</definedName>
-    <definedName name="A2603010L">Data1!$BK$1:$BK$10,Data1!$BK$11:$BK$108</definedName>
-    <definedName name="A2603010L_Data">Data1!$BK$11:$BK$108</definedName>
-    <definedName name="A2603010L_Latest">Data1!$BK$108</definedName>
-    <definedName name="A2603011R">Data1!$DC$1:$DC$10,Data1!$DC$11:$DC$108</definedName>
-    <definedName name="A2603011R_Data">Data1!$DC$11:$DC$108</definedName>
-    <definedName name="A2603011R_Latest">Data1!$DC$108</definedName>
-    <definedName name="A2603019J">Data1!$E$1:$E$10,Data1!$E$11:$E$108</definedName>
-    <definedName name="A2603019J_Data">Data1!$E$11:$E$108</definedName>
-    <definedName name="A2603019J_Latest">Data1!$E$108</definedName>
-    <definedName name="A2603020T">Data1!$AW$1:$AW$10,Data1!$AW$11:$AW$108</definedName>
-    <definedName name="A2603020T_Data">Data1!$AW$11:$AW$108</definedName>
-    <definedName name="A2603020T_Latest">Data1!$AW$108</definedName>
-    <definedName name="A2603021V">Data1!$CO$1:$CO$10,Data1!$CO$11:$CO$108</definedName>
-    <definedName name="A2603021V_Data">Data1!$CO$11:$CO$108</definedName>
-    <definedName name="A2603021V_Latest">Data1!$CO$108</definedName>
-    <definedName name="A2603029L">Data1!$L$1:$L$10,Data1!$L$11:$L$108</definedName>
-    <definedName name="A2603029L_Data">Data1!$L$11:$L$108</definedName>
-    <definedName name="A2603029L_Latest">Data1!$L$108</definedName>
-    <definedName name="A2603030W">Data1!$BD$1:$BD$10,Data1!$BD$11:$BD$108</definedName>
-    <definedName name="A2603030W_Data">Data1!$BD$11:$BD$108</definedName>
-    <definedName name="A2603030W_Latest">Data1!$BD$108</definedName>
-    <definedName name="A2603031X">Data1!$CV$1:$CV$10,Data1!$CV$11:$CV$108</definedName>
-    <definedName name="A2603031X_Data">Data1!$CV$11:$CV$108</definedName>
-    <definedName name="A2603031X_Latest">Data1!$CV$108</definedName>
-    <definedName name="A2603039T">Data1!$T$1:$T$10,Data1!$T$11:$T$108</definedName>
-    <definedName name="A2603039T_Data">Data1!$T$11:$T$108</definedName>
-    <definedName name="A2603039T_Latest">Data1!$T$108</definedName>
-    <definedName name="A2603040A">Data1!$BL$1:$BL$10,Data1!$BL$11:$BL$108</definedName>
-    <definedName name="A2603040A_Data">Data1!$BL$11:$BL$108</definedName>
-    <definedName name="A2603040A_Latest">Data1!$BL$108</definedName>
-    <definedName name="A2603041C">Data1!$DD$1:$DD$10,Data1!$DD$11:$DD$108</definedName>
-    <definedName name="A2603041C_Data">Data1!$DD$11:$DD$108</definedName>
-    <definedName name="A2603041C_Latest">Data1!$DD$108</definedName>
-    <definedName name="A2603429X">Data1!$AQ$1:$AQ$10,Data1!$AQ$11:$AQ$108</definedName>
-    <definedName name="A2603429X_Data">Data1!$AQ$11:$AQ$108</definedName>
-    <definedName name="A2603429X_Latest">Data1!$AQ$108</definedName>
-    <definedName name="A2603430J">Data1!$CI$1:$CI$10,Data1!$CI$11:$CI$108</definedName>
-    <definedName name="A2603430J_Data">Data1!$CI$11:$CI$108</definedName>
-    <definedName name="A2603430J_Latest">Data1!$CI$108</definedName>
-    <definedName name="A2603431K">Data1!$EA$1:$EA$10,Data1!$EA$11:$EA$108</definedName>
-    <definedName name="A2603431K_Data">Data1!$EA$11:$EA$108</definedName>
-    <definedName name="A2603431K_Latest">Data1!$EA$108</definedName>
-    <definedName name="A2603439C">Data1!$AG$1:$AG$10,Data1!$AG$11:$AG$108</definedName>
-    <definedName name="A2603439C_Data">Data1!$AG$11:$AG$108</definedName>
-    <definedName name="A2603439C_Latest">Data1!$AG$108</definedName>
-    <definedName name="A2603440L">Data1!$BY$1:$BY$10,Data1!$BY$11:$BY$108</definedName>
-    <definedName name="A2603440L_Data">Data1!$BY$11:$BY$108</definedName>
-    <definedName name="A2603440L_Latest">Data1!$BY$108</definedName>
-    <definedName name="A2603441R">Data1!$DQ$1:$DQ$10,Data1!$DQ$11:$DQ$108</definedName>
-    <definedName name="A2603441R_Data">Data1!$DQ$11:$DQ$108</definedName>
-    <definedName name="A2603441R_Latest">Data1!$DQ$108</definedName>
-    <definedName name="A2603449J">Data1!$AO$1:$AO$10,Data1!$AO$11:$AO$108</definedName>
-    <definedName name="A2603449J_Data">Data1!$AO$11:$AO$108</definedName>
-    <definedName name="A2603449J_Latest">Data1!$AO$108</definedName>
-    <definedName name="A2603450T">Data1!$CG$1:$CG$10,Data1!$CG$11:$CG$108</definedName>
-    <definedName name="A2603450T_Data">Data1!$CG$11:$CG$108</definedName>
-    <definedName name="A2603450T_Latest">Data1!$CG$108</definedName>
-    <definedName name="A2603451V">Data1!$DY$1:$DY$10,Data1!$DY$11:$DY$108</definedName>
-    <definedName name="A2603451V_Data">Data1!$DY$11:$DY$108</definedName>
-    <definedName name="A2603451V_Latest">Data1!$DY$108</definedName>
-    <definedName name="A2603459L">Data1!$AJ$1:$AJ$10,Data1!$AJ$11:$AJ$108</definedName>
-    <definedName name="A2603459L_Data">Data1!$AJ$11:$AJ$108</definedName>
-    <definedName name="A2603459L_Latest">Data1!$AJ$108</definedName>
-    <definedName name="A2603460W">Data1!$CB$1:$CB$10,Data1!$CB$11:$CB$108</definedName>
-    <definedName name="A2603460W_Data">Data1!$CB$11:$CB$108</definedName>
-    <definedName name="A2603460W_Latest">Data1!$CB$108</definedName>
-    <definedName name="A2603461X">Data1!$DT$1:$DT$10,Data1!$DT$11:$DT$108</definedName>
-    <definedName name="A2603461X_Data">Data1!$DT$11:$DT$108</definedName>
-    <definedName name="A2603461X_Latest">Data1!$DT$108</definedName>
-    <definedName name="A2603469T">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$108</definedName>
-    <definedName name="A2603469T_Data">Data1!$AH$11:$AH$108</definedName>
-    <definedName name="A2603469T_Latest">Data1!$AH$108</definedName>
-    <definedName name="A2603470A">Data1!$BZ$1:$BZ$10,Data1!$BZ$11:$BZ$108</definedName>
-    <definedName name="A2603470A_Data">Data1!$BZ$11:$BZ$108</definedName>
-    <definedName name="A2603470A_Latest">Data1!$BZ$108</definedName>
-    <definedName name="A2603471C">Data1!$DR$1:$DR$10,Data1!$DR$11:$DR$108</definedName>
-    <definedName name="A2603471C_Data">Data1!$DR$11:$DR$108</definedName>
-    <definedName name="A2603471C_Latest">Data1!$DR$108</definedName>
-    <definedName name="A2603479W">Data1!$AL$1:$AL$10,Data1!$AL$11:$AL$108</definedName>
-    <definedName name="A2603479W_Data">Data1!$AL$11:$AL$108</definedName>
-    <definedName name="A2603479W_Latest">Data1!$AL$108</definedName>
-    <definedName name="A2603480F">Data1!$CD$1:$CD$10,Data1!$CD$11:$CD$108</definedName>
-    <definedName name="A2603480F_Data">Data1!$CD$11:$CD$108</definedName>
-    <definedName name="A2603480F_Latest">Data1!$CD$108</definedName>
-    <definedName name="A2603481J">Data1!$DV$1:$DV$10,Data1!$DV$11:$DV$108</definedName>
-    <definedName name="A2603481J_Data">Data1!$DV$11:$DV$108</definedName>
-    <definedName name="A2603481J_Latest">Data1!$DV$108</definedName>
-    <definedName name="A2603489A">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$108</definedName>
-    <definedName name="A2603489A_Data">Data1!$AC$11:$AC$108</definedName>
-    <definedName name="A2603489A_Latest">Data1!$AC$108</definedName>
-    <definedName name="A2603490K">Data1!$BU$1:$BU$10,Data1!$BU$11:$BU$108</definedName>
-    <definedName name="A2603490K_Data">Data1!$BU$11:$BU$108</definedName>
-    <definedName name="A2603490K_Latest">Data1!$BU$108</definedName>
-    <definedName name="A2603491L">Data1!$DM$1:$DM$10,Data1!$DM$11:$DM$108</definedName>
-    <definedName name="A2603491L_Data">Data1!$DM$11:$DM$108</definedName>
-    <definedName name="A2603491L_Latest">Data1!$DM$108</definedName>
-    <definedName name="A2603499F">Data1!$AP$1:$AP$10,Data1!$AP$11:$AP$108</definedName>
-    <definedName name="A2603499F_Data">Data1!$AP$11:$AP$108</definedName>
-    <definedName name="A2603499F_Latest">Data1!$AP$108</definedName>
-    <definedName name="A2603500C">Data1!$CH$1:$CH$10,Data1!$CH$11:$CH$108</definedName>
-    <definedName name="A2603500C_Data">Data1!$CH$11:$CH$108</definedName>
-    <definedName name="A2603500C_Latest">Data1!$CH$108</definedName>
-    <definedName name="A2603501F">Data1!$DZ$1:$DZ$10,Data1!$DZ$11:$DZ$108</definedName>
-    <definedName name="A2603501F_Data">Data1!$DZ$11:$DZ$108</definedName>
-    <definedName name="A2603501F_Latest">Data1!$DZ$108</definedName>
-    <definedName name="A2603509X">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$108</definedName>
-    <definedName name="A2603509X_Data">Data1!$AA$11:$AA$108</definedName>
-    <definedName name="A2603509X_Latest">Data1!$AA$108</definedName>
-    <definedName name="A2603510J">Data1!$BS$1:$BS$10,Data1!$BS$11:$BS$108</definedName>
-    <definedName name="A2603510J_Data">Data1!$BS$11:$BS$108</definedName>
-    <definedName name="A2603510J_Latest">Data1!$BS$108</definedName>
-    <definedName name="A2603511K">Data1!$DK$1:$DK$10,Data1!$DK$11:$DK$108</definedName>
-    <definedName name="A2603511K_Data">Data1!$DK$11:$DK$108</definedName>
-    <definedName name="A2603511K_Latest">Data1!$DK$108</definedName>
-    <definedName name="A2603519C">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$108</definedName>
-    <definedName name="A2603519C_Data">Data1!$AI$11:$AI$108</definedName>
-    <definedName name="A2603519C_Latest">Data1!$AI$108</definedName>
-    <definedName name="A2603520L">Data1!$CA$1:$CA$10,Data1!$CA$11:$CA$108</definedName>
-    <definedName name="A2603520L_Data">Data1!$CA$11:$CA$108</definedName>
-    <definedName name="A2603520L_Latest">Data1!$CA$108</definedName>
-    <definedName name="A2603521R">Data1!$DS$1:$DS$10,Data1!$DS$11:$DS$108</definedName>
-    <definedName name="A2603521R_Data">Data1!$DS$11:$DS$108</definedName>
-    <definedName name="A2603521R_Latest">Data1!$DS$108</definedName>
-    <definedName name="A2603529J">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$108</definedName>
-    <definedName name="A2603529J_Data">Data1!$AB$11:$AB$108</definedName>
-    <definedName name="A2603529J_Latest">Data1!$AB$108</definedName>
-    <definedName name="A2603530T">Data1!$BT$1:$BT$10,Data1!$BT$11:$BT$108</definedName>
-    <definedName name="A2603530T_Data">Data1!$BT$11:$BT$108</definedName>
-    <definedName name="A2603530T_Latest">Data1!$BT$108</definedName>
-    <definedName name="A2603531V">Data1!$DL$1:$DL$10,Data1!$DL$11:$DL$108</definedName>
-    <definedName name="A2603531V_Data">Data1!$DL$11:$DL$108</definedName>
-    <definedName name="A2603531V_Latest">Data1!$DL$108</definedName>
-    <definedName name="A2603539L">Data1!$AM$1:$AM$10,Data1!$AM$11:$AM$108</definedName>
-    <definedName name="A2603539L_Data">Data1!$AM$11:$AM$108</definedName>
-    <definedName name="A2603539L_Latest">Data1!$AM$108</definedName>
-    <definedName name="A2603540W">Data1!$CE$1:$CE$10,Data1!$CE$11:$CE$108</definedName>
-    <definedName name="A2603540W_Data">Data1!$CE$11:$CE$108</definedName>
-    <definedName name="A2603540W_Latest">Data1!$CE$108</definedName>
-    <definedName name="A2603541X">Data1!$DW$1:$DW$10,Data1!$DW$11:$DW$108</definedName>
-    <definedName name="A2603541X_Data">Data1!$DW$11:$DW$108</definedName>
-    <definedName name="A2603541X_Latest">Data1!$DW$108</definedName>
-    <definedName name="A2603549T">Data1!$AN$1:$AN$10,Data1!$AN$11:$AN$108</definedName>
-    <definedName name="A2603549T_Data">Data1!$AN$11:$AN$108</definedName>
-    <definedName name="A2603549T_Latest">Data1!$AN$108</definedName>
-    <definedName name="A2603550A">Data1!$CF$1:$CF$10,Data1!$CF$11:$CF$108</definedName>
-    <definedName name="A2603550A_Data">Data1!$CF$11:$CF$108</definedName>
-    <definedName name="A2603550A_Latest">Data1!$CF$108</definedName>
-    <definedName name="A2603551C">Data1!$DX$1:$DX$10,Data1!$DX$11:$DX$108</definedName>
-    <definedName name="A2603551C_Data">Data1!$DX$11:$DX$108</definedName>
-    <definedName name="A2603551C_Latest">Data1!$DX$108</definedName>
-    <definedName name="A2603559W">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$108</definedName>
-    <definedName name="A2603559W_Data">Data1!$AF$11:$AF$108</definedName>
-    <definedName name="A2603559W_Latest">Data1!$AF$108</definedName>
-    <definedName name="A2603560F">Data1!$BX$1:$BX$10,Data1!$BX$11:$BX$108</definedName>
-    <definedName name="A2603560F_Data">Data1!$BX$11:$BX$108</definedName>
-    <definedName name="A2603560F_Latest">Data1!$BX$108</definedName>
-    <definedName name="A2603561J">Data1!$DP$1:$DP$10,Data1!$DP$11:$DP$108</definedName>
-    <definedName name="A2603561J_Data">Data1!$DP$11:$DP$108</definedName>
-    <definedName name="A2603561J_Latest">Data1!$DP$108</definedName>
-    <definedName name="A2603569A">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$108</definedName>
-    <definedName name="A2603569A_Data">Data1!$AE$11:$AE$108</definedName>
-    <definedName name="A2603569A_Latest">Data1!$AE$108</definedName>
-    <definedName name="A2603570K">Data1!$BW$1:$BW$10,Data1!$BW$11:$BW$108</definedName>
-    <definedName name="A2603570K_Data">Data1!$BW$11:$BW$108</definedName>
-    <definedName name="A2603570K_Latest">Data1!$BW$108</definedName>
-    <definedName name="A2603571L">Data1!$DO$1:$DO$10,Data1!$DO$11:$DO$108</definedName>
-    <definedName name="A2603571L_Data">Data1!$DO$11:$DO$108</definedName>
-    <definedName name="A2603571L_Latest">Data1!$DO$108</definedName>
-    <definedName name="A2603579F">Data1!$AR$1:$AR$10,Data1!$AR$11:$AR$108</definedName>
-    <definedName name="A2603579F_Data">Data1!$AR$11:$AR$108</definedName>
-    <definedName name="A2603579F_Latest">Data1!$AR$108</definedName>
-    <definedName name="A2603580R">Data1!$CJ$1:$CJ$10,Data1!$CJ$11:$CJ$108</definedName>
-    <definedName name="A2603580R_Data">Data1!$CJ$11:$CJ$108</definedName>
-    <definedName name="A2603580R_Latest">Data1!$CJ$108</definedName>
-    <definedName name="A2603581T">Data1!$EB$1:$EB$10,Data1!$EB$11:$EB$108</definedName>
-    <definedName name="A2603581T_Data">Data1!$EB$11:$EB$108</definedName>
-    <definedName name="A2603581T_Latest">Data1!$EB$108</definedName>
-    <definedName name="A2603589K">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$108</definedName>
-    <definedName name="A2603589K_Data">Data1!$AD$11:$AD$108</definedName>
-    <definedName name="A2603589K_Latest">Data1!$AD$108</definedName>
-    <definedName name="A2603590V">Data1!$BV$1:$BV$10,Data1!$BV$11:$BV$108</definedName>
-    <definedName name="A2603590V_Data">Data1!$BV$11:$BV$108</definedName>
-    <definedName name="A2603590V_Latest">Data1!$BV$108</definedName>
-    <definedName name="A2603591W">Data1!$DN$1:$DN$10,Data1!$DN$11:$DN$108</definedName>
-    <definedName name="A2603591W_Data">Data1!$DN$11:$DN$108</definedName>
-    <definedName name="A2603591W_Latest">Data1!$DN$108</definedName>
-    <definedName name="A2603599R">Data1!$AK$1:$AK$10,Data1!$AK$11:$AK$108</definedName>
-    <definedName name="A2603599R_Data">Data1!$AK$11:$AK$108</definedName>
-    <definedName name="A2603599R_Latest">Data1!$AK$108</definedName>
-    <definedName name="A2603600L">Data1!$CC$1:$CC$10,Data1!$CC$11:$CC$108</definedName>
-    <definedName name="A2603600L_Data">Data1!$CC$11:$CC$108</definedName>
-    <definedName name="A2603600L_Latest">Data1!$CC$108</definedName>
-    <definedName name="A2603601R">Data1!$DU$1:$DU$10,Data1!$DU$11:$DU$108</definedName>
-    <definedName name="A2603601R_Data">Data1!$DU$11:$DU$108</definedName>
-    <definedName name="A2603601R_Latest">Data1!$DU$108</definedName>
-    <definedName name="A2603609J">Data1!$AS$1:$AS$10,Data1!$AS$11:$AS$108</definedName>
-    <definedName name="A2603609J_Data">Data1!$AS$11:$AS$108</definedName>
-    <definedName name="A2603609J_Latest">Data1!$AS$108</definedName>
-    <definedName name="A2603610T">Data1!$CK$1:$CK$10,Data1!$CK$11:$CK$108</definedName>
-    <definedName name="A2603610T_Data">Data1!$CK$11:$CK$108</definedName>
-    <definedName name="A2603610T_Latest">Data1!$CK$108</definedName>
-    <definedName name="A2603611V">Data1!$EC$1:$EC$10,Data1!$EC$11:$EC$108</definedName>
-    <definedName name="A2603611V_Data">Data1!$EC$11:$EC$108</definedName>
-    <definedName name="A2603611V_Latest">Data1!$EC$108</definedName>
-    <definedName name="A2603829K">Data1!$X$1:$X$10,Data1!$X$11:$X$108</definedName>
-    <definedName name="A2603829K_Data">Data1!$X$11:$X$108</definedName>
-    <definedName name="A2603829K_Latest">Data1!$X$108</definedName>
-    <definedName name="A2603830V">Data1!$BP$1:$BP$10,Data1!$BP$11:$BP$108</definedName>
-    <definedName name="A2603830V_Data">Data1!$BP$11:$BP$108</definedName>
-    <definedName name="A2603830V_Latest">Data1!$BP$108</definedName>
-    <definedName name="A2603831W">Data1!$DH$1:$DH$10,Data1!$DH$11:$DH$108</definedName>
-    <definedName name="A2603831W_Data">Data1!$DH$11:$DH$108</definedName>
-    <definedName name="A2603831W_Latest">Data1!$DH$108</definedName>
-    <definedName name="A2603859X">Data1!$V$1:$V$10,Data1!$V$11:$V$108</definedName>
-    <definedName name="A2603859X_Data">Data1!$V$11:$V$108</definedName>
-    <definedName name="A2603859X_Latest">Data1!$V$108</definedName>
-    <definedName name="A2603860J">Data1!$BN$1:$BN$10,Data1!$BN$11:$BN$108</definedName>
-    <definedName name="A2603860J_Data">Data1!$BN$11:$BN$108</definedName>
-    <definedName name="A2603860J_Latest">Data1!$BN$108</definedName>
-    <definedName name="A2603861K">Data1!$DF$1:$DF$10,Data1!$DF$11:$DF$108</definedName>
-    <definedName name="A2603861K_Data">Data1!$DF$11:$DF$108</definedName>
-    <definedName name="A2603861K_Latest">Data1!$DF$108</definedName>
-    <definedName name="A2603869C">Data1!$U$1:$U$10,Data1!$U$11:$U$108</definedName>
-    <definedName name="A2603869C_Data">Data1!$U$11:$U$108</definedName>
-    <definedName name="A2603869C_Latest">Data1!$U$108</definedName>
-    <definedName name="A2603870L">Data1!$BM$1:$BM$10,Data1!$BM$11:$BM$108</definedName>
-    <definedName name="A2603870L_Data">Data1!$BM$11:$BM$108</definedName>
-    <definedName name="A2603870L_Latest">Data1!$BM$108</definedName>
-    <definedName name="A2603871R">Data1!$DE$1:$DE$10,Data1!$DE$11:$DE$108</definedName>
-    <definedName name="A2603871R_Data">Data1!$DE$11:$DE$108</definedName>
-    <definedName name="A2603871R_Latest">Data1!$DE$108</definedName>
-    <definedName name="A2603879J">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$108</definedName>
-    <definedName name="A2603879J_Data">Data1!$Y$11:$Y$108</definedName>
-    <definedName name="A2603879J_Latest">Data1!$Y$108</definedName>
-    <definedName name="A2603880T">Data1!$BQ$1:$BQ$10,Data1!$BQ$11:$BQ$108</definedName>
-    <definedName name="A2603880T_Data">Data1!$BQ$11:$BQ$108</definedName>
-    <definedName name="A2603880T_Latest">Data1!$BQ$108</definedName>
-    <definedName name="A2603881V">Data1!$DI$1:$DI$10,Data1!$DI$11:$DI$108</definedName>
-    <definedName name="A2603881V_Data">Data1!$DI$11:$DI$108</definedName>
-    <definedName name="A2603881V_Latest">Data1!$DI$108</definedName>
-    <definedName name="A2603929V">Data1!$W$1:$W$10,Data1!$W$11:$W$108</definedName>
-    <definedName name="A2603929V_Data">Data1!$W$11:$W$108</definedName>
-    <definedName name="A2603929V_Latest">Data1!$W$108</definedName>
-    <definedName name="A2603930C">Data1!$BO$1:$BO$10,Data1!$BO$11:$BO$108</definedName>
-    <definedName name="A2603930C_Data">Data1!$BO$11:$BO$108</definedName>
-    <definedName name="A2603930C_Latest">Data1!$BO$108</definedName>
-    <definedName name="A2603931F">Data1!$DG$1:$DG$10,Data1!$DG$11:$DG$108</definedName>
-    <definedName name="A2603931F_Data">Data1!$DG$11:$DG$108</definedName>
-    <definedName name="A2603931F_Latest">Data1!$DG$108</definedName>
-    <definedName name="A2603989W">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$108</definedName>
-    <definedName name="A2603989W_Data">Data1!$Z$11:$Z$108</definedName>
-    <definedName name="A2603989W_Latest">Data1!$Z$108</definedName>
-    <definedName name="A2603990F">Data1!$BR$1:$BR$10,Data1!$BR$11:$BR$108</definedName>
-    <definedName name="A2603990F_Data">Data1!$BR$11:$BR$108</definedName>
-    <definedName name="A2603990F_Latest">Data1!$BR$108</definedName>
-    <definedName name="A2603991J">Data1!$DJ$1:$DJ$10,Data1!$DJ$11:$DJ$108</definedName>
-    <definedName name="A2603991J_Data">Data1!$DJ$11:$DJ$108</definedName>
-    <definedName name="A2603991J_Latest">Data1!$DJ$108</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$108</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$108</definedName>
+    <definedName name="A2602859F">Data1!$R$1:$R$10,Data1!$R$11:$R$109</definedName>
+    <definedName name="A2602859F_Data">Data1!$R$11:$R$109</definedName>
+    <definedName name="A2602859F_Latest">Data1!$R$109</definedName>
+    <definedName name="A2602860R">Data1!$BJ$1:$BJ$10,Data1!$BJ$11:$BJ$109</definedName>
+    <definedName name="A2602860R_Data">Data1!$BJ$11:$BJ$109</definedName>
+    <definedName name="A2602860R_Latest">Data1!$BJ$109</definedName>
+    <definedName name="A2602861T">Data1!$DB$1:$DB$10,Data1!$DB$11:$DB$109</definedName>
+    <definedName name="A2602861T_Data">Data1!$DB$11:$DB$109</definedName>
+    <definedName name="A2602861T_Latest">Data1!$DB$109</definedName>
+    <definedName name="A2602869K">Data1!$H$1:$H$10,Data1!$H$11:$H$109</definedName>
+    <definedName name="A2602869K_Data">Data1!$H$11:$H$109</definedName>
+    <definedName name="A2602869K_Latest">Data1!$H$109</definedName>
+    <definedName name="A2602870V">Data1!$AZ$1:$AZ$10,Data1!$AZ$11:$AZ$109</definedName>
+    <definedName name="A2602870V_Data">Data1!$AZ$11:$AZ$109</definedName>
+    <definedName name="A2602870V_Latest">Data1!$AZ$109</definedName>
+    <definedName name="A2602871W">Data1!$CR$1:$CR$10,Data1!$CR$11:$CR$109</definedName>
+    <definedName name="A2602871W_Data">Data1!$CR$11:$CR$109</definedName>
+    <definedName name="A2602871W_Latest">Data1!$CR$109</definedName>
+    <definedName name="A2602879R">Data1!$P$1:$P$10,Data1!$P$11:$P$109</definedName>
+    <definedName name="A2602879R_Data">Data1!$P$11:$P$109</definedName>
+    <definedName name="A2602879R_Latest">Data1!$P$109</definedName>
+    <definedName name="A2602880X">Data1!$BH$1:$BH$10,Data1!$BH$11:$BH$109</definedName>
+    <definedName name="A2602880X_Data">Data1!$BH$11:$BH$109</definedName>
+    <definedName name="A2602880X_Latest">Data1!$BH$109</definedName>
+    <definedName name="A2602881A">Data1!$CZ$1:$CZ$10,Data1!$CZ$11:$CZ$109</definedName>
+    <definedName name="A2602881A_Data">Data1!$CZ$11:$CZ$109</definedName>
+    <definedName name="A2602881A_Latest">Data1!$CZ$109</definedName>
+    <definedName name="A2602889V">Data1!$K$1:$K$10,Data1!$K$11:$K$109</definedName>
+    <definedName name="A2602889V_Data">Data1!$K$11:$K$109</definedName>
+    <definedName name="A2602889V_Latest">Data1!$K$109</definedName>
+    <definedName name="A2602890C">Data1!$BC$1:$BC$10,Data1!$BC$11:$BC$109</definedName>
+    <definedName name="A2602890C_Data">Data1!$BC$11:$BC$109</definedName>
+    <definedName name="A2602890C_Latest">Data1!$BC$109</definedName>
+    <definedName name="A2602891F">Data1!$CU$1:$CU$10,Data1!$CU$11:$CU$109</definedName>
+    <definedName name="A2602891F_Data">Data1!$CU$11:$CU$109</definedName>
+    <definedName name="A2602891F_Latest">Data1!$CU$109</definedName>
+    <definedName name="A2602899X">Data1!$I$1:$I$10,Data1!$I$11:$I$109</definedName>
+    <definedName name="A2602899X_Data">Data1!$I$11:$I$109</definedName>
+    <definedName name="A2602899X_Latest">Data1!$I$109</definedName>
+    <definedName name="A2602900W">Data1!$BA$1:$BA$10,Data1!$BA$11:$BA$109</definedName>
+    <definedName name="A2602900W_Data">Data1!$BA$11:$BA$109</definedName>
+    <definedName name="A2602900W_Latest">Data1!$BA$109</definedName>
+    <definedName name="A2602901X">Data1!$CS$1:$CS$10,Data1!$CS$11:$CS$109</definedName>
+    <definedName name="A2602901X_Data">Data1!$CS$11:$CS$109</definedName>
+    <definedName name="A2602901X_Latest">Data1!$CS$109</definedName>
+    <definedName name="A2602909T">Data1!$M$1:$M$10,Data1!$M$11:$M$109</definedName>
+    <definedName name="A2602909T_Data">Data1!$M$11:$M$109</definedName>
+    <definedName name="A2602909T_Latest">Data1!$M$109</definedName>
+    <definedName name="A2602910A">Data1!$BE$1:$BE$10,Data1!$BE$11:$BE$109</definedName>
+    <definedName name="A2602910A_Data">Data1!$BE$11:$BE$109</definedName>
+    <definedName name="A2602910A_Latest">Data1!$BE$109</definedName>
+    <definedName name="A2602911C">Data1!$CW$1:$CW$10,Data1!$CW$11:$CW$109</definedName>
+    <definedName name="A2602911C_Data">Data1!$CW$11:$CW$109</definedName>
+    <definedName name="A2602911C_Latest">Data1!$CW$109</definedName>
+    <definedName name="A2602919W">Data1!$D$1:$D$10,Data1!$D$11:$D$109</definedName>
+    <definedName name="A2602919W_Data">Data1!$D$11:$D$109</definedName>
+    <definedName name="A2602919W_Latest">Data1!$D$109</definedName>
+    <definedName name="A2602920F">Data1!$AV$1:$AV$10,Data1!$AV$11:$AV$109</definedName>
+    <definedName name="A2602920F_Data">Data1!$AV$11:$AV$109</definedName>
+    <definedName name="A2602920F_Latest">Data1!$AV$109</definedName>
+    <definedName name="A2602921J">Data1!$CN$1:$CN$10,Data1!$CN$11:$CN$109</definedName>
+    <definedName name="A2602921J_Data">Data1!$CN$11:$CN$109</definedName>
+    <definedName name="A2602921J_Latest">Data1!$CN$109</definedName>
+    <definedName name="A2602929A">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$109</definedName>
+    <definedName name="A2602929A_Data">Data1!$Q$11:$Q$109</definedName>
+    <definedName name="A2602929A_Latest">Data1!$Q$109</definedName>
+    <definedName name="A2602930K">Data1!$BI$1:$BI$10,Data1!$BI$11:$BI$109</definedName>
+    <definedName name="A2602930K_Data">Data1!$BI$11:$BI$109</definedName>
+    <definedName name="A2602930K_Latest">Data1!$BI$109</definedName>
+    <definedName name="A2602931L">Data1!$DA$1:$DA$10,Data1!$DA$11:$DA$109</definedName>
+    <definedName name="A2602931L_Data">Data1!$DA$11:$DA$109</definedName>
+    <definedName name="A2602931L_Latest">Data1!$DA$109</definedName>
+    <definedName name="A2602939F">Data1!$B$1:$B$10,Data1!$B$11:$B$109</definedName>
+    <definedName name="A2602939F_Data">Data1!$B$11:$B$109</definedName>
+    <definedName name="A2602939F_Latest">Data1!$B$109</definedName>
+    <definedName name="A2602940R">Data1!$AT$1:$AT$10,Data1!$AT$11:$AT$109</definedName>
+    <definedName name="A2602940R_Data">Data1!$AT$11:$AT$109</definedName>
+    <definedName name="A2602940R_Latest">Data1!$AT$109</definedName>
+    <definedName name="A2602941T">Data1!$CL$1:$CL$10,Data1!$CL$11:$CL$109</definedName>
+    <definedName name="A2602941T_Data">Data1!$CL$11:$CL$109</definedName>
+    <definedName name="A2602941T_Latest">Data1!$CL$109</definedName>
+    <definedName name="A2602949K">Data1!$J$1:$J$10,Data1!$J$11:$J$109</definedName>
+    <definedName name="A2602949K_Data">Data1!$J$11:$J$109</definedName>
+    <definedName name="A2602949K_Latest">Data1!$J$109</definedName>
+    <definedName name="A2602950V">Data1!$BB$1:$BB$10,Data1!$BB$11:$BB$109</definedName>
+    <definedName name="A2602950V_Data">Data1!$BB$11:$BB$109</definedName>
+    <definedName name="A2602950V_Latest">Data1!$BB$109</definedName>
+    <definedName name="A2602951W">Data1!$CT$1:$CT$10,Data1!$CT$11:$CT$109</definedName>
+    <definedName name="A2602951W_Data">Data1!$CT$11:$CT$109</definedName>
+    <definedName name="A2602951W_Latest">Data1!$CT$109</definedName>
+    <definedName name="A2602959R">Data1!$C$1:$C$10,Data1!$C$11:$C$109</definedName>
+    <definedName name="A2602959R_Data">Data1!$C$11:$C$109</definedName>
+    <definedName name="A2602959R_Latest">Data1!$C$109</definedName>
+    <definedName name="A2602960X">Data1!$AU$1:$AU$10,Data1!$AU$11:$AU$109</definedName>
+    <definedName name="A2602960X_Data">Data1!$AU$11:$AU$109</definedName>
+    <definedName name="A2602960X_Latest">Data1!$AU$109</definedName>
+    <definedName name="A2602961A">Data1!$CM$1:$CM$10,Data1!$CM$11:$CM$109</definedName>
+    <definedName name="A2602961A_Data">Data1!$CM$11:$CM$109</definedName>
+    <definedName name="A2602961A_Latest">Data1!$CM$109</definedName>
+    <definedName name="A2602969V">Data1!$N$1:$N$10,Data1!$N$11:$N$109</definedName>
+    <definedName name="A2602969V_Data">Data1!$N$11:$N$109</definedName>
+    <definedName name="A2602969V_Latest">Data1!$N$109</definedName>
+    <definedName name="A2602970C">Data1!$BF$1:$BF$10,Data1!$BF$11:$BF$109</definedName>
+    <definedName name="A2602970C_Data">Data1!$BF$11:$BF$109</definedName>
+    <definedName name="A2602970C_Latest">Data1!$BF$109</definedName>
+    <definedName name="A2602971F">Data1!$CX$1:$CX$10,Data1!$CX$11:$CX$109</definedName>
+    <definedName name="A2602971F_Data">Data1!$CX$11:$CX$109</definedName>
+    <definedName name="A2602971F_Latest">Data1!$CX$109</definedName>
+    <definedName name="A2602979X">Data1!$O$1:$O$10,Data1!$O$11:$O$109</definedName>
+    <definedName name="A2602979X_Data">Data1!$O$11:$O$109</definedName>
+    <definedName name="A2602979X_Latest">Data1!$O$109</definedName>
+    <definedName name="A2602980J">Data1!$BG$1:$BG$10,Data1!$BG$11:$BG$109</definedName>
+    <definedName name="A2602980J_Data">Data1!$BG$11:$BG$109</definedName>
+    <definedName name="A2602980J_Latest">Data1!$BG$109</definedName>
+    <definedName name="A2602981K">Data1!$CY$1:$CY$10,Data1!$CY$11:$CY$109</definedName>
+    <definedName name="A2602981K_Data">Data1!$CY$11:$CY$109</definedName>
+    <definedName name="A2602981K_Latest">Data1!$CY$109</definedName>
+    <definedName name="A2602989C">Data1!$G$1:$G$10,Data1!$G$11:$G$109</definedName>
+    <definedName name="A2602989C_Data">Data1!$G$11:$G$109</definedName>
+    <definedName name="A2602989C_Latest">Data1!$G$109</definedName>
+    <definedName name="A2602990L">Data1!$AY$1:$AY$10,Data1!$AY$11:$AY$109</definedName>
+    <definedName name="A2602990L_Data">Data1!$AY$11:$AY$109</definedName>
+    <definedName name="A2602990L_Latest">Data1!$AY$109</definedName>
+    <definedName name="A2602991R">Data1!$CQ$1:$CQ$10,Data1!$CQ$11:$CQ$109</definedName>
+    <definedName name="A2602991R_Data">Data1!$CQ$11:$CQ$109</definedName>
+    <definedName name="A2602991R_Latest">Data1!$CQ$109</definedName>
+    <definedName name="A2602999J">Data1!$F$1:$F$10,Data1!$F$11:$F$109</definedName>
+    <definedName name="A2602999J_Data">Data1!$F$11:$F$109</definedName>
+    <definedName name="A2602999J_Latest">Data1!$F$109</definedName>
+    <definedName name="A2603000J">Data1!$AX$1:$AX$10,Data1!$AX$11:$AX$109</definedName>
+    <definedName name="A2603000J_Data">Data1!$AX$11:$AX$109</definedName>
+    <definedName name="A2603000J_Latest">Data1!$AX$109</definedName>
+    <definedName name="A2603001K">Data1!$CP$1:$CP$10,Data1!$CP$11:$CP$109</definedName>
+    <definedName name="A2603001K_Data">Data1!$CP$11:$CP$109</definedName>
+    <definedName name="A2603001K_Latest">Data1!$CP$109</definedName>
+    <definedName name="A2603009C">Data1!$S$1:$S$10,Data1!$S$11:$S$109</definedName>
+    <definedName name="A2603009C_Data">Data1!$S$11:$S$109</definedName>
+    <definedName name="A2603009C_Latest">Data1!$S$109</definedName>
+    <definedName name="A2603010L">Data1!$BK$1:$BK$10,Data1!$BK$11:$BK$109</definedName>
+    <definedName name="A2603010L_Data">Data1!$BK$11:$BK$109</definedName>
+    <definedName name="A2603010L_Latest">Data1!$BK$109</definedName>
+    <definedName name="A2603011R">Data1!$DC$1:$DC$10,Data1!$DC$11:$DC$109</definedName>
+    <definedName name="A2603011R_Data">Data1!$DC$11:$DC$109</definedName>
+    <definedName name="A2603011R_Latest">Data1!$DC$109</definedName>
+    <definedName name="A2603019J">Data1!$E$1:$E$10,Data1!$E$11:$E$109</definedName>
+    <definedName name="A2603019J_Data">Data1!$E$11:$E$109</definedName>
+    <definedName name="A2603019J_Latest">Data1!$E$109</definedName>
+    <definedName name="A2603020T">Data1!$AW$1:$AW$10,Data1!$AW$11:$AW$109</definedName>
+    <definedName name="A2603020T_Data">Data1!$AW$11:$AW$109</definedName>
+    <definedName name="A2603020T_Latest">Data1!$AW$109</definedName>
+    <definedName name="A2603021V">Data1!$CO$1:$CO$10,Data1!$CO$11:$CO$109</definedName>
+    <definedName name="A2603021V_Data">Data1!$CO$11:$CO$109</definedName>
+    <definedName name="A2603021V_Latest">Data1!$CO$109</definedName>
+    <definedName name="A2603029L">Data1!$L$1:$L$10,Data1!$L$11:$L$109</definedName>
+    <definedName name="A2603029L_Data">Data1!$L$11:$L$109</definedName>
+    <definedName name="A2603029L_Latest">Data1!$L$109</definedName>
+    <definedName name="A2603030W">Data1!$BD$1:$BD$10,Data1!$BD$11:$BD$109</definedName>
+    <definedName name="A2603030W_Data">Data1!$BD$11:$BD$109</definedName>
+    <definedName name="A2603030W_Latest">Data1!$BD$109</definedName>
+    <definedName name="A2603031X">Data1!$CV$1:$CV$10,Data1!$CV$11:$CV$109</definedName>
+    <definedName name="A2603031X_Data">Data1!$CV$11:$CV$109</definedName>
+    <definedName name="A2603031X_Latest">Data1!$CV$109</definedName>
+    <definedName name="A2603039T">Data1!$T$1:$T$10,Data1!$T$11:$T$109</definedName>
+    <definedName name="A2603039T_Data">Data1!$T$11:$T$109</definedName>
+    <definedName name="A2603039T_Latest">Data1!$T$109</definedName>
+    <definedName name="A2603040A">Data1!$BL$1:$BL$10,Data1!$BL$11:$BL$109</definedName>
+    <definedName name="A2603040A_Data">Data1!$BL$11:$BL$109</definedName>
+    <definedName name="A2603040A_Latest">Data1!$BL$109</definedName>
+    <definedName name="A2603041C">Data1!$DD$1:$DD$10,Data1!$DD$11:$DD$109</definedName>
+    <definedName name="A2603041C_Data">Data1!$DD$11:$DD$109</definedName>
+    <definedName name="A2603041C_Latest">Data1!$DD$109</definedName>
+    <definedName name="A2603429X">Data1!$AQ$1:$AQ$10,Data1!$AQ$11:$AQ$109</definedName>
+    <definedName name="A2603429X_Data">Data1!$AQ$11:$AQ$109</definedName>
+    <definedName name="A2603429X_Latest">Data1!$AQ$109</definedName>
+    <definedName name="A2603430J">Data1!$CI$1:$CI$10,Data1!$CI$11:$CI$109</definedName>
+    <definedName name="A2603430J_Data">Data1!$CI$11:$CI$109</definedName>
+    <definedName name="A2603430J_Latest">Data1!$CI$109</definedName>
+    <definedName name="A2603431K">Data1!$EA$1:$EA$10,Data1!$EA$11:$EA$109</definedName>
+    <definedName name="A2603431K_Data">Data1!$EA$11:$EA$109</definedName>
+    <definedName name="A2603431K_Latest">Data1!$EA$109</definedName>
+    <definedName name="A2603439C">Data1!$AG$1:$AG$10,Data1!$AG$11:$AG$109</definedName>
+    <definedName name="A2603439C_Data">Data1!$AG$11:$AG$109</definedName>
+    <definedName name="A2603439C_Latest">Data1!$AG$109</definedName>
+    <definedName name="A2603440L">Data1!$BY$1:$BY$10,Data1!$BY$11:$BY$109</definedName>
+    <definedName name="A2603440L_Data">Data1!$BY$11:$BY$109</definedName>
+    <definedName name="A2603440L_Latest">Data1!$BY$109</definedName>
+    <definedName name="A2603441R">Data1!$DQ$1:$DQ$10,Data1!$DQ$11:$DQ$109</definedName>
+    <definedName name="A2603441R_Data">Data1!$DQ$11:$DQ$109</definedName>
+    <definedName name="A2603441R_Latest">Data1!$DQ$109</definedName>
+    <definedName name="A2603449J">Data1!$AO$1:$AO$10,Data1!$AO$11:$AO$109</definedName>
+    <definedName name="A2603449J_Data">Data1!$AO$11:$AO$109</definedName>
+    <definedName name="A2603449J_Latest">Data1!$AO$109</definedName>
+    <definedName name="A2603450T">Data1!$CG$1:$CG$10,Data1!$CG$11:$CG$109</definedName>
+    <definedName name="A2603450T_Data">Data1!$CG$11:$CG$109</definedName>
+    <definedName name="A2603450T_Latest">Data1!$CG$109</definedName>
+    <definedName name="A2603451V">Data1!$DY$1:$DY$10,Data1!$DY$11:$DY$109</definedName>
+    <definedName name="A2603451V_Data">Data1!$DY$11:$DY$109</definedName>
+    <definedName name="A2603451V_Latest">Data1!$DY$109</definedName>
+    <definedName name="A2603459L">Data1!$AJ$1:$AJ$10,Data1!$AJ$11:$AJ$109</definedName>
+    <definedName name="A2603459L_Data">Data1!$AJ$11:$AJ$109</definedName>
+    <definedName name="A2603459L_Latest">Data1!$AJ$109</definedName>
+    <definedName name="A2603460W">Data1!$CB$1:$CB$10,Data1!$CB$11:$CB$109</definedName>
+    <definedName name="A2603460W_Data">Data1!$CB$11:$CB$109</definedName>
+    <definedName name="A2603460W_Latest">Data1!$CB$109</definedName>
+    <definedName name="A2603461X">Data1!$DT$1:$DT$10,Data1!$DT$11:$DT$109</definedName>
+    <definedName name="A2603461X_Data">Data1!$DT$11:$DT$109</definedName>
+    <definedName name="A2603461X_Latest">Data1!$DT$109</definedName>
+    <definedName name="A2603469T">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$109</definedName>
+    <definedName name="A2603469T_Data">Data1!$AH$11:$AH$109</definedName>
+    <definedName name="A2603469T_Latest">Data1!$AH$109</definedName>
+    <definedName name="A2603470A">Data1!$BZ$1:$BZ$10,Data1!$BZ$11:$BZ$109</definedName>
+    <definedName name="A2603470A_Data">Data1!$BZ$11:$BZ$109</definedName>
+    <definedName name="A2603470A_Latest">Data1!$BZ$109</definedName>
+    <definedName name="A2603471C">Data1!$DR$1:$DR$10,Data1!$DR$11:$DR$109</definedName>
+    <definedName name="A2603471C_Data">Data1!$DR$11:$DR$109</definedName>
+    <definedName name="A2603471C_Latest">Data1!$DR$109</definedName>
+    <definedName name="A2603479W">Data1!$AL$1:$AL$10,Data1!$AL$11:$AL$109</definedName>
+    <definedName name="A2603479W_Data">Data1!$AL$11:$AL$109</definedName>
+    <definedName name="A2603479W_Latest">Data1!$AL$109</definedName>
+    <definedName name="A2603480F">Data1!$CD$1:$CD$10,Data1!$CD$11:$CD$109</definedName>
+    <definedName name="A2603480F_Data">Data1!$CD$11:$CD$109</definedName>
+    <definedName name="A2603480F_Latest">Data1!$CD$109</definedName>
+    <definedName name="A2603481J">Data1!$DV$1:$DV$10,Data1!$DV$11:$DV$109</definedName>
+    <definedName name="A2603481J_Data">Data1!$DV$11:$DV$109</definedName>
+    <definedName name="A2603481J_Latest">Data1!$DV$109</definedName>
+    <definedName name="A2603489A">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$109</definedName>
+    <definedName name="A2603489A_Data">Data1!$AC$11:$AC$109</definedName>
+    <definedName name="A2603489A_Latest">Data1!$AC$109</definedName>
+    <definedName name="A2603490K">Data1!$BU$1:$BU$10,Data1!$BU$11:$BU$109</definedName>
+    <definedName name="A2603490K_Data">Data1!$BU$11:$BU$109</definedName>
+    <definedName name="A2603490K_Latest">Data1!$BU$109</definedName>
+    <definedName name="A2603491L">Data1!$DM$1:$DM$10,Data1!$DM$11:$DM$109</definedName>
+    <definedName name="A2603491L_Data">Data1!$DM$11:$DM$109</definedName>
+    <definedName name="A2603491L_Latest">Data1!$DM$109</definedName>
+    <definedName name="A2603499F">Data1!$AP$1:$AP$10,Data1!$AP$11:$AP$109</definedName>
+    <definedName name="A2603499F_Data">Data1!$AP$11:$AP$109</definedName>
+    <definedName name="A2603499F_Latest">Data1!$AP$109</definedName>
+    <definedName name="A2603500C">Data1!$CH$1:$CH$10,Data1!$CH$11:$CH$109</definedName>
+    <definedName name="A2603500C_Data">Data1!$CH$11:$CH$109</definedName>
+    <definedName name="A2603500C_Latest">Data1!$CH$109</definedName>
+    <definedName name="A2603501F">Data1!$DZ$1:$DZ$10,Data1!$DZ$11:$DZ$109</definedName>
+    <definedName name="A2603501F_Data">Data1!$DZ$11:$DZ$109</definedName>
+    <definedName name="A2603501F_Latest">Data1!$DZ$109</definedName>
+    <definedName name="A2603509X">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$109</definedName>
+    <definedName name="A2603509X_Data">Data1!$AA$11:$AA$109</definedName>
+    <definedName name="A2603509X_Latest">Data1!$AA$109</definedName>
+    <definedName name="A2603510J">Data1!$BS$1:$BS$10,Data1!$BS$11:$BS$109</definedName>
+    <definedName name="A2603510J_Data">Data1!$BS$11:$BS$109</definedName>
+    <definedName name="A2603510J_Latest">Data1!$BS$109</definedName>
+    <definedName name="A2603511K">Data1!$DK$1:$DK$10,Data1!$DK$11:$DK$109</definedName>
+    <definedName name="A2603511K_Data">Data1!$DK$11:$DK$109</definedName>
+    <definedName name="A2603511K_Latest">Data1!$DK$109</definedName>
+    <definedName name="A2603519C">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$109</definedName>
+    <definedName name="A2603519C_Data">Data1!$AI$11:$AI$109</definedName>
+    <definedName name="A2603519C_Latest">Data1!$AI$109</definedName>
+    <definedName name="A2603520L">Data1!$CA$1:$CA$10,Data1!$CA$11:$CA$109</definedName>
+    <definedName name="A2603520L_Data">Data1!$CA$11:$CA$109</definedName>
+    <definedName name="A2603520L_Latest">Data1!$CA$109</definedName>
+    <definedName name="A2603521R">Data1!$DS$1:$DS$10,Data1!$DS$11:$DS$109</definedName>
+    <definedName name="A2603521R_Data">Data1!$DS$11:$DS$109</definedName>
+    <definedName name="A2603521R_Latest">Data1!$DS$109</definedName>
+    <definedName name="A2603529J">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$109</definedName>
+    <definedName name="A2603529J_Data">Data1!$AB$11:$AB$109</definedName>
+    <definedName name="A2603529J_Latest">Data1!$AB$109</definedName>
+    <definedName name="A2603530T">Data1!$BT$1:$BT$10,Data1!$BT$11:$BT$109</definedName>
+    <definedName name="A2603530T_Data">Data1!$BT$11:$BT$109</definedName>
+    <definedName name="A2603530T_Latest">Data1!$BT$109</definedName>
+    <definedName name="A2603531V">Data1!$DL$1:$DL$10,Data1!$DL$11:$DL$109</definedName>
+    <definedName name="A2603531V_Data">Data1!$DL$11:$DL$109</definedName>
+    <definedName name="A2603531V_Latest">Data1!$DL$109</definedName>
+    <definedName name="A2603539L">Data1!$AM$1:$AM$10,Data1!$AM$11:$AM$109</definedName>
+    <definedName name="A2603539L_Data">Data1!$AM$11:$AM$109</definedName>
+    <definedName name="A2603539L_Latest">Data1!$AM$109</definedName>
+    <definedName name="A2603540W">Data1!$CE$1:$CE$10,Data1!$CE$11:$CE$109</definedName>
+    <definedName name="A2603540W_Data">Data1!$CE$11:$CE$109</definedName>
+    <definedName name="A2603540W_Latest">Data1!$CE$109</definedName>
+    <definedName name="A2603541X">Data1!$DW$1:$DW$10,Data1!$DW$11:$DW$109</definedName>
+    <definedName name="A2603541X_Data">Data1!$DW$11:$DW$109</definedName>
+    <definedName name="A2603541X_Latest">Data1!$DW$109</definedName>
+    <definedName name="A2603549T">Data1!$AN$1:$AN$10,Data1!$AN$11:$AN$109</definedName>
+    <definedName name="A2603549T_Data">Data1!$AN$11:$AN$109</definedName>
+    <definedName name="A2603549T_Latest">Data1!$AN$109</definedName>
+    <definedName name="A2603550A">Data1!$CF$1:$CF$10,Data1!$CF$11:$CF$109</definedName>
+    <definedName name="A2603550A_Data">Data1!$CF$11:$CF$109</definedName>
+    <definedName name="A2603550A_Latest">Data1!$CF$109</definedName>
+    <definedName name="A2603551C">Data1!$DX$1:$DX$10,Data1!$DX$11:$DX$109</definedName>
+    <definedName name="A2603551C_Data">Data1!$DX$11:$DX$109</definedName>
+    <definedName name="A2603551C_Latest">Data1!$DX$109</definedName>
+    <definedName name="A2603559W">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$109</definedName>
+    <definedName name="A2603559W_Data">Data1!$AF$11:$AF$109</definedName>
+    <definedName name="A2603559W_Latest">Data1!$AF$109</definedName>
+    <definedName name="A2603560F">Data1!$BX$1:$BX$10,Data1!$BX$11:$BX$109</definedName>
+    <definedName name="A2603560F_Data">Data1!$BX$11:$BX$109</definedName>
+    <definedName name="A2603560F_Latest">Data1!$BX$109</definedName>
+    <definedName name="A2603561J">Data1!$DP$1:$DP$10,Data1!$DP$11:$DP$109</definedName>
+    <definedName name="A2603561J_Data">Data1!$DP$11:$DP$109</definedName>
+    <definedName name="A2603561J_Latest">Data1!$DP$109</definedName>
+    <definedName name="A2603569A">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$109</definedName>
+    <definedName name="A2603569A_Data">Data1!$AE$11:$AE$109</definedName>
+    <definedName name="A2603569A_Latest">Data1!$AE$109</definedName>
+    <definedName name="A2603570K">Data1!$BW$1:$BW$10,Data1!$BW$11:$BW$109</definedName>
+    <definedName name="A2603570K_Data">Data1!$BW$11:$BW$109</definedName>
+    <definedName name="A2603570K_Latest">Data1!$BW$109</definedName>
+    <definedName name="A2603571L">Data1!$DO$1:$DO$10,Data1!$DO$11:$DO$109</definedName>
+    <definedName name="A2603571L_Data">Data1!$DO$11:$DO$109</definedName>
+    <definedName name="A2603571L_Latest">Data1!$DO$109</definedName>
+    <definedName name="A2603579F">Data1!$AR$1:$AR$10,Data1!$AR$11:$AR$109</definedName>
+    <definedName name="A2603579F_Data">Data1!$AR$11:$AR$109</definedName>
+    <definedName name="A2603579F_Latest">Data1!$AR$109</definedName>
+    <definedName name="A2603580R">Data1!$CJ$1:$CJ$10,Data1!$CJ$11:$CJ$109</definedName>
+    <definedName name="A2603580R_Data">Data1!$CJ$11:$CJ$109</definedName>
+    <definedName name="A2603580R_Latest">Data1!$CJ$109</definedName>
+    <definedName name="A2603581T">Data1!$EB$1:$EB$10,Data1!$EB$11:$EB$109</definedName>
+    <definedName name="A2603581T_Data">Data1!$EB$11:$EB$109</definedName>
+    <definedName name="A2603581T_Latest">Data1!$EB$109</definedName>
+    <definedName name="A2603589K">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$109</definedName>
+    <definedName name="A2603589K_Data">Data1!$AD$11:$AD$109</definedName>
+    <definedName name="A2603589K_Latest">Data1!$AD$109</definedName>
+    <definedName name="A2603590V">Data1!$BV$1:$BV$10,Data1!$BV$11:$BV$109</definedName>
+    <definedName name="A2603590V_Data">Data1!$BV$11:$BV$109</definedName>
+    <definedName name="A2603590V_Latest">Data1!$BV$109</definedName>
+    <definedName name="A2603591W">Data1!$DN$1:$DN$10,Data1!$DN$11:$DN$109</definedName>
+    <definedName name="A2603591W_Data">Data1!$DN$11:$DN$109</definedName>
+    <definedName name="A2603591W_Latest">Data1!$DN$109</definedName>
+    <definedName name="A2603599R">Data1!$AK$1:$AK$10,Data1!$AK$11:$AK$109</definedName>
+    <definedName name="A2603599R_Data">Data1!$AK$11:$AK$109</definedName>
+    <definedName name="A2603599R_Latest">Data1!$AK$109</definedName>
+    <definedName name="A2603600L">Data1!$CC$1:$CC$10,Data1!$CC$11:$CC$109</definedName>
+    <definedName name="A2603600L_Data">Data1!$CC$11:$CC$109</definedName>
+    <definedName name="A2603600L_Latest">Data1!$CC$109</definedName>
+    <definedName name="A2603601R">Data1!$DU$1:$DU$10,Data1!$DU$11:$DU$109</definedName>
+    <definedName name="A2603601R_Data">Data1!$DU$11:$DU$109</definedName>
+    <definedName name="A2603601R_Latest">Data1!$DU$109</definedName>
+    <definedName name="A2603609J">Data1!$AS$1:$AS$10,Data1!$AS$11:$AS$109</definedName>
+    <definedName name="A2603609J_Data">Data1!$AS$11:$AS$109</definedName>
+    <definedName name="A2603609J_Latest">Data1!$AS$109</definedName>
+    <definedName name="A2603610T">Data1!$CK$1:$CK$10,Data1!$CK$11:$CK$109</definedName>
+    <definedName name="A2603610T_Data">Data1!$CK$11:$CK$109</definedName>
+    <definedName name="A2603610T_Latest">Data1!$CK$109</definedName>
+    <definedName name="A2603611V">Data1!$EC$1:$EC$10,Data1!$EC$11:$EC$109</definedName>
+    <definedName name="A2603611V_Data">Data1!$EC$11:$EC$109</definedName>
+    <definedName name="A2603611V_Latest">Data1!$EC$109</definedName>
+    <definedName name="A2603829K">Data1!$X$1:$X$10,Data1!$X$11:$X$109</definedName>
+    <definedName name="A2603829K_Data">Data1!$X$11:$X$109</definedName>
+    <definedName name="A2603829K_Latest">Data1!$X$109</definedName>
+    <definedName name="A2603830V">Data1!$BP$1:$BP$10,Data1!$BP$11:$BP$109</definedName>
+    <definedName name="A2603830V_Data">Data1!$BP$11:$BP$109</definedName>
+    <definedName name="A2603830V_Latest">Data1!$BP$109</definedName>
+    <definedName name="A2603831W">Data1!$DH$1:$DH$10,Data1!$DH$11:$DH$109</definedName>
+    <definedName name="A2603831W_Data">Data1!$DH$11:$DH$109</definedName>
+    <definedName name="A2603831W_Latest">Data1!$DH$109</definedName>
+    <definedName name="A2603859X">Data1!$V$1:$V$10,Data1!$V$11:$V$109</definedName>
+    <definedName name="A2603859X_Data">Data1!$V$11:$V$109</definedName>
+    <definedName name="A2603859X_Latest">Data1!$V$109</definedName>
+    <definedName name="A2603860J">Data1!$BN$1:$BN$10,Data1!$BN$11:$BN$109</definedName>
+    <definedName name="A2603860J_Data">Data1!$BN$11:$BN$109</definedName>
+    <definedName name="A2603860J_Latest">Data1!$BN$109</definedName>
+    <definedName name="A2603861K">Data1!$DF$1:$DF$10,Data1!$DF$11:$DF$109</definedName>
+    <definedName name="A2603861K_Data">Data1!$DF$11:$DF$109</definedName>
+    <definedName name="A2603861K_Latest">Data1!$DF$109</definedName>
+    <definedName name="A2603869C">Data1!$U$1:$U$10,Data1!$U$11:$U$109</definedName>
+    <definedName name="A2603869C_Data">Data1!$U$11:$U$109</definedName>
+    <definedName name="A2603869C_Latest">Data1!$U$109</definedName>
+    <definedName name="A2603870L">Data1!$BM$1:$BM$10,Data1!$BM$11:$BM$109</definedName>
+    <definedName name="A2603870L_Data">Data1!$BM$11:$BM$109</definedName>
+    <definedName name="A2603870L_Latest">Data1!$BM$109</definedName>
+    <definedName name="A2603871R">Data1!$DE$1:$DE$10,Data1!$DE$11:$DE$109</definedName>
+    <definedName name="A2603871R_Data">Data1!$DE$11:$DE$109</definedName>
+    <definedName name="A2603871R_Latest">Data1!$DE$109</definedName>
+    <definedName name="A2603879J">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$109</definedName>
+    <definedName name="A2603879J_Data">Data1!$Y$11:$Y$109</definedName>
+    <definedName name="A2603879J_Latest">Data1!$Y$109</definedName>
+    <definedName name="A2603880T">Data1!$BQ$1:$BQ$10,Data1!$BQ$11:$BQ$109</definedName>
+    <definedName name="A2603880T_Data">Data1!$BQ$11:$BQ$109</definedName>
+    <definedName name="A2603880T_Latest">Data1!$BQ$109</definedName>
+    <definedName name="A2603881V">Data1!$DI$1:$DI$10,Data1!$DI$11:$DI$109</definedName>
+    <definedName name="A2603881V_Data">Data1!$DI$11:$DI$109</definedName>
+    <definedName name="A2603881V_Latest">Data1!$DI$109</definedName>
+    <definedName name="A2603929V">Data1!$W$1:$W$10,Data1!$W$11:$W$109</definedName>
+    <definedName name="A2603929V_Data">Data1!$W$11:$W$109</definedName>
+    <definedName name="A2603929V_Latest">Data1!$W$109</definedName>
+    <definedName name="A2603930C">Data1!$BO$1:$BO$10,Data1!$BO$11:$BO$109</definedName>
+    <definedName name="A2603930C_Data">Data1!$BO$11:$BO$109</definedName>
+    <definedName name="A2603930C_Latest">Data1!$BO$109</definedName>
+    <definedName name="A2603931F">Data1!$DG$1:$DG$10,Data1!$DG$11:$DG$109</definedName>
+    <definedName name="A2603931F_Data">Data1!$DG$11:$DG$109</definedName>
+    <definedName name="A2603931F_Latest">Data1!$DG$109</definedName>
+    <definedName name="A2603989W">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$109</definedName>
+    <definedName name="A2603989W_Data">Data1!$Z$11:$Z$109</definedName>
+    <definedName name="A2603989W_Latest">Data1!$Z$109</definedName>
+    <definedName name="A2603990F">Data1!$BR$1:$BR$10,Data1!$BR$11:$BR$109</definedName>
+    <definedName name="A2603990F_Data">Data1!$BR$11:$BR$109</definedName>
+    <definedName name="A2603990F_Latest">Data1!$BR$109</definedName>
+    <definedName name="A2603991J">Data1!$DJ$1:$DJ$10,Data1!$DJ$11:$DJ$109</definedName>
+    <definedName name="A2603991J_Data">Data1!$DJ$11:$DJ$109</definedName>
+    <definedName name="A2603991J_Latest">Data1!$DJ$109</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$109</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$109</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -8328,10 +8328,10 @@
         <v>35674</v>
       </c>
       <c r="G12" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H12" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>141</v>
@@ -8360,10 +8360,10 @@
         <v>35674</v>
       </c>
       <c r="G13" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H13" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>141</v>
@@ -8392,10 +8392,10 @@
         <v>35674</v>
       </c>
       <c r="G14" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H14" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>141</v>
@@ -8424,10 +8424,10 @@
         <v>35674</v>
       </c>
       <c r="G15" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H15" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>141</v>
@@ -8456,10 +8456,10 @@
         <v>35674</v>
       </c>
       <c r="G16" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H16" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>141</v>
@@ -8488,10 +8488,10 @@
         <v>35674</v>
       </c>
       <c r="G17" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H17" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>141</v>
@@ -8520,10 +8520,10 @@
         <v>35674</v>
       </c>
       <c r="G18" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H18" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>141</v>
@@ -8552,10 +8552,10 @@
         <v>35674</v>
       </c>
       <c r="G19" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H19" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>141</v>
@@ -8584,10 +8584,10 @@
         <v>35674</v>
       </c>
       <c r="G20" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H20" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>141</v>
@@ -8616,10 +8616,10 @@
         <v>35674</v>
       </c>
       <c r="G21" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H21" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>141</v>
@@ -8648,10 +8648,10 @@
         <v>35674</v>
       </c>
       <c r="G22" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H22" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>141</v>
@@ -8680,10 +8680,10 @@
         <v>35674</v>
       </c>
       <c r="G23" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H23" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>141</v>
@@ -8712,10 +8712,10 @@
         <v>35674</v>
       </c>
       <c r="G24" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H24" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>141</v>
@@ -8744,10 +8744,10 @@
         <v>35674</v>
       </c>
       <c r="G25" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H25" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>141</v>
@@ -8776,10 +8776,10 @@
         <v>35674</v>
       </c>
       <c r="G26" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H26" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>141</v>
@@ -8808,10 +8808,10 @@
         <v>35674</v>
       </c>
       <c r="G27" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H27" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>141</v>
@@ -8840,10 +8840,10 @@
         <v>35674</v>
       </c>
       <c r="G28" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H28" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>141</v>
@@ -8872,10 +8872,10 @@
         <v>35674</v>
       </c>
       <c r="G29" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H29" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>141</v>
@@ -8904,10 +8904,10 @@
         <v>35674</v>
       </c>
       <c r="G30" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H30" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>141</v>
@@ -8936,10 +8936,10 @@
         <v>35674</v>
       </c>
       <c r="G31" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H31" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>141</v>
@@ -8968,10 +8968,10 @@
         <v>35674</v>
       </c>
       <c r="G32" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H32" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>141</v>
@@ -9000,10 +9000,10 @@
         <v>35674</v>
       </c>
       <c r="G33" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H33" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>141</v>
@@ -9032,10 +9032,10 @@
         <v>35674</v>
       </c>
       <c r="G34" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H34" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>141</v>
@@ -9064,10 +9064,10 @@
         <v>35674</v>
       </c>
       <c r="G35" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H35" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>141</v>
@@ -9096,10 +9096,10 @@
         <v>35674</v>
       </c>
       <c r="G36" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H36" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>141</v>
@@ -9128,10 +9128,10 @@
         <v>35674</v>
       </c>
       <c r="G37" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H37" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>141</v>
@@ -9160,10 +9160,10 @@
         <v>35674</v>
       </c>
       <c r="G38" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H38" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>141</v>
@@ -9192,10 +9192,10 @@
         <v>35674</v>
       </c>
       <c r="G39" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H39" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>141</v>
@@ -9224,10 +9224,10 @@
         <v>35674</v>
       </c>
       <c r="G40" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H40" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>141</v>
@@ -9256,10 +9256,10 @@
         <v>35674</v>
       </c>
       <c r="G41" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H41" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>141</v>
@@ -9288,10 +9288,10 @@
         <v>35674</v>
       </c>
       <c r="G42" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H42" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>141</v>
@@ -9320,10 +9320,10 @@
         <v>35674</v>
       </c>
       <c r="G43" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H43" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>141</v>
@@ -9352,10 +9352,10 @@
         <v>35674</v>
       </c>
       <c r="G44" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H44" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>141</v>
@@ -9384,10 +9384,10 @@
         <v>35674</v>
       </c>
       <c r="G45" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H45" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>141</v>
@@ -9416,10 +9416,10 @@
         <v>35674</v>
       </c>
       <c r="G46" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H46" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>141</v>
@@ -9448,10 +9448,10 @@
         <v>35674</v>
       </c>
       <c r="G47" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H47" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>141</v>
@@ -9480,10 +9480,10 @@
         <v>35674</v>
       </c>
       <c r="G48" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H48" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I48" s="10" t="s">
         <v>141</v>
@@ -9512,10 +9512,10 @@
         <v>35674</v>
       </c>
       <c r="G49" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H49" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>141</v>
@@ -9544,10 +9544,10 @@
         <v>35674</v>
       </c>
       <c r="G50" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H50" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>141</v>
@@ -9576,10 +9576,10 @@
         <v>35674</v>
       </c>
       <c r="G51" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H51" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>141</v>
@@ -9608,10 +9608,10 @@
         <v>35674</v>
       </c>
       <c r="G52" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H52" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>141</v>
@@ -9640,10 +9640,10 @@
         <v>35674</v>
       </c>
       <c r="G53" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H53" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>141</v>
@@ -9672,10 +9672,10 @@
         <v>35674</v>
       </c>
       <c r="G54" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H54" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>141</v>
@@ -9704,10 +9704,10 @@
         <v>35674</v>
       </c>
       <c r="G55" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H55" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>141</v>
@@ -9736,10 +9736,10 @@
         <v>35674</v>
       </c>
       <c r="G56" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H56" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>189</v>
@@ -9768,10 +9768,10 @@
         <v>35674</v>
       </c>
       <c r="G57" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H57" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>189</v>
@@ -9800,10 +9800,10 @@
         <v>35674</v>
       </c>
       <c r="G58" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H58" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>189</v>
@@ -9832,10 +9832,10 @@
         <v>35674</v>
       </c>
       <c r="G59" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H59" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>189</v>
@@ -9864,10 +9864,10 @@
         <v>35674</v>
       </c>
       <c r="G60" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H60" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>189</v>
@@ -9896,10 +9896,10 @@
         <v>35674</v>
       </c>
       <c r="G61" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H61" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>189</v>
@@ -9928,10 +9928,10 @@
         <v>35674</v>
       </c>
       <c r="G62" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H62" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I62" s="10" t="s">
         <v>189</v>
@@ -9960,10 +9960,10 @@
         <v>35674</v>
       </c>
       <c r="G63" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H63" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>189</v>
@@ -9992,10 +9992,10 @@
         <v>35674</v>
       </c>
       <c r="G64" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H64" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>189</v>
@@ -10024,10 +10024,10 @@
         <v>35674</v>
       </c>
       <c r="G65" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H65" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>189</v>
@@ -10056,10 +10056,10 @@
         <v>35674</v>
       </c>
       <c r="G66" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H66" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I66" s="10" t="s">
         <v>189</v>
@@ -10088,10 +10088,10 @@
         <v>35674</v>
       </c>
       <c r="G67" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H67" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>189</v>
@@ -10120,10 +10120,10 @@
         <v>35674</v>
       </c>
       <c r="G68" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H68" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>189</v>
@@ -10152,10 +10152,10 @@
         <v>35674</v>
       </c>
       <c r="G69" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H69" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I69" s="10" t="s">
         <v>189</v>
@@ -10184,10 +10184,10 @@
         <v>35674</v>
       </c>
       <c r="G70" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H70" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I70" s="10" t="s">
         <v>189</v>
@@ -10216,10 +10216,10 @@
         <v>35674</v>
       </c>
       <c r="G71" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H71" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I71" s="10" t="s">
         <v>189</v>
@@ -10248,10 +10248,10 @@
         <v>35674</v>
       </c>
       <c r="G72" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H72" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I72" s="10" t="s">
         <v>189</v>
@@ -10280,10 +10280,10 @@
         <v>35674</v>
       </c>
       <c r="G73" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H73" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I73" s="10" t="s">
         <v>189</v>
@@ -10312,10 +10312,10 @@
         <v>35674</v>
       </c>
       <c r="G74" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H74" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I74" s="10" t="s">
         <v>189</v>
@@ -10344,10 +10344,10 @@
         <v>35674</v>
       </c>
       <c r="G75" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H75" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I75" s="10" t="s">
         <v>189</v>
@@ -10376,10 +10376,10 @@
         <v>35674</v>
       </c>
       <c r="G76" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H76" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I76" s="10" t="s">
         <v>189</v>
@@ -10408,10 +10408,10 @@
         <v>35674</v>
       </c>
       <c r="G77" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H77" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I77" s="10" t="s">
         <v>189</v>
@@ -10440,10 +10440,10 @@
         <v>35674</v>
       </c>
       <c r="G78" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H78" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I78" s="10" t="s">
         <v>189</v>
@@ -10472,10 +10472,10 @@
         <v>35674</v>
       </c>
       <c r="G79" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H79" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I79" s="10" t="s">
         <v>189</v>
@@ -10504,10 +10504,10 @@
         <v>35674</v>
       </c>
       <c r="G80" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H80" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I80" s="10" t="s">
         <v>189</v>
@@ -10536,10 +10536,10 @@
         <v>35674</v>
       </c>
       <c r="G81" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H81" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I81" s="10" t="s">
         <v>189</v>
@@ -10568,10 +10568,10 @@
         <v>35674</v>
       </c>
       <c r="G82" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H82" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I82" s="10" t="s">
         <v>189</v>
@@ -10600,10 +10600,10 @@
         <v>35674</v>
       </c>
       <c r="G83" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H83" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I83" s="10" t="s">
         <v>189</v>
@@ -10632,10 +10632,10 @@
         <v>35674</v>
       </c>
       <c r="G84" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H84" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I84" s="10" t="s">
         <v>189</v>
@@ -10664,10 +10664,10 @@
         <v>35674</v>
       </c>
       <c r="G85" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H85" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I85" s="10" t="s">
         <v>189</v>
@@ -10696,10 +10696,10 @@
         <v>35674</v>
       </c>
       <c r="G86" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H86" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I86" s="10" t="s">
         <v>189</v>
@@ -10728,10 +10728,10 @@
         <v>35674</v>
       </c>
       <c r="G87" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H87" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I87" s="10" t="s">
         <v>189</v>
@@ -10760,10 +10760,10 @@
         <v>35674</v>
       </c>
       <c r="G88" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H88" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I88" s="10" t="s">
         <v>189</v>
@@ -10792,10 +10792,10 @@
         <v>35674</v>
       </c>
       <c r="G89" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H89" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I89" s="10" t="s">
         <v>189</v>
@@ -10824,10 +10824,10 @@
         <v>35674</v>
       </c>
       <c r="G90" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H90" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I90" s="10" t="s">
         <v>189</v>
@@ -10856,10 +10856,10 @@
         <v>35674</v>
       </c>
       <c r="G91" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H91" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I91" s="10" t="s">
         <v>189</v>
@@ -10888,10 +10888,10 @@
         <v>35674</v>
       </c>
       <c r="G92" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H92" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I92" s="10" t="s">
         <v>189</v>
@@ -10920,10 +10920,10 @@
         <v>35674</v>
       </c>
       <c r="G93" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H93" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I93" s="10" t="s">
         <v>189</v>
@@ -10952,10 +10952,10 @@
         <v>35674</v>
       </c>
       <c r="G94" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H94" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I94" s="10" t="s">
         <v>189</v>
@@ -10984,10 +10984,10 @@
         <v>35674</v>
       </c>
       <c r="G95" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H95" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I95" s="10" t="s">
         <v>189</v>
@@ -11016,10 +11016,10 @@
         <v>35674</v>
       </c>
       <c r="G96" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H96" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I96" s="10" t="s">
         <v>189</v>
@@ -11048,10 +11048,10 @@
         <v>35674</v>
       </c>
       <c r="G97" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H97" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I97" s="10" t="s">
         <v>189</v>
@@ -11080,10 +11080,10 @@
         <v>35674</v>
       </c>
       <c r="G98" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H98" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I98" s="10" t="s">
         <v>189</v>
@@ -11112,10 +11112,10 @@
         <v>35674</v>
       </c>
       <c r="G99" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H99" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I99" s="10" t="s">
         <v>189</v>
@@ -11144,10 +11144,10 @@
         <v>35674</v>
       </c>
       <c r="G100" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H100" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I100" s="10" t="s">
         <v>189</v>
@@ -11176,10 +11176,10 @@
         <v>35674</v>
       </c>
       <c r="G101" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H101" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I101" s="10" t="s">
         <v>189</v>
@@ -11208,10 +11208,10 @@
         <v>35674</v>
       </c>
       <c r="G102" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H102" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I102" s="10" t="s">
         <v>189</v>
@@ -11240,10 +11240,10 @@
         <v>35674</v>
       </c>
       <c r="G103" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H103" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I103" s="10" t="s">
         <v>189</v>
@@ -11272,10 +11272,10 @@
         <v>35674</v>
       </c>
       <c r="G104" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H104" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I104" s="10" t="s">
         <v>189</v>
@@ -11304,10 +11304,10 @@
         <v>35674</v>
       </c>
       <c r="G105" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H105" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I105" s="10" t="s">
         <v>189</v>
@@ -11336,10 +11336,10 @@
         <v>35674</v>
       </c>
       <c r="G106" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H106" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I106" s="10" t="s">
         <v>189</v>
@@ -11368,10 +11368,10 @@
         <v>35674</v>
       </c>
       <c r="G107" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H107" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I107" s="10" t="s">
         <v>189</v>
@@ -11400,10 +11400,10 @@
         <v>35674</v>
       </c>
       <c r="G108" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H108" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I108" s="10" t="s">
         <v>189</v>
@@ -11432,10 +11432,10 @@
         <v>35674</v>
       </c>
       <c r="G109" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H109" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I109" s="10" t="s">
         <v>189</v>
@@ -11464,10 +11464,10 @@
         <v>35674</v>
       </c>
       <c r="G110" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H110" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I110" s="10" t="s">
         <v>189</v>
@@ -11496,10 +11496,10 @@
         <v>35674</v>
       </c>
       <c r="G111" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H111" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I111" s="10" t="s">
         <v>189</v>
@@ -11528,10 +11528,10 @@
         <v>35674</v>
       </c>
       <c r="G112" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H112" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I112" s="10" t="s">
         <v>189</v>
@@ -11560,10 +11560,10 @@
         <v>35674</v>
       </c>
       <c r="G113" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H113" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I113" s="10" t="s">
         <v>189</v>
@@ -11592,10 +11592,10 @@
         <v>35674</v>
       </c>
       <c r="G114" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H114" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I114" s="10" t="s">
         <v>189</v>
@@ -11624,10 +11624,10 @@
         <v>35674</v>
       </c>
       <c r="G115" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H115" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I115" s="10" t="s">
         <v>189</v>
@@ -11656,10 +11656,10 @@
         <v>35674</v>
       </c>
       <c r="G116" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H116" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I116" s="10" t="s">
         <v>189</v>
@@ -11688,10 +11688,10 @@
         <v>35674</v>
       </c>
       <c r="G117" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H117" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I117" s="10" t="s">
         <v>189</v>
@@ -11720,10 +11720,10 @@
         <v>35674</v>
       </c>
       <c r="G118" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H118" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I118" s="10" t="s">
         <v>189</v>
@@ -11752,10 +11752,10 @@
         <v>35674</v>
       </c>
       <c r="G119" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H119" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I119" s="10" t="s">
         <v>189</v>
@@ -11784,10 +11784,10 @@
         <v>35674</v>
       </c>
       <c r="G120" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H120" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I120" s="10" t="s">
         <v>189</v>
@@ -11816,10 +11816,10 @@
         <v>35674</v>
       </c>
       <c r="G121" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H121" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I121" s="10" t="s">
         <v>189</v>
@@ -11848,10 +11848,10 @@
         <v>35674</v>
       </c>
       <c r="G122" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H122" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I122" s="10" t="s">
         <v>189</v>
@@ -11880,10 +11880,10 @@
         <v>35674</v>
       </c>
       <c r="G123" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H123" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I123" s="10" t="s">
         <v>189</v>
@@ -11912,10 +11912,10 @@
         <v>35674</v>
       </c>
       <c r="G124" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H124" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I124" s="10" t="s">
         <v>189</v>
@@ -11944,10 +11944,10 @@
         <v>35674</v>
       </c>
       <c r="G125" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H125" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I125" s="10" t="s">
         <v>189</v>
@@ -11976,10 +11976,10 @@
         <v>35674</v>
       </c>
       <c r="G126" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H126" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I126" s="10" t="s">
         <v>189</v>
@@ -12008,10 +12008,10 @@
         <v>35674</v>
       </c>
       <c r="G127" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H127" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I127" s="10" t="s">
         <v>189</v>
@@ -12040,10 +12040,10 @@
         <v>35674</v>
       </c>
       <c r="G128" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H128" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I128" s="10" t="s">
         <v>189</v>
@@ -12072,10 +12072,10 @@
         <v>35674</v>
       </c>
       <c r="G129" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H129" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I129" s="10" t="s">
         <v>189</v>
@@ -12104,10 +12104,10 @@
         <v>35674</v>
       </c>
       <c r="G130" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H130" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I130" s="10" t="s">
         <v>189</v>
@@ -12136,10 +12136,10 @@
         <v>35674</v>
       </c>
       <c r="G131" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H131" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I131" s="10" t="s">
         <v>189</v>
@@ -12168,10 +12168,10 @@
         <v>35674</v>
       </c>
       <c r="G132" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H132" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I132" s="10" t="s">
         <v>189</v>
@@ -12200,10 +12200,10 @@
         <v>35674</v>
       </c>
       <c r="G133" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H133" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I133" s="10" t="s">
         <v>189</v>
@@ -12232,10 +12232,10 @@
         <v>35674</v>
       </c>
       <c r="G134" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H134" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I134" s="10" t="s">
         <v>189</v>
@@ -12264,10 +12264,10 @@
         <v>35674</v>
       </c>
       <c r="G135" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H135" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I135" s="10" t="s">
         <v>189</v>
@@ -12296,10 +12296,10 @@
         <v>35674</v>
       </c>
       <c r="G136" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H136" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I136" s="10" t="s">
         <v>189</v>
@@ -12328,10 +12328,10 @@
         <v>35674</v>
       </c>
       <c r="G137" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H137" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I137" s="10" t="s">
         <v>189</v>
@@ -12360,10 +12360,10 @@
         <v>35674</v>
       </c>
       <c r="G138" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H138" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I138" s="10" t="s">
         <v>189</v>
@@ -12392,10 +12392,10 @@
         <v>35674</v>
       </c>
       <c r="G139" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H139" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I139" s="10" t="s">
         <v>189</v>
@@ -12424,10 +12424,10 @@
         <v>35674</v>
       </c>
       <c r="G140" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H140" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I140" s="10" t="s">
         <v>189</v>
@@ -12456,10 +12456,10 @@
         <v>35674</v>
       </c>
       <c r="G141" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H141" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I141" s="10" t="s">
         <v>189</v>
@@ -12488,10 +12488,10 @@
         <v>35674</v>
       </c>
       <c r="G142" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H142" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I142" s="10" t="s">
         <v>189</v>
@@ -12520,10 +12520,10 @@
         <v>35674</v>
       </c>
       <c r="G143" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H143" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I143" s="10" t="s">
         <v>189</v>
@@ -12690,7 +12690,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EC108"/>
+  <dimension ref="A1:EC109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -15513,400 +15513,400 @@
         <v>138</v>
       </c>
       <c r="B8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="C8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="D8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="E8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="F8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="G8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="I8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="J8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="K8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="L8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="M8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="N8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="O8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="P8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Q8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="R8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="S8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="T8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="U8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="V8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="W8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="X8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Y8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Z8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AA8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AB8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AC8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AD8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AE8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AF8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AG8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AH8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AI8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AJ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AK8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AL8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AM8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AN8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AO8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AP8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AQ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AR8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AS8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AT8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AU8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AV8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AW8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AX8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AY8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AZ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BA8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BB8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BC8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BD8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BE8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BF8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BG8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BH8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BI8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BJ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BK8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BL8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BM8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BN8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BO8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BP8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BQ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BR8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BS8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BT8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BU8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BV8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BW8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BX8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BY8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BZ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CA8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CB8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CC8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CD8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CE8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CF8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CG8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CH8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CI8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CJ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CK8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CL8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CM8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CN8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CO8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CP8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CQ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CR8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CS8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CT8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CU8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CV8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CW8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CX8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CY8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CZ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DA8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DB8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DC8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DD8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DE8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DF8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DG8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DH8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DI8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DJ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DK8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DL8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DM8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DN8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DO8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DP8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DQ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DR8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DS8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DT8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DU8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DV8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DW8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DX8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DY8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DZ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="EA8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="EB8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="EC8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="9" spans="1:133" x14ac:dyDescent="0.2">
@@ -15914,400 +15914,400 @@
         <v>139</v>
       </c>
       <c r="B9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="T9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="W9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Y9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Z9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AA9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AB9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AD9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AE9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AH9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AI9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AJ9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AL9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AN9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AO9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AP9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AQ9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AR9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AS9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AT9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AU9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AV9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AW9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AX9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AY9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AZ9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BA9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BB9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BC9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BD9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BE9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BF9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BG9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BH9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BI9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BJ9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BK9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BL9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BM9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BN9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BO9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BP9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BQ9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BR9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BS9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BT9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BU9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BV9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BW9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BX9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BY9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BZ9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CA9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CB9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CC9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CD9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CE9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CF9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CG9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CH9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CI9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CJ9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CK9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CL9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CM9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CN9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CO9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CP9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CQ9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CR9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CS9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CT9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CU9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CV9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CW9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CX9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CY9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CZ9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="DA9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="DB9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="DC9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="DD9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="DE9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="DF9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="DG9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="DH9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="DI9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="DJ9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="DK9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="DL9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="DM9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="DN9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="DO9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="DP9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="DQ9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="DR9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="DS9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="DT9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="DU9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="DV9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="DW9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="DX9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="DY9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="DZ9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="EA9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="EB9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="EC9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:133" x14ac:dyDescent="0.2">
@@ -55569,6 +55569,407 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
+    <row r="109" spans="1:133" x14ac:dyDescent="0.2">
+      <c r="A109" s="9">
+        <v>44621</v>
+      </c>
+      <c r="B109" s="8">
+        <v>138.6</v>
+      </c>
+      <c r="C109" s="8">
+        <v>139.4</v>
+      </c>
+      <c r="D109" s="8">
+        <v>146.9</v>
+      </c>
+      <c r="E109" s="8">
+        <v>137.6</v>
+      </c>
+      <c r="F109" s="8">
+        <v>137.69999999999999</v>
+      </c>
+      <c r="G109" s="8">
+        <v>134.30000000000001</v>
+      </c>
+      <c r="H109" s="8">
+        <v>136.4</v>
+      </c>
+      <c r="I109" s="8">
+        <v>138.4</v>
+      </c>
+      <c r="J109" s="8">
+        <v>134.19999999999999</v>
+      </c>
+      <c r="K109" s="8">
+        <v>141.4</v>
+      </c>
+      <c r="L109" s="8">
+        <v>133.4</v>
+      </c>
+      <c r="M109" s="8">
+        <v>138</v>
+      </c>
+      <c r="N109" s="8">
+        <v>133</v>
+      </c>
+      <c r="O109" s="8">
+        <v>138.1</v>
+      </c>
+      <c r="P109" s="8">
+        <v>145.1</v>
+      </c>
+      <c r="Q109" s="8">
+        <v>145.1</v>
+      </c>
+      <c r="R109" s="8">
+        <v>140.80000000000001</v>
+      </c>
+      <c r="S109" s="8">
+        <v>137.5</v>
+      </c>
+      <c r="T109" s="8">
+        <v>138.30000000000001</v>
+      </c>
+      <c r="U109" s="8">
+        <v>143.30000000000001</v>
+      </c>
+      <c r="V109" s="8">
+        <v>136.30000000000001</v>
+      </c>
+      <c r="W109" s="8">
+        <v>140.80000000000001</v>
+      </c>
+      <c r="X109" s="8">
+        <v>144.5</v>
+      </c>
+      <c r="Y109" s="8">
+        <v>143.1</v>
+      </c>
+      <c r="Z109" s="8">
+        <v>142.5</v>
+      </c>
+      <c r="AA109" s="8">
+        <v>138.6</v>
+      </c>
+      <c r="AB109" s="8">
+        <v>139.4</v>
+      </c>
+      <c r="AC109" s="8">
+        <v>145</v>
+      </c>
+      <c r="AD109" s="8">
+        <v>137.69999999999999</v>
+      </c>
+      <c r="AE109" s="8">
+        <v>137.69999999999999</v>
+      </c>
+      <c r="AF109" s="8">
+        <v>134.30000000000001</v>
+      </c>
+      <c r="AG109" s="8">
+        <v>136.5</v>
+      </c>
+      <c r="AH109" s="8">
+        <v>138.9</v>
+      </c>
+      <c r="AI109" s="8">
+        <v>134.9</v>
+      </c>
+      <c r="AJ109" s="8">
+        <v>141.4</v>
+      </c>
+      <c r="AK109" s="8">
+        <v>134</v>
+      </c>
+      <c r="AL109" s="8">
+        <v>138</v>
+      </c>
+      <c r="AM109" s="8">
+        <v>133.19999999999999</v>
+      </c>
+      <c r="AN109" s="8">
+        <v>140.6</v>
+      </c>
+      <c r="AO109" s="8">
+        <v>144.69999999999999</v>
+      </c>
+      <c r="AP109" s="8">
+        <v>144.19999999999999</v>
+      </c>
+      <c r="AQ109" s="8">
+        <v>140.5</v>
+      </c>
+      <c r="AR109" s="8">
+        <v>137.6</v>
+      </c>
+      <c r="AS109" s="8">
+        <v>139.30000000000001</v>
+      </c>
+      <c r="AT109" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="AU109" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="AV109" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AW109" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="AX109" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="AY109" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="AZ109" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="BA109" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="BB109" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="BC109" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="BD109" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="BE109" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="BF109" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="BG109" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="BH109" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="BI109" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="BJ109" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="BK109" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="BL109" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="BM109" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="BN109" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="BO109" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="BP109" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="BQ109" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="BR109" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="BS109" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="BT109" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="BU109" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="BV109" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="BW109" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="BX109" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="BY109" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="BZ109" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="CA109" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="CB109" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="CC109" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="CD109" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="CE109" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="CF109" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="CG109" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="CH109" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="CI109" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="CJ109" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="CK109" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="CL109" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="CM109" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="CN109" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="CO109" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="CP109" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="CQ109" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="CR109" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="CS109" s="8">
+        <v>2</v>
+      </c>
+      <c r="CT109" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CU109" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="CV109" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="CW109" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="CX109" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="CY109" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="CZ109" s="8">
+        <v>2</v>
+      </c>
+      <c r="DA109" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DB109" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="DC109" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="DD109" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="DE109" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="DF109" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="DG109" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="DH109" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DI109" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="DJ109" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DK109" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="DL109" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="DM109" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="DN109" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="DO109" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="DP109" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="DQ109" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="DR109" s="8">
+        <v>2</v>
+      </c>
+      <c r="DS109" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="DT109" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="DU109" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="DV109" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="DW109" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="DX109" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="DY109" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DZ109" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="EA109" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="EB109" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="EC109" s="8">
+        <v>2.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/data-raw/abs/6345.0/634505b.xlsx
+++ b/data-raw/abs/6345.0/634505b.xlsx
@@ -12,404 +12,404 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A2602859F">Data1!$R$1:$R$10,Data1!$R$11:$R$109</definedName>
-    <definedName name="A2602859F_Data">Data1!$R$11:$R$109</definedName>
-    <definedName name="A2602859F_Latest">Data1!$R$109</definedName>
-    <definedName name="A2602860R">Data1!$BJ$1:$BJ$10,Data1!$BJ$11:$BJ$109</definedName>
-    <definedName name="A2602860R_Data">Data1!$BJ$11:$BJ$109</definedName>
-    <definedName name="A2602860R_Latest">Data1!$BJ$109</definedName>
-    <definedName name="A2602861T">Data1!$DB$1:$DB$10,Data1!$DB$11:$DB$109</definedName>
-    <definedName name="A2602861T_Data">Data1!$DB$11:$DB$109</definedName>
-    <definedName name="A2602861T_Latest">Data1!$DB$109</definedName>
-    <definedName name="A2602869K">Data1!$H$1:$H$10,Data1!$H$11:$H$109</definedName>
-    <definedName name="A2602869K_Data">Data1!$H$11:$H$109</definedName>
-    <definedName name="A2602869K_Latest">Data1!$H$109</definedName>
-    <definedName name="A2602870V">Data1!$AZ$1:$AZ$10,Data1!$AZ$11:$AZ$109</definedName>
-    <definedName name="A2602870V_Data">Data1!$AZ$11:$AZ$109</definedName>
-    <definedName name="A2602870V_Latest">Data1!$AZ$109</definedName>
-    <definedName name="A2602871W">Data1!$CR$1:$CR$10,Data1!$CR$11:$CR$109</definedName>
-    <definedName name="A2602871W_Data">Data1!$CR$11:$CR$109</definedName>
-    <definedName name="A2602871W_Latest">Data1!$CR$109</definedName>
-    <definedName name="A2602879R">Data1!$P$1:$P$10,Data1!$P$11:$P$109</definedName>
-    <definedName name="A2602879R_Data">Data1!$P$11:$P$109</definedName>
-    <definedName name="A2602879R_Latest">Data1!$P$109</definedName>
-    <definedName name="A2602880X">Data1!$BH$1:$BH$10,Data1!$BH$11:$BH$109</definedName>
-    <definedName name="A2602880X_Data">Data1!$BH$11:$BH$109</definedName>
-    <definedName name="A2602880X_Latest">Data1!$BH$109</definedName>
-    <definedName name="A2602881A">Data1!$CZ$1:$CZ$10,Data1!$CZ$11:$CZ$109</definedName>
-    <definedName name="A2602881A_Data">Data1!$CZ$11:$CZ$109</definedName>
-    <definedName name="A2602881A_Latest">Data1!$CZ$109</definedName>
-    <definedName name="A2602889V">Data1!$K$1:$K$10,Data1!$K$11:$K$109</definedName>
-    <definedName name="A2602889V_Data">Data1!$K$11:$K$109</definedName>
-    <definedName name="A2602889V_Latest">Data1!$K$109</definedName>
-    <definedName name="A2602890C">Data1!$BC$1:$BC$10,Data1!$BC$11:$BC$109</definedName>
-    <definedName name="A2602890C_Data">Data1!$BC$11:$BC$109</definedName>
-    <definedName name="A2602890C_Latest">Data1!$BC$109</definedName>
-    <definedName name="A2602891F">Data1!$CU$1:$CU$10,Data1!$CU$11:$CU$109</definedName>
-    <definedName name="A2602891F_Data">Data1!$CU$11:$CU$109</definedName>
-    <definedName name="A2602891F_Latest">Data1!$CU$109</definedName>
-    <definedName name="A2602899X">Data1!$I$1:$I$10,Data1!$I$11:$I$109</definedName>
-    <definedName name="A2602899X_Data">Data1!$I$11:$I$109</definedName>
-    <definedName name="A2602899X_Latest">Data1!$I$109</definedName>
-    <definedName name="A2602900W">Data1!$BA$1:$BA$10,Data1!$BA$11:$BA$109</definedName>
-    <definedName name="A2602900W_Data">Data1!$BA$11:$BA$109</definedName>
-    <definedName name="A2602900W_Latest">Data1!$BA$109</definedName>
-    <definedName name="A2602901X">Data1!$CS$1:$CS$10,Data1!$CS$11:$CS$109</definedName>
-    <definedName name="A2602901X_Data">Data1!$CS$11:$CS$109</definedName>
-    <definedName name="A2602901X_Latest">Data1!$CS$109</definedName>
-    <definedName name="A2602909T">Data1!$M$1:$M$10,Data1!$M$11:$M$109</definedName>
-    <definedName name="A2602909T_Data">Data1!$M$11:$M$109</definedName>
-    <definedName name="A2602909T_Latest">Data1!$M$109</definedName>
-    <definedName name="A2602910A">Data1!$BE$1:$BE$10,Data1!$BE$11:$BE$109</definedName>
-    <definedName name="A2602910A_Data">Data1!$BE$11:$BE$109</definedName>
-    <definedName name="A2602910A_Latest">Data1!$BE$109</definedName>
-    <definedName name="A2602911C">Data1!$CW$1:$CW$10,Data1!$CW$11:$CW$109</definedName>
-    <definedName name="A2602911C_Data">Data1!$CW$11:$CW$109</definedName>
-    <definedName name="A2602911C_Latest">Data1!$CW$109</definedName>
-    <definedName name="A2602919W">Data1!$D$1:$D$10,Data1!$D$11:$D$109</definedName>
-    <definedName name="A2602919W_Data">Data1!$D$11:$D$109</definedName>
-    <definedName name="A2602919W_Latest">Data1!$D$109</definedName>
-    <definedName name="A2602920F">Data1!$AV$1:$AV$10,Data1!$AV$11:$AV$109</definedName>
-    <definedName name="A2602920F_Data">Data1!$AV$11:$AV$109</definedName>
-    <definedName name="A2602920F_Latest">Data1!$AV$109</definedName>
-    <definedName name="A2602921J">Data1!$CN$1:$CN$10,Data1!$CN$11:$CN$109</definedName>
-    <definedName name="A2602921J_Data">Data1!$CN$11:$CN$109</definedName>
-    <definedName name="A2602921J_Latest">Data1!$CN$109</definedName>
-    <definedName name="A2602929A">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$109</definedName>
-    <definedName name="A2602929A_Data">Data1!$Q$11:$Q$109</definedName>
-    <definedName name="A2602929A_Latest">Data1!$Q$109</definedName>
-    <definedName name="A2602930K">Data1!$BI$1:$BI$10,Data1!$BI$11:$BI$109</definedName>
-    <definedName name="A2602930K_Data">Data1!$BI$11:$BI$109</definedName>
-    <definedName name="A2602930K_Latest">Data1!$BI$109</definedName>
-    <definedName name="A2602931L">Data1!$DA$1:$DA$10,Data1!$DA$11:$DA$109</definedName>
-    <definedName name="A2602931L_Data">Data1!$DA$11:$DA$109</definedName>
-    <definedName name="A2602931L_Latest">Data1!$DA$109</definedName>
-    <definedName name="A2602939F">Data1!$B$1:$B$10,Data1!$B$11:$B$109</definedName>
-    <definedName name="A2602939F_Data">Data1!$B$11:$B$109</definedName>
-    <definedName name="A2602939F_Latest">Data1!$B$109</definedName>
-    <definedName name="A2602940R">Data1!$AT$1:$AT$10,Data1!$AT$11:$AT$109</definedName>
-    <definedName name="A2602940R_Data">Data1!$AT$11:$AT$109</definedName>
-    <definedName name="A2602940R_Latest">Data1!$AT$109</definedName>
-    <definedName name="A2602941T">Data1!$CL$1:$CL$10,Data1!$CL$11:$CL$109</definedName>
-    <definedName name="A2602941T_Data">Data1!$CL$11:$CL$109</definedName>
-    <definedName name="A2602941T_Latest">Data1!$CL$109</definedName>
-    <definedName name="A2602949K">Data1!$J$1:$J$10,Data1!$J$11:$J$109</definedName>
-    <definedName name="A2602949K_Data">Data1!$J$11:$J$109</definedName>
-    <definedName name="A2602949K_Latest">Data1!$J$109</definedName>
-    <definedName name="A2602950V">Data1!$BB$1:$BB$10,Data1!$BB$11:$BB$109</definedName>
-    <definedName name="A2602950V_Data">Data1!$BB$11:$BB$109</definedName>
-    <definedName name="A2602950V_Latest">Data1!$BB$109</definedName>
-    <definedName name="A2602951W">Data1!$CT$1:$CT$10,Data1!$CT$11:$CT$109</definedName>
-    <definedName name="A2602951W_Data">Data1!$CT$11:$CT$109</definedName>
-    <definedName name="A2602951W_Latest">Data1!$CT$109</definedName>
-    <definedName name="A2602959R">Data1!$C$1:$C$10,Data1!$C$11:$C$109</definedName>
-    <definedName name="A2602959R_Data">Data1!$C$11:$C$109</definedName>
-    <definedName name="A2602959R_Latest">Data1!$C$109</definedName>
-    <definedName name="A2602960X">Data1!$AU$1:$AU$10,Data1!$AU$11:$AU$109</definedName>
-    <definedName name="A2602960X_Data">Data1!$AU$11:$AU$109</definedName>
-    <definedName name="A2602960X_Latest">Data1!$AU$109</definedName>
-    <definedName name="A2602961A">Data1!$CM$1:$CM$10,Data1!$CM$11:$CM$109</definedName>
-    <definedName name="A2602961A_Data">Data1!$CM$11:$CM$109</definedName>
-    <definedName name="A2602961A_Latest">Data1!$CM$109</definedName>
-    <definedName name="A2602969V">Data1!$N$1:$N$10,Data1!$N$11:$N$109</definedName>
-    <definedName name="A2602969V_Data">Data1!$N$11:$N$109</definedName>
-    <definedName name="A2602969V_Latest">Data1!$N$109</definedName>
-    <definedName name="A2602970C">Data1!$BF$1:$BF$10,Data1!$BF$11:$BF$109</definedName>
-    <definedName name="A2602970C_Data">Data1!$BF$11:$BF$109</definedName>
-    <definedName name="A2602970C_Latest">Data1!$BF$109</definedName>
-    <definedName name="A2602971F">Data1!$CX$1:$CX$10,Data1!$CX$11:$CX$109</definedName>
-    <definedName name="A2602971F_Data">Data1!$CX$11:$CX$109</definedName>
-    <definedName name="A2602971F_Latest">Data1!$CX$109</definedName>
-    <definedName name="A2602979X">Data1!$O$1:$O$10,Data1!$O$11:$O$109</definedName>
-    <definedName name="A2602979X_Data">Data1!$O$11:$O$109</definedName>
-    <definedName name="A2602979X_Latest">Data1!$O$109</definedName>
-    <definedName name="A2602980J">Data1!$BG$1:$BG$10,Data1!$BG$11:$BG$109</definedName>
-    <definedName name="A2602980J_Data">Data1!$BG$11:$BG$109</definedName>
-    <definedName name="A2602980J_Latest">Data1!$BG$109</definedName>
-    <definedName name="A2602981K">Data1!$CY$1:$CY$10,Data1!$CY$11:$CY$109</definedName>
-    <definedName name="A2602981K_Data">Data1!$CY$11:$CY$109</definedName>
-    <definedName name="A2602981K_Latest">Data1!$CY$109</definedName>
-    <definedName name="A2602989C">Data1!$G$1:$G$10,Data1!$G$11:$G$109</definedName>
-    <definedName name="A2602989C_Data">Data1!$G$11:$G$109</definedName>
-    <definedName name="A2602989C_Latest">Data1!$G$109</definedName>
-    <definedName name="A2602990L">Data1!$AY$1:$AY$10,Data1!$AY$11:$AY$109</definedName>
-    <definedName name="A2602990L_Data">Data1!$AY$11:$AY$109</definedName>
-    <definedName name="A2602990L_Latest">Data1!$AY$109</definedName>
-    <definedName name="A2602991R">Data1!$CQ$1:$CQ$10,Data1!$CQ$11:$CQ$109</definedName>
-    <definedName name="A2602991R_Data">Data1!$CQ$11:$CQ$109</definedName>
-    <definedName name="A2602991R_Latest">Data1!$CQ$109</definedName>
-    <definedName name="A2602999J">Data1!$F$1:$F$10,Data1!$F$11:$F$109</definedName>
-    <definedName name="A2602999J_Data">Data1!$F$11:$F$109</definedName>
-    <definedName name="A2602999J_Latest">Data1!$F$109</definedName>
-    <definedName name="A2603000J">Data1!$AX$1:$AX$10,Data1!$AX$11:$AX$109</definedName>
-    <definedName name="A2603000J_Data">Data1!$AX$11:$AX$109</definedName>
-    <definedName name="A2603000J_Latest">Data1!$AX$109</definedName>
-    <definedName name="A2603001K">Data1!$CP$1:$CP$10,Data1!$CP$11:$CP$109</definedName>
-    <definedName name="A2603001K_Data">Data1!$CP$11:$CP$109</definedName>
-    <definedName name="A2603001K_Latest">Data1!$CP$109</definedName>
-    <definedName name="A2603009C">Data1!$S$1:$S$10,Data1!$S$11:$S$109</definedName>
-    <definedName name="A2603009C_Data">Data1!$S$11:$S$109</definedName>
-    <definedName name="A2603009C_Latest">Data1!$S$109</definedName>
-    <definedName name="A2603010L">Data1!$BK$1:$BK$10,Data1!$BK$11:$BK$109</definedName>
-    <definedName name="A2603010L_Data">Data1!$BK$11:$BK$109</definedName>
-    <definedName name="A2603010L_Latest">Data1!$BK$109</definedName>
-    <definedName name="A2603011R">Data1!$DC$1:$DC$10,Data1!$DC$11:$DC$109</definedName>
-    <definedName name="A2603011R_Data">Data1!$DC$11:$DC$109</definedName>
-    <definedName name="A2603011R_Latest">Data1!$DC$109</definedName>
-    <definedName name="A2603019J">Data1!$E$1:$E$10,Data1!$E$11:$E$109</definedName>
-    <definedName name="A2603019J_Data">Data1!$E$11:$E$109</definedName>
-    <definedName name="A2603019J_Latest">Data1!$E$109</definedName>
-    <definedName name="A2603020T">Data1!$AW$1:$AW$10,Data1!$AW$11:$AW$109</definedName>
-    <definedName name="A2603020T_Data">Data1!$AW$11:$AW$109</definedName>
-    <definedName name="A2603020T_Latest">Data1!$AW$109</definedName>
-    <definedName name="A2603021V">Data1!$CO$1:$CO$10,Data1!$CO$11:$CO$109</definedName>
-    <definedName name="A2603021V_Data">Data1!$CO$11:$CO$109</definedName>
-    <definedName name="A2603021V_Latest">Data1!$CO$109</definedName>
-    <definedName name="A2603029L">Data1!$L$1:$L$10,Data1!$L$11:$L$109</definedName>
-    <definedName name="A2603029L_Data">Data1!$L$11:$L$109</definedName>
-    <definedName name="A2603029L_Latest">Data1!$L$109</definedName>
-    <definedName name="A2603030W">Data1!$BD$1:$BD$10,Data1!$BD$11:$BD$109</definedName>
-    <definedName name="A2603030W_Data">Data1!$BD$11:$BD$109</definedName>
-    <definedName name="A2603030W_Latest">Data1!$BD$109</definedName>
-    <definedName name="A2603031X">Data1!$CV$1:$CV$10,Data1!$CV$11:$CV$109</definedName>
-    <definedName name="A2603031X_Data">Data1!$CV$11:$CV$109</definedName>
-    <definedName name="A2603031X_Latest">Data1!$CV$109</definedName>
-    <definedName name="A2603039T">Data1!$T$1:$T$10,Data1!$T$11:$T$109</definedName>
-    <definedName name="A2603039T_Data">Data1!$T$11:$T$109</definedName>
-    <definedName name="A2603039T_Latest">Data1!$T$109</definedName>
-    <definedName name="A2603040A">Data1!$BL$1:$BL$10,Data1!$BL$11:$BL$109</definedName>
-    <definedName name="A2603040A_Data">Data1!$BL$11:$BL$109</definedName>
-    <definedName name="A2603040A_Latest">Data1!$BL$109</definedName>
-    <definedName name="A2603041C">Data1!$DD$1:$DD$10,Data1!$DD$11:$DD$109</definedName>
-    <definedName name="A2603041C_Data">Data1!$DD$11:$DD$109</definedName>
-    <definedName name="A2603041C_Latest">Data1!$DD$109</definedName>
-    <definedName name="A2603429X">Data1!$AQ$1:$AQ$10,Data1!$AQ$11:$AQ$109</definedName>
-    <definedName name="A2603429X_Data">Data1!$AQ$11:$AQ$109</definedName>
-    <definedName name="A2603429X_Latest">Data1!$AQ$109</definedName>
-    <definedName name="A2603430J">Data1!$CI$1:$CI$10,Data1!$CI$11:$CI$109</definedName>
-    <definedName name="A2603430J_Data">Data1!$CI$11:$CI$109</definedName>
-    <definedName name="A2603430J_Latest">Data1!$CI$109</definedName>
-    <definedName name="A2603431K">Data1!$EA$1:$EA$10,Data1!$EA$11:$EA$109</definedName>
-    <definedName name="A2603431K_Data">Data1!$EA$11:$EA$109</definedName>
-    <definedName name="A2603431K_Latest">Data1!$EA$109</definedName>
-    <definedName name="A2603439C">Data1!$AG$1:$AG$10,Data1!$AG$11:$AG$109</definedName>
-    <definedName name="A2603439C_Data">Data1!$AG$11:$AG$109</definedName>
-    <definedName name="A2603439C_Latest">Data1!$AG$109</definedName>
-    <definedName name="A2603440L">Data1!$BY$1:$BY$10,Data1!$BY$11:$BY$109</definedName>
-    <definedName name="A2603440L_Data">Data1!$BY$11:$BY$109</definedName>
-    <definedName name="A2603440L_Latest">Data1!$BY$109</definedName>
-    <definedName name="A2603441R">Data1!$DQ$1:$DQ$10,Data1!$DQ$11:$DQ$109</definedName>
-    <definedName name="A2603441R_Data">Data1!$DQ$11:$DQ$109</definedName>
-    <definedName name="A2603441R_Latest">Data1!$DQ$109</definedName>
-    <definedName name="A2603449J">Data1!$AO$1:$AO$10,Data1!$AO$11:$AO$109</definedName>
-    <definedName name="A2603449J_Data">Data1!$AO$11:$AO$109</definedName>
-    <definedName name="A2603449J_Latest">Data1!$AO$109</definedName>
-    <definedName name="A2603450T">Data1!$CG$1:$CG$10,Data1!$CG$11:$CG$109</definedName>
-    <definedName name="A2603450T_Data">Data1!$CG$11:$CG$109</definedName>
-    <definedName name="A2603450T_Latest">Data1!$CG$109</definedName>
-    <definedName name="A2603451V">Data1!$DY$1:$DY$10,Data1!$DY$11:$DY$109</definedName>
-    <definedName name="A2603451V_Data">Data1!$DY$11:$DY$109</definedName>
-    <definedName name="A2603451V_Latest">Data1!$DY$109</definedName>
-    <definedName name="A2603459L">Data1!$AJ$1:$AJ$10,Data1!$AJ$11:$AJ$109</definedName>
-    <definedName name="A2603459L_Data">Data1!$AJ$11:$AJ$109</definedName>
-    <definedName name="A2603459L_Latest">Data1!$AJ$109</definedName>
-    <definedName name="A2603460W">Data1!$CB$1:$CB$10,Data1!$CB$11:$CB$109</definedName>
-    <definedName name="A2603460W_Data">Data1!$CB$11:$CB$109</definedName>
-    <definedName name="A2603460W_Latest">Data1!$CB$109</definedName>
-    <definedName name="A2603461X">Data1!$DT$1:$DT$10,Data1!$DT$11:$DT$109</definedName>
-    <definedName name="A2603461X_Data">Data1!$DT$11:$DT$109</definedName>
-    <definedName name="A2603461X_Latest">Data1!$DT$109</definedName>
-    <definedName name="A2603469T">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$109</definedName>
-    <definedName name="A2603469T_Data">Data1!$AH$11:$AH$109</definedName>
-    <definedName name="A2603469T_Latest">Data1!$AH$109</definedName>
-    <definedName name="A2603470A">Data1!$BZ$1:$BZ$10,Data1!$BZ$11:$BZ$109</definedName>
-    <definedName name="A2603470A_Data">Data1!$BZ$11:$BZ$109</definedName>
-    <definedName name="A2603470A_Latest">Data1!$BZ$109</definedName>
-    <definedName name="A2603471C">Data1!$DR$1:$DR$10,Data1!$DR$11:$DR$109</definedName>
-    <definedName name="A2603471C_Data">Data1!$DR$11:$DR$109</definedName>
-    <definedName name="A2603471C_Latest">Data1!$DR$109</definedName>
-    <definedName name="A2603479W">Data1!$AL$1:$AL$10,Data1!$AL$11:$AL$109</definedName>
-    <definedName name="A2603479W_Data">Data1!$AL$11:$AL$109</definedName>
-    <definedName name="A2603479W_Latest">Data1!$AL$109</definedName>
-    <definedName name="A2603480F">Data1!$CD$1:$CD$10,Data1!$CD$11:$CD$109</definedName>
-    <definedName name="A2603480F_Data">Data1!$CD$11:$CD$109</definedName>
-    <definedName name="A2603480F_Latest">Data1!$CD$109</definedName>
-    <definedName name="A2603481J">Data1!$DV$1:$DV$10,Data1!$DV$11:$DV$109</definedName>
-    <definedName name="A2603481J_Data">Data1!$DV$11:$DV$109</definedName>
-    <definedName name="A2603481J_Latest">Data1!$DV$109</definedName>
-    <definedName name="A2603489A">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$109</definedName>
-    <definedName name="A2603489A_Data">Data1!$AC$11:$AC$109</definedName>
-    <definedName name="A2603489A_Latest">Data1!$AC$109</definedName>
-    <definedName name="A2603490K">Data1!$BU$1:$BU$10,Data1!$BU$11:$BU$109</definedName>
-    <definedName name="A2603490K_Data">Data1!$BU$11:$BU$109</definedName>
-    <definedName name="A2603490K_Latest">Data1!$BU$109</definedName>
-    <definedName name="A2603491L">Data1!$DM$1:$DM$10,Data1!$DM$11:$DM$109</definedName>
-    <definedName name="A2603491L_Data">Data1!$DM$11:$DM$109</definedName>
-    <definedName name="A2603491L_Latest">Data1!$DM$109</definedName>
-    <definedName name="A2603499F">Data1!$AP$1:$AP$10,Data1!$AP$11:$AP$109</definedName>
-    <definedName name="A2603499F_Data">Data1!$AP$11:$AP$109</definedName>
-    <definedName name="A2603499F_Latest">Data1!$AP$109</definedName>
-    <definedName name="A2603500C">Data1!$CH$1:$CH$10,Data1!$CH$11:$CH$109</definedName>
-    <definedName name="A2603500C_Data">Data1!$CH$11:$CH$109</definedName>
-    <definedName name="A2603500C_Latest">Data1!$CH$109</definedName>
-    <definedName name="A2603501F">Data1!$DZ$1:$DZ$10,Data1!$DZ$11:$DZ$109</definedName>
-    <definedName name="A2603501F_Data">Data1!$DZ$11:$DZ$109</definedName>
-    <definedName name="A2603501F_Latest">Data1!$DZ$109</definedName>
-    <definedName name="A2603509X">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$109</definedName>
-    <definedName name="A2603509X_Data">Data1!$AA$11:$AA$109</definedName>
-    <definedName name="A2603509X_Latest">Data1!$AA$109</definedName>
-    <definedName name="A2603510J">Data1!$BS$1:$BS$10,Data1!$BS$11:$BS$109</definedName>
-    <definedName name="A2603510J_Data">Data1!$BS$11:$BS$109</definedName>
-    <definedName name="A2603510J_Latest">Data1!$BS$109</definedName>
-    <definedName name="A2603511K">Data1!$DK$1:$DK$10,Data1!$DK$11:$DK$109</definedName>
-    <definedName name="A2603511K_Data">Data1!$DK$11:$DK$109</definedName>
-    <definedName name="A2603511K_Latest">Data1!$DK$109</definedName>
-    <definedName name="A2603519C">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$109</definedName>
-    <definedName name="A2603519C_Data">Data1!$AI$11:$AI$109</definedName>
-    <definedName name="A2603519C_Latest">Data1!$AI$109</definedName>
-    <definedName name="A2603520L">Data1!$CA$1:$CA$10,Data1!$CA$11:$CA$109</definedName>
-    <definedName name="A2603520L_Data">Data1!$CA$11:$CA$109</definedName>
-    <definedName name="A2603520L_Latest">Data1!$CA$109</definedName>
-    <definedName name="A2603521R">Data1!$DS$1:$DS$10,Data1!$DS$11:$DS$109</definedName>
-    <definedName name="A2603521R_Data">Data1!$DS$11:$DS$109</definedName>
-    <definedName name="A2603521R_Latest">Data1!$DS$109</definedName>
-    <definedName name="A2603529J">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$109</definedName>
-    <definedName name="A2603529J_Data">Data1!$AB$11:$AB$109</definedName>
-    <definedName name="A2603529J_Latest">Data1!$AB$109</definedName>
-    <definedName name="A2603530T">Data1!$BT$1:$BT$10,Data1!$BT$11:$BT$109</definedName>
-    <definedName name="A2603530T_Data">Data1!$BT$11:$BT$109</definedName>
-    <definedName name="A2603530T_Latest">Data1!$BT$109</definedName>
-    <definedName name="A2603531V">Data1!$DL$1:$DL$10,Data1!$DL$11:$DL$109</definedName>
-    <definedName name="A2603531V_Data">Data1!$DL$11:$DL$109</definedName>
-    <definedName name="A2603531V_Latest">Data1!$DL$109</definedName>
-    <definedName name="A2603539L">Data1!$AM$1:$AM$10,Data1!$AM$11:$AM$109</definedName>
-    <definedName name="A2603539L_Data">Data1!$AM$11:$AM$109</definedName>
-    <definedName name="A2603539L_Latest">Data1!$AM$109</definedName>
-    <definedName name="A2603540W">Data1!$CE$1:$CE$10,Data1!$CE$11:$CE$109</definedName>
-    <definedName name="A2603540W_Data">Data1!$CE$11:$CE$109</definedName>
-    <definedName name="A2603540W_Latest">Data1!$CE$109</definedName>
-    <definedName name="A2603541X">Data1!$DW$1:$DW$10,Data1!$DW$11:$DW$109</definedName>
-    <definedName name="A2603541X_Data">Data1!$DW$11:$DW$109</definedName>
-    <definedName name="A2603541X_Latest">Data1!$DW$109</definedName>
-    <definedName name="A2603549T">Data1!$AN$1:$AN$10,Data1!$AN$11:$AN$109</definedName>
-    <definedName name="A2603549T_Data">Data1!$AN$11:$AN$109</definedName>
-    <definedName name="A2603549T_Latest">Data1!$AN$109</definedName>
-    <definedName name="A2603550A">Data1!$CF$1:$CF$10,Data1!$CF$11:$CF$109</definedName>
-    <definedName name="A2603550A_Data">Data1!$CF$11:$CF$109</definedName>
-    <definedName name="A2603550A_Latest">Data1!$CF$109</definedName>
-    <definedName name="A2603551C">Data1!$DX$1:$DX$10,Data1!$DX$11:$DX$109</definedName>
-    <definedName name="A2603551C_Data">Data1!$DX$11:$DX$109</definedName>
-    <definedName name="A2603551C_Latest">Data1!$DX$109</definedName>
-    <definedName name="A2603559W">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$109</definedName>
-    <definedName name="A2603559W_Data">Data1!$AF$11:$AF$109</definedName>
-    <definedName name="A2603559W_Latest">Data1!$AF$109</definedName>
-    <definedName name="A2603560F">Data1!$BX$1:$BX$10,Data1!$BX$11:$BX$109</definedName>
-    <definedName name="A2603560F_Data">Data1!$BX$11:$BX$109</definedName>
-    <definedName name="A2603560F_Latest">Data1!$BX$109</definedName>
-    <definedName name="A2603561J">Data1!$DP$1:$DP$10,Data1!$DP$11:$DP$109</definedName>
-    <definedName name="A2603561J_Data">Data1!$DP$11:$DP$109</definedName>
-    <definedName name="A2603561J_Latest">Data1!$DP$109</definedName>
-    <definedName name="A2603569A">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$109</definedName>
-    <definedName name="A2603569A_Data">Data1!$AE$11:$AE$109</definedName>
-    <definedName name="A2603569A_Latest">Data1!$AE$109</definedName>
-    <definedName name="A2603570K">Data1!$BW$1:$BW$10,Data1!$BW$11:$BW$109</definedName>
-    <definedName name="A2603570K_Data">Data1!$BW$11:$BW$109</definedName>
-    <definedName name="A2603570K_Latest">Data1!$BW$109</definedName>
-    <definedName name="A2603571L">Data1!$DO$1:$DO$10,Data1!$DO$11:$DO$109</definedName>
-    <definedName name="A2603571L_Data">Data1!$DO$11:$DO$109</definedName>
-    <definedName name="A2603571L_Latest">Data1!$DO$109</definedName>
-    <definedName name="A2603579F">Data1!$AR$1:$AR$10,Data1!$AR$11:$AR$109</definedName>
-    <definedName name="A2603579F_Data">Data1!$AR$11:$AR$109</definedName>
-    <definedName name="A2603579F_Latest">Data1!$AR$109</definedName>
-    <definedName name="A2603580R">Data1!$CJ$1:$CJ$10,Data1!$CJ$11:$CJ$109</definedName>
-    <definedName name="A2603580R_Data">Data1!$CJ$11:$CJ$109</definedName>
-    <definedName name="A2603580R_Latest">Data1!$CJ$109</definedName>
-    <definedName name="A2603581T">Data1!$EB$1:$EB$10,Data1!$EB$11:$EB$109</definedName>
-    <definedName name="A2603581T_Data">Data1!$EB$11:$EB$109</definedName>
-    <definedName name="A2603581T_Latest">Data1!$EB$109</definedName>
-    <definedName name="A2603589K">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$109</definedName>
-    <definedName name="A2603589K_Data">Data1!$AD$11:$AD$109</definedName>
-    <definedName name="A2603589K_Latest">Data1!$AD$109</definedName>
-    <definedName name="A2603590V">Data1!$BV$1:$BV$10,Data1!$BV$11:$BV$109</definedName>
-    <definedName name="A2603590V_Data">Data1!$BV$11:$BV$109</definedName>
-    <definedName name="A2603590V_Latest">Data1!$BV$109</definedName>
-    <definedName name="A2603591W">Data1!$DN$1:$DN$10,Data1!$DN$11:$DN$109</definedName>
-    <definedName name="A2603591W_Data">Data1!$DN$11:$DN$109</definedName>
-    <definedName name="A2603591W_Latest">Data1!$DN$109</definedName>
-    <definedName name="A2603599R">Data1!$AK$1:$AK$10,Data1!$AK$11:$AK$109</definedName>
-    <definedName name="A2603599R_Data">Data1!$AK$11:$AK$109</definedName>
-    <definedName name="A2603599R_Latest">Data1!$AK$109</definedName>
-    <definedName name="A2603600L">Data1!$CC$1:$CC$10,Data1!$CC$11:$CC$109</definedName>
-    <definedName name="A2603600L_Data">Data1!$CC$11:$CC$109</definedName>
-    <definedName name="A2603600L_Latest">Data1!$CC$109</definedName>
-    <definedName name="A2603601R">Data1!$DU$1:$DU$10,Data1!$DU$11:$DU$109</definedName>
-    <definedName name="A2603601R_Data">Data1!$DU$11:$DU$109</definedName>
-    <definedName name="A2603601R_Latest">Data1!$DU$109</definedName>
-    <definedName name="A2603609J">Data1!$AS$1:$AS$10,Data1!$AS$11:$AS$109</definedName>
-    <definedName name="A2603609J_Data">Data1!$AS$11:$AS$109</definedName>
-    <definedName name="A2603609J_Latest">Data1!$AS$109</definedName>
-    <definedName name="A2603610T">Data1!$CK$1:$CK$10,Data1!$CK$11:$CK$109</definedName>
-    <definedName name="A2603610T_Data">Data1!$CK$11:$CK$109</definedName>
-    <definedName name="A2603610T_Latest">Data1!$CK$109</definedName>
-    <definedName name="A2603611V">Data1!$EC$1:$EC$10,Data1!$EC$11:$EC$109</definedName>
-    <definedName name="A2603611V_Data">Data1!$EC$11:$EC$109</definedName>
-    <definedName name="A2603611V_Latest">Data1!$EC$109</definedName>
-    <definedName name="A2603829K">Data1!$X$1:$X$10,Data1!$X$11:$X$109</definedName>
-    <definedName name="A2603829K_Data">Data1!$X$11:$X$109</definedName>
-    <definedName name="A2603829K_Latest">Data1!$X$109</definedName>
-    <definedName name="A2603830V">Data1!$BP$1:$BP$10,Data1!$BP$11:$BP$109</definedName>
-    <definedName name="A2603830V_Data">Data1!$BP$11:$BP$109</definedName>
-    <definedName name="A2603830V_Latest">Data1!$BP$109</definedName>
-    <definedName name="A2603831W">Data1!$DH$1:$DH$10,Data1!$DH$11:$DH$109</definedName>
-    <definedName name="A2603831W_Data">Data1!$DH$11:$DH$109</definedName>
-    <definedName name="A2603831W_Latest">Data1!$DH$109</definedName>
-    <definedName name="A2603859X">Data1!$V$1:$V$10,Data1!$V$11:$V$109</definedName>
-    <definedName name="A2603859X_Data">Data1!$V$11:$V$109</definedName>
-    <definedName name="A2603859X_Latest">Data1!$V$109</definedName>
-    <definedName name="A2603860J">Data1!$BN$1:$BN$10,Data1!$BN$11:$BN$109</definedName>
-    <definedName name="A2603860J_Data">Data1!$BN$11:$BN$109</definedName>
-    <definedName name="A2603860J_Latest">Data1!$BN$109</definedName>
-    <definedName name="A2603861K">Data1!$DF$1:$DF$10,Data1!$DF$11:$DF$109</definedName>
-    <definedName name="A2603861K_Data">Data1!$DF$11:$DF$109</definedName>
-    <definedName name="A2603861K_Latest">Data1!$DF$109</definedName>
-    <definedName name="A2603869C">Data1!$U$1:$U$10,Data1!$U$11:$U$109</definedName>
-    <definedName name="A2603869C_Data">Data1!$U$11:$U$109</definedName>
-    <definedName name="A2603869C_Latest">Data1!$U$109</definedName>
-    <definedName name="A2603870L">Data1!$BM$1:$BM$10,Data1!$BM$11:$BM$109</definedName>
-    <definedName name="A2603870L_Data">Data1!$BM$11:$BM$109</definedName>
-    <definedName name="A2603870L_Latest">Data1!$BM$109</definedName>
-    <definedName name="A2603871R">Data1!$DE$1:$DE$10,Data1!$DE$11:$DE$109</definedName>
-    <definedName name="A2603871R_Data">Data1!$DE$11:$DE$109</definedName>
-    <definedName name="A2603871R_Latest">Data1!$DE$109</definedName>
-    <definedName name="A2603879J">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$109</definedName>
-    <definedName name="A2603879J_Data">Data1!$Y$11:$Y$109</definedName>
-    <definedName name="A2603879J_Latest">Data1!$Y$109</definedName>
-    <definedName name="A2603880T">Data1!$BQ$1:$BQ$10,Data1!$BQ$11:$BQ$109</definedName>
-    <definedName name="A2603880T_Data">Data1!$BQ$11:$BQ$109</definedName>
-    <definedName name="A2603880T_Latest">Data1!$BQ$109</definedName>
-    <definedName name="A2603881V">Data1!$DI$1:$DI$10,Data1!$DI$11:$DI$109</definedName>
-    <definedName name="A2603881V_Data">Data1!$DI$11:$DI$109</definedName>
-    <definedName name="A2603881V_Latest">Data1!$DI$109</definedName>
-    <definedName name="A2603929V">Data1!$W$1:$W$10,Data1!$W$11:$W$109</definedName>
-    <definedName name="A2603929V_Data">Data1!$W$11:$W$109</definedName>
-    <definedName name="A2603929V_Latest">Data1!$W$109</definedName>
-    <definedName name="A2603930C">Data1!$BO$1:$BO$10,Data1!$BO$11:$BO$109</definedName>
-    <definedName name="A2603930C_Data">Data1!$BO$11:$BO$109</definedName>
-    <definedName name="A2603930C_Latest">Data1!$BO$109</definedName>
-    <definedName name="A2603931F">Data1!$DG$1:$DG$10,Data1!$DG$11:$DG$109</definedName>
-    <definedName name="A2603931F_Data">Data1!$DG$11:$DG$109</definedName>
-    <definedName name="A2603931F_Latest">Data1!$DG$109</definedName>
-    <definedName name="A2603989W">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$109</definedName>
-    <definedName name="A2603989W_Data">Data1!$Z$11:$Z$109</definedName>
-    <definedName name="A2603989W_Latest">Data1!$Z$109</definedName>
-    <definedName name="A2603990F">Data1!$BR$1:$BR$10,Data1!$BR$11:$BR$109</definedName>
-    <definedName name="A2603990F_Data">Data1!$BR$11:$BR$109</definedName>
-    <definedName name="A2603990F_Latest">Data1!$BR$109</definedName>
-    <definedName name="A2603991J">Data1!$DJ$1:$DJ$10,Data1!$DJ$11:$DJ$109</definedName>
-    <definedName name="A2603991J_Data">Data1!$DJ$11:$DJ$109</definedName>
-    <definedName name="A2603991J_Latest">Data1!$DJ$109</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$109</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$109</definedName>
+    <definedName name="A2602859F">Data1!$R$1:$R$10,Data1!$R$11:$R$110</definedName>
+    <definedName name="A2602859F_Data">Data1!$R$11:$R$110</definedName>
+    <definedName name="A2602859F_Latest">Data1!$R$110</definedName>
+    <definedName name="A2602860R">Data1!$BJ$1:$BJ$10,Data1!$BJ$11:$BJ$110</definedName>
+    <definedName name="A2602860R_Data">Data1!$BJ$11:$BJ$110</definedName>
+    <definedName name="A2602860R_Latest">Data1!$BJ$110</definedName>
+    <definedName name="A2602861T">Data1!$DB$1:$DB$10,Data1!$DB$11:$DB$110</definedName>
+    <definedName name="A2602861T_Data">Data1!$DB$11:$DB$110</definedName>
+    <definedName name="A2602861T_Latest">Data1!$DB$110</definedName>
+    <definedName name="A2602869K">Data1!$H$1:$H$10,Data1!$H$11:$H$110</definedName>
+    <definedName name="A2602869K_Data">Data1!$H$11:$H$110</definedName>
+    <definedName name="A2602869K_Latest">Data1!$H$110</definedName>
+    <definedName name="A2602870V">Data1!$AZ$1:$AZ$10,Data1!$AZ$11:$AZ$110</definedName>
+    <definedName name="A2602870V_Data">Data1!$AZ$11:$AZ$110</definedName>
+    <definedName name="A2602870V_Latest">Data1!$AZ$110</definedName>
+    <definedName name="A2602871W">Data1!$CR$1:$CR$10,Data1!$CR$11:$CR$110</definedName>
+    <definedName name="A2602871W_Data">Data1!$CR$11:$CR$110</definedName>
+    <definedName name="A2602871W_Latest">Data1!$CR$110</definedName>
+    <definedName name="A2602879R">Data1!$P$1:$P$10,Data1!$P$11:$P$110</definedName>
+    <definedName name="A2602879R_Data">Data1!$P$11:$P$110</definedName>
+    <definedName name="A2602879R_Latest">Data1!$P$110</definedName>
+    <definedName name="A2602880X">Data1!$BH$1:$BH$10,Data1!$BH$11:$BH$110</definedName>
+    <definedName name="A2602880X_Data">Data1!$BH$11:$BH$110</definedName>
+    <definedName name="A2602880X_Latest">Data1!$BH$110</definedName>
+    <definedName name="A2602881A">Data1!$CZ$1:$CZ$10,Data1!$CZ$11:$CZ$110</definedName>
+    <definedName name="A2602881A_Data">Data1!$CZ$11:$CZ$110</definedName>
+    <definedName name="A2602881A_Latest">Data1!$CZ$110</definedName>
+    <definedName name="A2602889V">Data1!$K$1:$K$10,Data1!$K$11:$K$110</definedName>
+    <definedName name="A2602889V_Data">Data1!$K$11:$K$110</definedName>
+    <definedName name="A2602889V_Latest">Data1!$K$110</definedName>
+    <definedName name="A2602890C">Data1!$BC$1:$BC$10,Data1!$BC$11:$BC$110</definedName>
+    <definedName name="A2602890C_Data">Data1!$BC$11:$BC$110</definedName>
+    <definedName name="A2602890C_Latest">Data1!$BC$110</definedName>
+    <definedName name="A2602891F">Data1!$CU$1:$CU$10,Data1!$CU$11:$CU$110</definedName>
+    <definedName name="A2602891F_Data">Data1!$CU$11:$CU$110</definedName>
+    <definedName name="A2602891F_Latest">Data1!$CU$110</definedName>
+    <definedName name="A2602899X">Data1!$I$1:$I$10,Data1!$I$11:$I$110</definedName>
+    <definedName name="A2602899X_Data">Data1!$I$11:$I$110</definedName>
+    <definedName name="A2602899X_Latest">Data1!$I$110</definedName>
+    <definedName name="A2602900W">Data1!$BA$1:$BA$10,Data1!$BA$11:$BA$110</definedName>
+    <definedName name="A2602900W_Data">Data1!$BA$11:$BA$110</definedName>
+    <definedName name="A2602900W_Latest">Data1!$BA$110</definedName>
+    <definedName name="A2602901X">Data1!$CS$1:$CS$10,Data1!$CS$11:$CS$110</definedName>
+    <definedName name="A2602901X_Data">Data1!$CS$11:$CS$110</definedName>
+    <definedName name="A2602901X_Latest">Data1!$CS$110</definedName>
+    <definedName name="A2602909T">Data1!$M$1:$M$10,Data1!$M$11:$M$110</definedName>
+    <definedName name="A2602909T_Data">Data1!$M$11:$M$110</definedName>
+    <definedName name="A2602909T_Latest">Data1!$M$110</definedName>
+    <definedName name="A2602910A">Data1!$BE$1:$BE$10,Data1!$BE$11:$BE$110</definedName>
+    <definedName name="A2602910A_Data">Data1!$BE$11:$BE$110</definedName>
+    <definedName name="A2602910A_Latest">Data1!$BE$110</definedName>
+    <definedName name="A2602911C">Data1!$CW$1:$CW$10,Data1!$CW$11:$CW$110</definedName>
+    <definedName name="A2602911C_Data">Data1!$CW$11:$CW$110</definedName>
+    <definedName name="A2602911C_Latest">Data1!$CW$110</definedName>
+    <definedName name="A2602919W">Data1!$D$1:$D$10,Data1!$D$11:$D$110</definedName>
+    <definedName name="A2602919W_Data">Data1!$D$11:$D$110</definedName>
+    <definedName name="A2602919W_Latest">Data1!$D$110</definedName>
+    <definedName name="A2602920F">Data1!$AV$1:$AV$10,Data1!$AV$11:$AV$110</definedName>
+    <definedName name="A2602920F_Data">Data1!$AV$11:$AV$110</definedName>
+    <definedName name="A2602920F_Latest">Data1!$AV$110</definedName>
+    <definedName name="A2602921J">Data1!$CN$1:$CN$10,Data1!$CN$11:$CN$110</definedName>
+    <definedName name="A2602921J_Data">Data1!$CN$11:$CN$110</definedName>
+    <definedName name="A2602921J_Latest">Data1!$CN$110</definedName>
+    <definedName name="A2602929A">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$110</definedName>
+    <definedName name="A2602929A_Data">Data1!$Q$11:$Q$110</definedName>
+    <definedName name="A2602929A_Latest">Data1!$Q$110</definedName>
+    <definedName name="A2602930K">Data1!$BI$1:$BI$10,Data1!$BI$11:$BI$110</definedName>
+    <definedName name="A2602930K_Data">Data1!$BI$11:$BI$110</definedName>
+    <definedName name="A2602930K_Latest">Data1!$BI$110</definedName>
+    <definedName name="A2602931L">Data1!$DA$1:$DA$10,Data1!$DA$11:$DA$110</definedName>
+    <definedName name="A2602931L_Data">Data1!$DA$11:$DA$110</definedName>
+    <definedName name="A2602931L_Latest">Data1!$DA$110</definedName>
+    <definedName name="A2602939F">Data1!$B$1:$B$10,Data1!$B$11:$B$110</definedName>
+    <definedName name="A2602939F_Data">Data1!$B$11:$B$110</definedName>
+    <definedName name="A2602939F_Latest">Data1!$B$110</definedName>
+    <definedName name="A2602940R">Data1!$AT$1:$AT$10,Data1!$AT$11:$AT$110</definedName>
+    <definedName name="A2602940R_Data">Data1!$AT$11:$AT$110</definedName>
+    <definedName name="A2602940R_Latest">Data1!$AT$110</definedName>
+    <definedName name="A2602941T">Data1!$CL$1:$CL$10,Data1!$CL$11:$CL$110</definedName>
+    <definedName name="A2602941T_Data">Data1!$CL$11:$CL$110</definedName>
+    <definedName name="A2602941T_Latest">Data1!$CL$110</definedName>
+    <definedName name="A2602949K">Data1!$J$1:$J$10,Data1!$J$11:$J$110</definedName>
+    <definedName name="A2602949K_Data">Data1!$J$11:$J$110</definedName>
+    <definedName name="A2602949K_Latest">Data1!$J$110</definedName>
+    <definedName name="A2602950V">Data1!$BB$1:$BB$10,Data1!$BB$11:$BB$110</definedName>
+    <definedName name="A2602950V_Data">Data1!$BB$11:$BB$110</definedName>
+    <definedName name="A2602950V_Latest">Data1!$BB$110</definedName>
+    <definedName name="A2602951W">Data1!$CT$1:$CT$10,Data1!$CT$11:$CT$110</definedName>
+    <definedName name="A2602951W_Data">Data1!$CT$11:$CT$110</definedName>
+    <definedName name="A2602951W_Latest">Data1!$CT$110</definedName>
+    <definedName name="A2602959R">Data1!$C$1:$C$10,Data1!$C$11:$C$110</definedName>
+    <definedName name="A2602959R_Data">Data1!$C$11:$C$110</definedName>
+    <definedName name="A2602959R_Latest">Data1!$C$110</definedName>
+    <definedName name="A2602960X">Data1!$AU$1:$AU$10,Data1!$AU$11:$AU$110</definedName>
+    <definedName name="A2602960X_Data">Data1!$AU$11:$AU$110</definedName>
+    <definedName name="A2602960X_Latest">Data1!$AU$110</definedName>
+    <definedName name="A2602961A">Data1!$CM$1:$CM$10,Data1!$CM$11:$CM$110</definedName>
+    <definedName name="A2602961A_Data">Data1!$CM$11:$CM$110</definedName>
+    <definedName name="A2602961A_Latest">Data1!$CM$110</definedName>
+    <definedName name="A2602969V">Data1!$N$1:$N$10,Data1!$N$11:$N$110</definedName>
+    <definedName name="A2602969V_Data">Data1!$N$11:$N$110</definedName>
+    <definedName name="A2602969V_Latest">Data1!$N$110</definedName>
+    <definedName name="A2602970C">Data1!$BF$1:$BF$10,Data1!$BF$11:$BF$110</definedName>
+    <definedName name="A2602970C_Data">Data1!$BF$11:$BF$110</definedName>
+    <definedName name="A2602970C_Latest">Data1!$BF$110</definedName>
+    <definedName name="A2602971F">Data1!$CX$1:$CX$10,Data1!$CX$11:$CX$110</definedName>
+    <definedName name="A2602971F_Data">Data1!$CX$11:$CX$110</definedName>
+    <definedName name="A2602971F_Latest">Data1!$CX$110</definedName>
+    <definedName name="A2602979X">Data1!$O$1:$O$10,Data1!$O$11:$O$110</definedName>
+    <definedName name="A2602979X_Data">Data1!$O$11:$O$110</definedName>
+    <definedName name="A2602979X_Latest">Data1!$O$110</definedName>
+    <definedName name="A2602980J">Data1!$BG$1:$BG$10,Data1!$BG$11:$BG$110</definedName>
+    <definedName name="A2602980J_Data">Data1!$BG$11:$BG$110</definedName>
+    <definedName name="A2602980J_Latest">Data1!$BG$110</definedName>
+    <definedName name="A2602981K">Data1!$CY$1:$CY$10,Data1!$CY$11:$CY$110</definedName>
+    <definedName name="A2602981K_Data">Data1!$CY$11:$CY$110</definedName>
+    <definedName name="A2602981K_Latest">Data1!$CY$110</definedName>
+    <definedName name="A2602989C">Data1!$G$1:$G$10,Data1!$G$11:$G$110</definedName>
+    <definedName name="A2602989C_Data">Data1!$G$11:$G$110</definedName>
+    <definedName name="A2602989C_Latest">Data1!$G$110</definedName>
+    <definedName name="A2602990L">Data1!$AY$1:$AY$10,Data1!$AY$11:$AY$110</definedName>
+    <definedName name="A2602990L_Data">Data1!$AY$11:$AY$110</definedName>
+    <definedName name="A2602990L_Latest">Data1!$AY$110</definedName>
+    <definedName name="A2602991R">Data1!$CQ$1:$CQ$10,Data1!$CQ$11:$CQ$110</definedName>
+    <definedName name="A2602991R_Data">Data1!$CQ$11:$CQ$110</definedName>
+    <definedName name="A2602991R_Latest">Data1!$CQ$110</definedName>
+    <definedName name="A2602999J">Data1!$F$1:$F$10,Data1!$F$11:$F$110</definedName>
+    <definedName name="A2602999J_Data">Data1!$F$11:$F$110</definedName>
+    <definedName name="A2602999J_Latest">Data1!$F$110</definedName>
+    <definedName name="A2603000J">Data1!$AX$1:$AX$10,Data1!$AX$11:$AX$110</definedName>
+    <definedName name="A2603000J_Data">Data1!$AX$11:$AX$110</definedName>
+    <definedName name="A2603000J_Latest">Data1!$AX$110</definedName>
+    <definedName name="A2603001K">Data1!$CP$1:$CP$10,Data1!$CP$11:$CP$110</definedName>
+    <definedName name="A2603001K_Data">Data1!$CP$11:$CP$110</definedName>
+    <definedName name="A2603001K_Latest">Data1!$CP$110</definedName>
+    <definedName name="A2603009C">Data1!$S$1:$S$10,Data1!$S$11:$S$110</definedName>
+    <definedName name="A2603009C_Data">Data1!$S$11:$S$110</definedName>
+    <definedName name="A2603009C_Latest">Data1!$S$110</definedName>
+    <definedName name="A2603010L">Data1!$BK$1:$BK$10,Data1!$BK$11:$BK$110</definedName>
+    <definedName name="A2603010L_Data">Data1!$BK$11:$BK$110</definedName>
+    <definedName name="A2603010L_Latest">Data1!$BK$110</definedName>
+    <definedName name="A2603011R">Data1!$DC$1:$DC$10,Data1!$DC$11:$DC$110</definedName>
+    <definedName name="A2603011R_Data">Data1!$DC$11:$DC$110</definedName>
+    <definedName name="A2603011R_Latest">Data1!$DC$110</definedName>
+    <definedName name="A2603019J">Data1!$E$1:$E$10,Data1!$E$11:$E$110</definedName>
+    <definedName name="A2603019J_Data">Data1!$E$11:$E$110</definedName>
+    <definedName name="A2603019J_Latest">Data1!$E$110</definedName>
+    <definedName name="A2603020T">Data1!$AW$1:$AW$10,Data1!$AW$11:$AW$110</definedName>
+    <definedName name="A2603020T_Data">Data1!$AW$11:$AW$110</definedName>
+    <definedName name="A2603020T_Latest">Data1!$AW$110</definedName>
+    <definedName name="A2603021V">Data1!$CO$1:$CO$10,Data1!$CO$11:$CO$110</definedName>
+    <definedName name="A2603021V_Data">Data1!$CO$11:$CO$110</definedName>
+    <definedName name="A2603021V_Latest">Data1!$CO$110</definedName>
+    <definedName name="A2603029L">Data1!$L$1:$L$10,Data1!$L$11:$L$110</definedName>
+    <definedName name="A2603029L_Data">Data1!$L$11:$L$110</definedName>
+    <definedName name="A2603029L_Latest">Data1!$L$110</definedName>
+    <definedName name="A2603030W">Data1!$BD$1:$BD$10,Data1!$BD$11:$BD$110</definedName>
+    <definedName name="A2603030W_Data">Data1!$BD$11:$BD$110</definedName>
+    <definedName name="A2603030W_Latest">Data1!$BD$110</definedName>
+    <definedName name="A2603031X">Data1!$CV$1:$CV$10,Data1!$CV$11:$CV$110</definedName>
+    <definedName name="A2603031X_Data">Data1!$CV$11:$CV$110</definedName>
+    <definedName name="A2603031X_Latest">Data1!$CV$110</definedName>
+    <definedName name="A2603039T">Data1!$T$1:$T$10,Data1!$T$11:$T$110</definedName>
+    <definedName name="A2603039T_Data">Data1!$T$11:$T$110</definedName>
+    <definedName name="A2603039T_Latest">Data1!$T$110</definedName>
+    <definedName name="A2603040A">Data1!$BL$1:$BL$10,Data1!$BL$11:$BL$110</definedName>
+    <definedName name="A2603040A_Data">Data1!$BL$11:$BL$110</definedName>
+    <definedName name="A2603040A_Latest">Data1!$BL$110</definedName>
+    <definedName name="A2603041C">Data1!$DD$1:$DD$10,Data1!$DD$11:$DD$110</definedName>
+    <definedName name="A2603041C_Data">Data1!$DD$11:$DD$110</definedName>
+    <definedName name="A2603041C_Latest">Data1!$DD$110</definedName>
+    <definedName name="A2603429X">Data1!$AQ$1:$AQ$10,Data1!$AQ$11:$AQ$110</definedName>
+    <definedName name="A2603429X_Data">Data1!$AQ$11:$AQ$110</definedName>
+    <definedName name="A2603429X_Latest">Data1!$AQ$110</definedName>
+    <definedName name="A2603430J">Data1!$CI$1:$CI$10,Data1!$CI$11:$CI$110</definedName>
+    <definedName name="A2603430J_Data">Data1!$CI$11:$CI$110</definedName>
+    <definedName name="A2603430J_Latest">Data1!$CI$110</definedName>
+    <definedName name="A2603431K">Data1!$EA$1:$EA$10,Data1!$EA$11:$EA$110</definedName>
+    <definedName name="A2603431K_Data">Data1!$EA$11:$EA$110</definedName>
+    <definedName name="A2603431K_Latest">Data1!$EA$110</definedName>
+    <definedName name="A2603439C">Data1!$AG$1:$AG$10,Data1!$AG$11:$AG$110</definedName>
+    <definedName name="A2603439C_Data">Data1!$AG$11:$AG$110</definedName>
+    <definedName name="A2603439C_Latest">Data1!$AG$110</definedName>
+    <definedName name="A2603440L">Data1!$BY$1:$BY$10,Data1!$BY$11:$BY$110</definedName>
+    <definedName name="A2603440L_Data">Data1!$BY$11:$BY$110</definedName>
+    <definedName name="A2603440L_Latest">Data1!$BY$110</definedName>
+    <definedName name="A2603441R">Data1!$DQ$1:$DQ$10,Data1!$DQ$11:$DQ$110</definedName>
+    <definedName name="A2603441R_Data">Data1!$DQ$11:$DQ$110</definedName>
+    <definedName name="A2603441R_Latest">Data1!$DQ$110</definedName>
+    <definedName name="A2603449J">Data1!$AO$1:$AO$10,Data1!$AO$11:$AO$110</definedName>
+    <definedName name="A2603449J_Data">Data1!$AO$11:$AO$110</definedName>
+    <definedName name="A2603449J_Latest">Data1!$AO$110</definedName>
+    <definedName name="A2603450T">Data1!$CG$1:$CG$10,Data1!$CG$11:$CG$110</definedName>
+    <definedName name="A2603450T_Data">Data1!$CG$11:$CG$110</definedName>
+    <definedName name="A2603450T_Latest">Data1!$CG$110</definedName>
+    <definedName name="A2603451V">Data1!$DY$1:$DY$10,Data1!$DY$11:$DY$110</definedName>
+    <definedName name="A2603451V_Data">Data1!$DY$11:$DY$110</definedName>
+    <definedName name="A2603451V_Latest">Data1!$DY$110</definedName>
+    <definedName name="A2603459L">Data1!$AJ$1:$AJ$10,Data1!$AJ$11:$AJ$110</definedName>
+    <definedName name="A2603459L_Data">Data1!$AJ$11:$AJ$110</definedName>
+    <definedName name="A2603459L_Latest">Data1!$AJ$110</definedName>
+    <definedName name="A2603460W">Data1!$CB$1:$CB$10,Data1!$CB$11:$CB$110</definedName>
+    <definedName name="A2603460W_Data">Data1!$CB$11:$CB$110</definedName>
+    <definedName name="A2603460W_Latest">Data1!$CB$110</definedName>
+    <definedName name="A2603461X">Data1!$DT$1:$DT$10,Data1!$DT$11:$DT$110</definedName>
+    <definedName name="A2603461X_Data">Data1!$DT$11:$DT$110</definedName>
+    <definedName name="A2603461X_Latest">Data1!$DT$110</definedName>
+    <definedName name="A2603469T">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$110</definedName>
+    <definedName name="A2603469T_Data">Data1!$AH$11:$AH$110</definedName>
+    <definedName name="A2603469T_Latest">Data1!$AH$110</definedName>
+    <definedName name="A2603470A">Data1!$BZ$1:$BZ$10,Data1!$BZ$11:$BZ$110</definedName>
+    <definedName name="A2603470A_Data">Data1!$BZ$11:$BZ$110</definedName>
+    <definedName name="A2603470A_Latest">Data1!$BZ$110</definedName>
+    <definedName name="A2603471C">Data1!$DR$1:$DR$10,Data1!$DR$11:$DR$110</definedName>
+    <definedName name="A2603471C_Data">Data1!$DR$11:$DR$110</definedName>
+    <definedName name="A2603471C_Latest">Data1!$DR$110</definedName>
+    <definedName name="A2603479W">Data1!$AL$1:$AL$10,Data1!$AL$11:$AL$110</definedName>
+    <definedName name="A2603479W_Data">Data1!$AL$11:$AL$110</definedName>
+    <definedName name="A2603479W_Latest">Data1!$AL$110</definedName>
+    <definedName name="A2603480F">Data1!$CD$1:$CD$10,Data1!$CD$11:$CD$110</definedName>
+    <definedName name="A2603480F_Data">Data1!$CD$11:$CD$110</definedName>
+    <definedName name="A2603480F_Latest">Data1!$CD$110</definedName>
+    <definedName name="A2603481J">Data1!$DV$1:$DV$10,Data1!$DV$11:$DV$110</definedName>
+    <definedName name="A2603481J_Data">Data1!$DV$11:$DV$110</definedName>
+    <definedName name="A2603481J_Latest">Data1!$DV$110</definedName>
+    <definedName name="A2603489A">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$110</definedName>
+    <definedName name="A2603489A_Data">Data1!$AC$11:$AC$110</definedName>
+    <definedName name="A2603489A_Latest">Data1!$AC$110</definedName>
+    <definedName name="A2603490K">Data1!$BU$1:$BU$10,Data1!$BU$11:$BU$110</definedName>
+    <definedName name="A2603490K_Data">Data1!$BU$11:$BU$110</definedName>
+    <definedName name="A2603490K_Latest">Data1!$BU$110</definedName>
+    <definedName name="A2603491L">Data1!$DM$1:$DM$10,Data1!$DM$11:$DM$110</definedName>
+    <definedName name="A2603491L_Data">Data1!$DM$11:$DM$110</definedName>
+    <definedName name="A2603491L_Latest">Data1!$DM$110</definedName>
+    <definedName name="A2603499F">Data1!$AP$1:$AP$10,Data1!$AP$11:$AP$110</definedName>
+    <definedName name="A2603499F_Data">Data1!$AP$11:$AP$110</definedName>
+    <definedName name="A2603499F_Latest">Data1!$AP$110</definedName>
+    <definedName name="A2603500C">Data1!$CH$1:$CH$10,Data1!$CH$11:$CH$110</definedName>
+    <definedName name="A2603500C_Data">Data1!$CH$11:$CH$110</definedName>
+    <definedName name="A2603500C_Latest">Data1!$CH$110</definedName>
+    <definedName name="A2603501F">Data1!$DZ$1:$DZ$10,Data1!$DZ$11:$DZ$110</definedName>
+    <definedName name="A2603501F_Data">Data1!$DZ$11:$DZ$110</definedName>
+    <definedName name="A2603501F_Latest">Data1!$DZ$110</definedName>
+    <definedName name="A2603509X">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$110</definedName>
+    <definedName name="A2603509X_Data">Data1!$AA$11:$AA$110</definedName>
+    <definedName name="A2603509X_Latest">Data1!$AA$110</definedName>
+    <definedName name="A2603510J">Data1!$BS$1:$BS$10,Data1!$BS$11:$BS$110</definedName>
+    <definedName name="A2603510J_Data">Data1!$BS$11:$BS$110</definedName>
+    <definedName name="A2603510J_Latest">Data1!$BS$110</definedName>
+    <definedName name="A2603511K">Data1!$DK$1:$DK$10,Data1!$DK$11:$DK$110</definedName>
+    <definedName name="A2603511K_Data">Data1!$DK$11:$DK$110</definedName>
+    <definedName name="A2603511K_Latest">Data1!$DK$110</definedName>
+    <definedName name="A2603519C">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$110</definedName>
+    <definedName name="A2603519C_Data">Data1!$AI$11:$AI$110</definedName>
+    <definedName name="A2603519C_Latest">Data1!$AI$110</definedName>
+    <definedName name="A2603520L">Data1!$CA$1:$CA$10,Data1!$CA$11:$CA$110</definedName>
+    <definedName name="A2603520L_Data">Data1!$CA$11:$CA$110</definedName>
+    <definedName name="A2603520L_Latest">Data1!$CA$110</definedName>
+    <definedName name="A2603521R">Data1!$DS$1:$DS$10,Data1!$DS$11:$DS$110</definedName>
+    <definedName name="A2603521R_Data">Data1!$DS$11:$DS$110</definedName>
+    <definedName name="A2603521R_Latest">Data1!$DS$110</definedName>
+    <definedName name="A2603529J">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$110</definedName>
+    <definedName name="A2603529J_Data">Data1!$AB$11:$AB$110</definedName>
+    <definedName name="A2603529J_Latest">Data1!$AB$110</definedName>
+    <definedName name="A2603530T">Data1!$BT$1:$BT$10,Data1!$BT$11:$BT$110</definedName>
+    <definedName name="A2603530T_Data">Data1!$BT$11:$BT$110</definedName>
+    <definedName name="A2603530T_Latest">Data1!$BT$110</definedName>
+    <definedName name="A2603531V">Data1!$DL$1:$DL$10,Data1!$DL$11:$DL$110</definedName>
+    <definedName name="A2603531V_Data">Data1!$DL$11:$DL$110</definedName>
+    <definedName name="A2603531V_Latest">Data1!$DL$110</definedName>
+    <definedName name="A2603539L">Data1!$AM$1:$AM$10,Data1!$AM$11:$AM$110</definedName>
+    <definedName name="A2603539L_Data">Data1!$AM$11:$AM$110</definedName>
+    <definedName name="A2603539L_Latest">Data1!$AM$110</definedName>
+    <definedName name="A2603540W">Data1!$CE$1:$CE$10,Data1!$CE$11:$CE$110</definedName>
+    <definedName name="A2603540W_Data">Data1!$CE$11:$CE$110</definedName>
+    <definedName name="A2603540W_Latest">Data1!$CE$110</definedName>
+    <definedName name="A2603541X">Data1!$DW$1:$DW$10,Data1!$DW$11:$DW$110</definedName>
+    <definedName name="A2603541X_Data">Data1!$DW$11:$DW$110</definedName>
+    <definedName name="A2603541X_Latest">Data1!$DW$110</definedName>
+    <definedName name="A2603549T">Data1!$AN$1:$AN$10,Data1!$AN$11:$AN$110</definedName>
+    <definedName name="A2603549T_Data">Data1!$AN$11:$AN$110</definedName>
+    <definedName name="A2603549T_Latest">Data1!$AN$110</definedName>
+    <definedName name="A2603550A">Data1!$CF$1:$CF$10,Data1!$CF$11:$CF$110</definedName>
+    <definedName name="A2603550A_Data">Data1!$CF$11:$CF$110</definedName>
+    <definedName name="A2603550A_Latest">Data1!$CF$110</definedName>
+    <definedName name="A2603551C">Data1!$DX$1:$DX$10,Data1!$DX$11:$DX$110</definedName>
+    <definedName name="A2603551C_Data">Data1!$DX$11:$DX$110</definedName>
+    <definedName name="A2603551C_Latest">Data1!$DX$110</definedName>
+    <definedName name="A2603559W">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$110</definedName>
+    <definedName name="A2603559W_Data">Data1!$AF$11:$AF$110</definedName>
+    <definedName name="A2603559W_Latest">Data1!$AF$110</definedName>
+    <definedName name="A2603560F">Data1!$BX$1:$BX$10,Data1!$BX$11:$BX$110</definedName>
+    <definedName name="A2603560F_Data">Data1!$BX$11:$BX$110</definedName>
+    <definedName name="A2603560F_Latest">Data1!$BX$110</definedName>
+    <definedName name="A2603561J">Data1!$DP$1:$DP$10,Data1!$DP$11:$DP$110</definedName>
+    <definedName name="A2603561J_Data">Data1!$DP$11:$DP$110</definedName>
+    <definedName name="A2603561J_Latest">Data1!$DP$110</definedName>
+    <definedName name="A2603569A">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$110</definedName>
+    <definedName name="A2603569A_Data">Data1!$AE$11:$AE$110</definedName>
+    <definedName name="A2603569A_Latest">Data1!$AE$110</definedName>
+    <definedName name="A2603570K">Data1!$BW$1:$BW$10,Data1!$BW$11:$BW$110</definedName>
+    <definedName name="A2603570K_Data">Data1!$BW$11:$BW$110</definedName>
+    <definedName name="A2603570K_Latest">Data1!$BW$110</definedName>
+    <definedName name="A2603571L">Data1!$DO$1:$DO$10,Data1!$DO$11:$DO$110</definedName>
+    <definedName name="A2603571L_Data">Data1!$DO$11:$DO$110</definedName>
+    <definedName name="A2603571L_Latest">Data1!$DO$110</definedName>
+    <definedName name="A2603579F">Data1!$AR$1:$AR$10,Data1!$AR$11:$AR$110</definedName>
+    <definedName name="A2603579F_Data">Data1!$AR$11:$AR$110</definedName>
+    <definedName name="A2603579F_Latest">Data1!$AR$110</definedName>
+    <definedName name="A2603580R">Data1!$CJ$1:$CJ$10,Data1!$CJ$11:$CJ$110</definedName>
+    <definedName name="A2603580R_Data">Data1!$CJ$11:$CJ$110</definedName>
+    <definedName name="A2603580R_Latest">Data1!$CJ$110</definedName>
+    <definedName name="A2603581T">Data1!$EB$1:$EB$10,Data1!$EB$11:$EB$110</definedName>
+    <definedName name="A2603581T_Data">Data1!$EB$11:$EB$110</definedName>
+    <definedName name="A2603581T_Latest">Data1!$EB$110</definedName>
+    <definedName name="A2603589K">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$110</definedName>
+    <definedName name="A2603589K_Data">Data1!$AD$11:$AD$110</definedName>
+    <definedName name="A2603589K_Latest">Data1!$AD$110</definedName>
+    <definedName name="A2603590V">Data1!$BV$1:$BV$10,Data1!$BV$11:$BV$110</definedName>
+    <definedName name="A2603590V_Data">Data1!$BV$11:$BV$110</definedName>
+    <definedName name="A2603590V_Latest">Data1!$BV$110</definedName>
+    <definedName name="A2603591W">Data1!$DN$1:$DN$10,Data1!$DN$11:$DN$110</definedName>
+    <definedName name="A2603591W_Data">Data1!$DN$11:$DN$110</definedName>
+    <definedName name="A2603591W_Latest">Data1!$DN$110</definedName>
+    <definedName name="A2603599R">Data1!$AK$1:$AK$10,Data1!$AK$11:$AK$110</definedName>
+    <definedName name="A2603599R_Data">Data1!$AK$11:$AK$110</definedName>
+    <definedName name="A2603599R_Latest">Data1!$AK$110</definedName>
+    <definedName name="A2603600L">Data1!$CC$1:$CC$10,Data1!$CC$11:$CC$110</definedName>
+    <definedName name="A2603600L_Data">Data1!$CC$11:$CC$110</definedName>
+    <definedName name="A2603600L_Latest">Data1!$CC$110</definedName>
+    <definedName name="A2603601R">Data1!$DU$1:$DU$10,Data1!$DU$11:$DU$110</definedName>
+    <definedName name="A2603601R_Data">Data1!$DU$11:$DU$110</definedName>
+    <definedName name="A2603601R_Latest">Data1!$DU$110</definedName>
+    <definedName name="A2603609J">Data1!$AS$1:$AS$10,Data1!$AS$11:$AS$110</definedName>
+    <definedName name="A2603609J_Data">Data1!$AS$11:$AS$110</definedName>
+    <definedName name="A2603609J_Latest">Data1!$AS$110</definedName>
+    <definedName name="A2603610T">Data1!$CK$1:$CK$10,Data1!$CK$11:$CK$110</definedName>
+    <definedName name="A2603610T_Data">Data1!$CK$11:$CK$110</definedName>
+    <definedName name="A2603610T_Latest">Data1!$CK$110</definedName>
+    <definedName name="A2603611V">Data1!$EC$1:$EC$10,Data1!$EC$11:$EC$110</definedName>
+    <definedName name="A2603611V_Data">Data1!$EC$11:$EC$110</definedName>
+    <definedName name="A2603611V_Latest">Data1!$EC$110</definedName>
+    <definedName name="A2603829K">Data1!$X$1:$X$10,Data1!$X$11:$X$110</definedName>
+    <definedName name="A2603829K_Data">Data1!$X$11:$X$110</definedName>
+    <definedName name="A2603829K_Latest">Data1!$X$110</definedName>
+    <definedName name="A2603830V">Data1!$BP$1:$BP$10,Data1!$BP$11:$BP$110</definedName>
+    <definedName name="A2603830V_Data">Data1!$BP$11:$BP$110</definedName>
+    <definedName name="A2603830V_Latest">Data1!$BP$110</definedName>
+    <definedName name="A2603831W">Data1!$DH$1:$DH$10,Data1!$DH$11:$DH$110</definedName>
+    <definedName name="A2603831W_Data">Data1!$DH$11:$DH$110</definedName>
+    <definedName name="A2603831W_Latest">Data1!$DH$110</definedName>
+    <definedName name="A2603859X">Data1!$V$1:$V$10,Data1!$V$11:$V$110</definedName>
+    <definedName name="A2603859X_Data">Data1!$V$11:$V$110</definedName>
+    <definedName name="A2603859X_Latest">Data1!$V$110</definedName>
+    <definedName name="A2603860J">Data1!$BN$1:$BN$10,Data1!$BN$11:$BN$110</definedName>
+    <definedName name="A2603860J_Data">Data1!$BN$11:$BN$110</definedName>
+    <definedName name="A2603860J_Latest">Data1!$BN$110</definedName>
+    <definedName name="A2603861K">Data1!$DF$1:$DF$10,Data1!$DF$11:$DF$110</definedName>
+    <definedName name="A2603861K_Data">Data1!$DF$11:$DF$110</definedName>
+    <definedName name="A2603861K_Latest">Data1!$DF$110</definedName>
+    <definedName name="A2603869C">Data1!$U$1:$U$10,Data1!$U$11:$U$110</definedName>
+    <definedName name="A2603869C_Data">Data1!$U$11:$U$110</definedName>
+    <definedName name="A2603869C_Latest">Data1!$U$110</definedName>
+    <definedName name="A2603870L">Data1!$BM$1:$BM$10,Data1!$BM$11:$BM$110</definedName>
+    <definedName name="A2603870L_Data">Data1!$BM$11:$BM$110</definedName>
+    <definedName name="A2603870L_Latest">Data1!$BM$110</definedName>
+    <definedName name="A2603871R">Data1!$DE$1:$DE$10,Data1!$DE$11:$DE$110</definedName>
+    <definedName name="A2603871R_Data">Data1!$DE$11:$DE$110</definedName>
+    <definedName name="A2603871R_Latest">Data1!$DE$110</definedName>
+    <definedName name="A2603879J">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$110</definedName>
+    <definedName name="A2603879J_Data">Data1!$Y$11:$Y$110</definedName>
+    <definedName name="A2603879J_Latest">Data1!$Y$110</definedName>
+    <definedName name="A2603880T">Data1!$BQ$1:$BQ$10,Data1!$BQ$11:$BQ$110</definedName>
+    <definedName name="A2603880T_Data">Data1!$BQ$11:$BQ$110</definedName>
+    <definedName name="A2603880T_Latest">Data1!$BQ$110</definedName>
+    <definedName name="A2603881V">Data1!$DI$1:$DI$10,Data1!$DI$11:$DI$110</definedName>
+    <definedName name="A2603881V_Data">Data1!$DI$11:$DI$110</definedName>
+    <definedName name="A2603881V_Latest">Data1!$DI$110</definedName>
+    <definedName name="A2603929V">Data1!$W$1:$W$10,Data1!$W$11:$W$110</definedName>
+    <definedName name="A2603929V_Data">Data1!$W$11:$W$110</definedName>
+    <definedName name="A2603929V_Latest">Data1!$W$110</definedName>
+    <definedName name="A2603930C">Data1!$BO$1:$BO$10,Data1!$BO$11:$BO$110</definedName>
+    <definedName name="A2603930C_Data">Data1!$BO$11:$BO$110</definedName>
+    <definedName name="A2603930C_Latest">Data1!$BO$110</definedName>
+    <definedName name="A2603931F">Data1!$DG$1:$DG$10,Data1!$DG$11:$DG$110</definedName>
+    <definedName name="A2603931F_Data">Data1!$DG$11:$DG$110</definedName>
+    <definedName name="A2603931F_Latest">Data1!$DG$110</definedName>
+    <definedName name="A2603989W">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$110</definedName>
+    <definedName name="A2603989W_Data">Data1!$Z$11:$Z$110</definedName>
+    <definedName name="A2603989W_Latest">Data1!$Z$110</definedName>
+    <definedName name="A2603990F">Data1!$BR$1:$BR$10,Data1!$BR$11:$BR$110</definedName>
+    <definedName name="A2603990F_Data">Data1!$BR$11:$BR$110</definedName>
+    <definedName name="A2603990F_Latest">Data1!$BR$110</definedName>
+    <definedName name="A2603991J">Data1!$DJ$1:$DJ$10,Data1!$DJ$11:$DJ$110</definedName>
+    <definedName name="A2603991J_Data">Data1!$DJ$11:$DJ$110</definedName>
+    <definedName name="A2603991J_Latest">Data1!$DJ$110</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$110</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$110</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -8328,10 +8328,10 @@
         <v>35674</v>
       </c>
       <c r="G12" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H12" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>141</v>
@@ -8360,10 +8360,10 @@
         <v>35674</v>
       </c>
       <c r="G13" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H13" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>141</v>
@@ -8392,10 +8392,10 @@
         <v>35674</v>
       </c>
       <c r="G14" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H14" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>141</v>
@@ -8424,10 +8424,10 @@
         <v>35674</v>
       </c>
       <c r="G15" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H15" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>141</v>
@@ -8456,10 +8456,10 @@
         <v>35674</v>
       </c>
       <c r="G16" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H16" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>141</v>
@@ -8488,10 +8488,10 @@
         <v>35674</v>
       </c>
       <c r="G17" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H17" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>141</v>
@@ -8520,10 +8520,10 @@
         <v>35674</v>
       </c>
       <c r="G18" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H18" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>141</v>
@@ -8552,10 +8552,10 @@
         <v>35674</v>
       </c>
       <c r="G19" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H19" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>141</v>
@@ -8584,10 +8584,10 @@
         <v>35674</v>
       </c>
       <c r="G20" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H20" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>141</v>
@@ -8616,10 +8616,10 @@
         <v>35674</v>
       </c>
       <c r="G21" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H21" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>141</v>
@@ -8648,10 +8648,10 @@
         <v>35674</v>
       </c>
       <c r="G22" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H22" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>141</v>
@@ -8680,10 +8680,10 @@
         <v>35674</v>
       </c>
       <c r="G23" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H23" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>141</v>
@@ -8712,10 +8712,10 @@
         <v>35674</v>
       </c>
       <c r="G24" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H24" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>141</v>
@@ -8744,10 +8744,10 @@
         <v>35674</v>
       </c>
       <c r="G25" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H25" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>141</v>
@@ -8776,10 +8776,10 @@
         <v>35674</v>
       </c>
       <c r="G26" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H26" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>141</v>
@@ -8808,10 +8808,10 @@
         <v>35674</v>
       </c>
       <c r="G27" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H27" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>141</v>
@@ -8840,10 +8840,10 @@
         <v>35674</v>
       </c>
       <c r="G28" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H28" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>141</v>
@@ -8872,10 +8872,10 @@
         <v>35674</v>
       </c>
       <c r="G29" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H29" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>141</v>
@@ -8904,10 +8904,10 @@
         <v>35674</v>
       </c>
       <c r="G30" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H30" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>141</v>
@@ -8936,10 +8936,10 @@
         <v>35674</v>
       </c>
       <c r="G31" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H31" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>141</v>
@@ -8968,10 +8968,10 @@
         <v>35674</v>
       </c>
       <c r="G32" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H32" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>141</v>
@@ -9000,10 +9000,10 @@
         <v>35674</v>
       </c>
       <c r="G33" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H33" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>141</v>
@@ -9032,10 +9032,10 @@
         <v>35674</v>
       </c>
       <c r="G34" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H34" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>141</v>
@@ -9064,10 +9064,10 @@
         <v>35674</v>
       </c>
       <c r="G35" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H35" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>141</v>
@@ -9096,10 +9096,10 @@
         <v>35674</v>
       </c>
       <c r="G36" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H36" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>141</v>
@@ -9128,10 +9128,10 @@
         <v>35674</v>
       </c>
       <c r="G37" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H37" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>141</v>
@@ -9160,10 +9160,10 @@
         <v>35674</v>
       </c>
       <c r="G38" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H38" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>141</v>
@@ -9192,10 +9192,10 @@
         <v>35674</v>
       </c>
       <c r="G39" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H39" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>141</v>
@@ -9224,10 +9224,10 @@
         <v>35674</v>
       </c>
       <c r="G40" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H40" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>141</v>
@@ -9256,10 +9256,10 @@
         <v>35674</v>
       </c>
       <c r="G41" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H41" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>141</v>
@@ -9288,10 +9288,10 @@
         <v>35674</v>
       </c>
       <c r="G42" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H42" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>141</v>
@@ -9320,10 +9320,10 @@
         <v>35674</v>
       </c>
       <c r="G43" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H43" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>141</v>
@@ -9352,10 +9352,10 @@
         <v>35674</v>
       </c>
       <c r="G44" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H44" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>141</v>
@@ -9384,10 +9384,10 @@
         <v>35674</v>
       </c>
       <c r="G45" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H45" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>141</v>
@@ -9416,10 +9416,10 @@
         <v>35674</v>
       </c>
       <c r="G46" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H46" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>141</v>
@@ -9448,10 +9448,10 @@
         <v>35674</v>
       </c>
       <c r="G47" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H47" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>141</v>
@@ -9480,10 +9480,10 @@
         <v>35674</v>
       </c>
       <c r="G48" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H48" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I48" s="10" t="s">
         <v>141</v>
@@ -9512,10 +9512,10 @@
         <v>35674</v>
       </c>
       <c r="G49" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H49" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>141</v>
@@ -9544,10 +9544,10 @@
         <v>35674</v>
       </c>
       <c r="G50" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H50" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>141</v>
@@ -9576,10 +9576,10 @@
         <v>35674</v>
       </c>
       <c r="G51" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H51" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>141</v>
@@ -9608,10 +9608,10 @@
         <v>35674</v>
       </c>
       <c r="G52" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H52" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>141</v>
@@ -9640,10 +9640,10 @@
         <v>35674</v>
       </c>
       <c r="G53" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H53" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>141</v>
@@ -9672,10 +9672,10 @@
         <v>35674</v>
       </c>
       <c r="G54" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H54" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>141</v>
@@ -9704,10 +9704,10 @@
         <v>35674</v>
       </c>
       <c r="G55" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H55" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>141</v>
@@ -9736,10 +9736,10 @@
         <v>35674</v>
       </c>
       <c r="G56" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H56" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>189</v>
@@ -9768,10 +9768,10 @@
         <v>35674</v>
       </c>
       <c r="G57" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H57" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>189</v>
@@ -9800,10 +9800,10 @@
         <v>35674</v>
       </c>
       <c r="G58" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H58" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>189</v>
@@ -9832,10 +9832,10 @@
         <v>35674</v>
       </c>
       <c r="G59" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H59" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>189</v>
@@ -9864,10 +9864,10 @@
         <v>35674</v>
       </c>
       <c r="G60" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H60" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>189</v>
@@ -9896,10 +9896,10 @@
         <v>35674</v>
       </c>
       <c r="G61" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H61" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>189</v>
@@ -9928,10 +9928,10 @@
         <v>35674</v>
       </c>
       <c r="G62" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H62" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I62" s="10" t="s">
         <v>189</v>
@@ -9960,10 +9960,10 @@
         <v>35674</v>
       </c>
       <c r="G63" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H63" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>189</v>
@@ -9992,10 +9992,10 @@
         <v>35674</v>
       </c>
       <c r="G64" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H64" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>189</v>
@@ -10024,10 +10024,10 @@
         <v>35674</v>
       </c>
       <c r="G65" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H65" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>189</v>
@@ -10056,10 +10056,10 @@
         <v>35674</v>
       </c>
       <c r="G66" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H66" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I66" s="10" t="s">
         <v>189</v>
@@ -10088,10 +10088,10 @@
         <v>35674</v>
       </c>
       <c r="G67" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H67" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>189</v>
@@ -10120,10 +10120,10 @@
         <v>35674</v>
       </c>
       <c r="G68" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H68" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>189</v>
@@ -10152,10 +10152,10 @@
         <v>35674</v>
       </c>
       <c r="G69" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H69" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I69" s="10" t="s">
         <v>189</v>
@@ -10184,10 +10184,10 @@
         <v>35674</v>
       </c>
       <c r="G70" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H70" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I70" s="10" t="s">
         <v>189</v>
@@ -10216,10 +10216,10 @@
         <v>35674</v>
       </c>
       <c r="G71" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H71" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I71" s="10" t="s">
         <v>189</v>
@@ -10248,10 +10248,10 @@
         <v>35674</v>
       </c>
       <c r="G72" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H72" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I72" s="10" t="s">
         <v>189</v>
@@ -10280,10 +10280,10 @@
         <v>35674</v>
       </c>
       <c r="G73" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H73" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I73" s="10" t="s">
         <v>189</v>
@@ -10312,10 +10312,10 @@
         <v>35674</v>
       </c>
       <c r="G74" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H74" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I74" s="10" t="s">
         <v>189</v>
@@ -10344,10 +10344,10 @@
         <v>35674</v>
       </c>
       <c r="G75" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H75" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I75" s="10" t="s">
         <v>189</v>
@@ -10376,10 +10376,10 @@
         <v>35674</v>
       </c>
       <c r="G76" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H76" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I76" s="10" t="s">
         <v>189</v>
@@ -10408,10 +10408,10 @@
         <v>35674</v>
       </c>
       <c r="G77" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H77" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I77" s="10" t="s">
         <v>189</v>
@@ -10440,10 +10440,10 @@
         <v>35674</v>
       </c>
       <c r="G78" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H78" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I78" s="10" t="s">
         <v>189</v>
@@ -10472,10 +10472,10 @@
         <v>35674</v>
       </c>
       <c r="G79" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H79" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I79" s="10" t="s">
         <v>189</v>
@@ -10504,10 +10504,10 @@
         <v>35674</v>
       </c>
       <c r="G80" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H80" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I80" s="10" t="s">
         <v>189</v>
@@ -10536,10 +10536,10 @@
         <v>35674</v>
       </c>
       <c r="G81" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H81" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I81" s="10" t="s">
         <v>189</v>
@@ -10568,10 +10568,10 @@
         <v>35674</v>
       </c>
       <c r="G82" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H82" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I82" s="10" t="s">
         <v>189</v>
@@ -10600,10 +10600,10 @@
         <v>35674</v>
       </c>
       <c r="G83" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H83" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I83" s="10" t="s">
         <v>189</v>
@@ -10632,10 +10632,10 @@
         <v>35674</v>
       </c>
       <c r="G84" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H84" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I84" s="10" t="s">
         <v>189</v>
@@ -10664,10 +10664,10 @@
         <v>35674</v>
       </c>
       <c r="G85" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H85" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I85" s="10" t="s">
         <v>189</v>
@@ -10696,10 +10696,10 @@
         <v>35674</v>
       </c>
       <c r="G86" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H86" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I86" s="10" t="s">
         <v>189</v>
@@ -10728,10 +10728,10 @@
         <v>35674</v>
       </c>
       <c r="G87" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H87" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I87" s="10" t="s">
         <v>189</v>
@@ -10760,10 +10760,10 @@
         <v>35674</v>
       </c>
       <c r="G88" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H88" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I88" s="10" t="s">
         <v>189</v>
@@ -10792,10 +10792,10 @@
         <v>35674</v>
       </c>
       <c r="G89" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H89" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I89" s="10" t="s">
         <v>189</v>
@@ -10824,10 +10824,10 @@
         <v>35674</v>
       </c>
       <c r="G90" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H90" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I90" s="10" t="s">
         <v>189</v>
@@ -10856,10 +10856,10 @@
         <v>35674</v>
       </c>
       <c r="G91" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H91" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I91" s="10" t="s">
         <v>189</v>
@@ -10888,10 +10888,10 @@
         <v>35674</v>
       </c>
       <c r="G92" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H92" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I92" s="10" t="s">
         <v>189</v>
@@ -10920,10 +10920,10 @@
         <v>35674</v>
       </c>
       <c r="G93" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H93" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I93" s="10" t="s">
         <v>189</v>
@@ -10952,10 +10952,10 @@
         <v>35674</v>
       </c>
       <c r="G94" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H94" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I94" s="10" t="s">
         <v>189</v>
@@ -10984,10 +10984,10 @@
         <v>35674</v>
       </c>
       <c r="G95" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H95" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I95" s="10" t="s">
         <v>189</v>
@@ -11016,10 +11016,10 @@
         <v>35674</v>
       </c>
       <c r="G96" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H96" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I96" s="10" t="s">
         <v>189</v>
@@ -11048,10 +11048,10 @@
         <v>35674</v>
       </c>
       <c r="G97" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H97" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I97" s="10" t="s">
         <v>189</v>
@@ -11080,10 +11080,10 @@
         <v>35674</v>
       </c>
       <c r="G98" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H98" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I98" s="10" t="s">
         <v>189</v>
@@ -11112,10 +11112,10 @@
         <v>35674</v>
       </c>
       <c r="G99" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H99" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I99" s="10" t="s">
         <v>189</v>
@@ -11144,10 +11144,10 @@
         <v>35674</v>
       </c>
       <c r="G100" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H100" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I100" s="10" t="s">
         <v>189</v>
@@ -11176,10 +11176,10 @@
         <v>35674</v>
       </c>
       <c r="G101" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H101" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I101" s="10" t="s">
         <v>189</v>
@@ -11208,10 +11208,10 @@
         <v>35674</v>
       </c>
       <c r="G102" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H102" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I102" s="10" t="s">
         <v>189</v>
@@ -11240,10 +11240,10 @@
         <v>35674</v>
       </c>
       <c r="G103" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H103" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I103" s="10" t="s">
         <v>189</v>
@@ -11272,10 +11272,10 @@
         <v>35674</v>
       </c>
       <c r="G104" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H104" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I104" s="10" t="s">
         <v>189</v>
@@ -11304,10 +11304,10 @@
         <v>35674</v>
       </c>
       <c r="G105" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H105" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I105" s="10" t="s">
         <v>189</v>
@@ -11336,10 +11336,10 @@
         <v>35674</v>
       </c>
       <c r="G106" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H106" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I106" s="10" t="s">
         <v>189</v>
@@ -11368,10 +11368,10 @@
         <v>35674</v>
       </c>
       <c r="G107" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H107" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I107" s="10" t="s">
         <v>189</v>
@@ -11400,10 +11400,10 @@
         <v>35674</v>
       </c>
       <c r="G108" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H108" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I108" s="10" t="s">
         <v>189</v>
@@ -11432,10 +11432,10 @@
         <v>35674</v>
       </c>
       <c r="G109" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H109" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I109" s="10" t="s">
         <v>189</v>
@@ -11464,10 +11464,10 @@
         <v>35674</v>
       </c>
       <c r="G110" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H110" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I110" s="10" t="s">
         <v>189</v>
@@ -11496,10 +11496,10 @@
         <v>35674</v>
       </c>
       <c r="G111" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H111" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I111" s="10" t="s">
         <v>189</v>
@@ -11528,10 +11528,10 @@
         <v>35674</v>
       </c>
       <c r="G112" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H112" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I112" s="10" t="s">
         <v>189</v>
@@ -11560,10 +11560,10 @@
         <v>35674</v>
       </c>
       <c r="G113" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H113" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I113" s="10" t="s">
         <v>189</v>
@@ -11592,10 +11592,10 @@
         <v>35674</v>
       </c>
       <c r="G114" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H114" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I114" s="10" t="s">
         <v>189</v>
@@ -11624,10 +11624,10 @@
         <v>35674</v>
       </c>
       <c r="G115" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H115" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I115" s="10" t="s">
         <v>189</v>
@@ -11656,10 +11656,10 @@
         <v>35674</v>
       </c>
       <c r="G116" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H116" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I116" s="10" t="s">
         <v>189</v>
@@ -11688,10 +11688,10 @@
         <v>35674</v>
       </c>
       <c r="G117" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H117" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I117" s="10" t="s">
         <v>189</v>
@@ -11720,10 +11720,10 @@
         <v>35674</v>
       </c>
       <c r="G118" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H118" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I118" s="10" t="s">
         <v>189</v>
@@ -11752,10 +11752,10 @@
         <v>35674</v>
       </c>
       <c r="G119" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H119" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I119" s="10" t="s">
         <v>189</v>
@@ -11784,10 +11784,10 @@
         <v>35674</v>
       </c>
       <c r="G120" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H120" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I120" s="10" t="s">
         <v>189</v>
@@ -11816,10 +11816,10 @@
         <v>35674</v>
       </c>
       <c r="G121" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H121" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I121" s="10" t="s">
         <v>189</v>
@@ -11848,10 +11848,10 @@
         <v>35674</v>
       </c>
       <c r="G122" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H122" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I122" s="10" t="s">
         <v>189</v>
@@ -11880,10 +11880,10 @@
         <v>35674</v>
       </c>
       <c r="G123" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H123" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I123" s="10" t="s">
         <v>189</v>
@@ -11912,10 +11912,10 @@
         <v>35674</v>
       </c>
       <c r="G124" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H124" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I124" s="10" t="s">
         <v>189</v>
@@ -11944,10 +11944,10 @@
         <v>35674</v>
       </c>
       <c r="G125" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H125" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I125" s="10" t="s">
         <v>189</v>
@@ -11976,10 +11976,10 @@
         <v>35674</v>
       </c>
       <c r="G126" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H126" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I126" s="10" t="s">
         <v>189</v>
@@ -12008,10 +12008,10 @@
         <v>35674</v>
       </c>
       <c r="G127" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H127" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I127" s="10" t="s">
         <v>189</v>
@@ -12040,10 +12040,10 @@
         <v>35674</v>
       </c>
       <c r="G128" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H128" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I128" s="10" t="s">
         <v>189</v>
@@ -12072,10 +12072,10 @@
         <v>35674</v>
       </c>
       <c r="G129" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H129" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I129" s="10" t="s">
         <v>189</v>
@@ -12104,10 +12104,10 @@
         <v>35674</v>
       </c>
       <c r="G130" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H130" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I130" s="10" t="s">
         <v>189</v>
@@ -12136,10 +12136,10 @@
         <v>35674</v>
       </c>
       <c r="G131" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H131" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I131" s="10" t="s">
         <v>189</v>
@@ -12168,10 +12168,10 @@
         <v>35674</v>
       </c>
       <c r="G132" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H132" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I132" s="10" t="s">
         <v>189</v>
@@ -12200,10 +12200,10 @@
         <v>35674</v>
       </c>
       <c r="G133" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H133" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I133" s="10" t="s">
         <v>189</v>
@@ -12232,10 +12232,10 @@
         <v>35674</v>
       </c>
       <c r="G134" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H134" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I134" s="10" t="s">
         <v>189</v>
@@ -12264,10 +12264,10 @@
         <v>35674</v>
       </c>
       <c r="G135" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H135" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I135" s="10" t="s">
         <v>189</v>
@@ -12296,10 +12296,10 @@
         <v>35674</v>
       </c>
       <c r="G136" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H136" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I136" s="10" t="s">
         <v>189</v>
@@ -12328,10 +12328,10 @@
         <v>35674</v>
       </c>
       <c r="G137" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H137" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I137" s="10" t="s">
         <v>189</v>
@@ -12360,10 +12360,10 @@
         <v>35674</v>
       </c>
       <c r="G138" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H138" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I138" s="10" t="s">
         <v>189</v>
@@ -12392,10 +12392,10 @@
         <v>35674</v>
       </c>
       <c r="G139" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H139" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I139" s="10" t="s">
         <v>189</v>
@@ -12424,10 +12424,10 @@
         <v>35674</v>
       </c>
       <c r="G140" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H140" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I140" s="10" t="s">
         <v>189</v>
@@ -12456,10 +12456,10 @@
         <v>35674</v>
       </c>
       <c r="G141" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H141" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I141" s="10" t="s">
         <v>189</v>
@@ -12488,10 +12488,10 @@
         <v>35674</v>
       </c>
       <c r="G142" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H142" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I142" s="10" t="s">
         <v>189</v>
@@ -12520,10 +12520,10 @@
         <v>35674</v>
       </c>
       <c r="G143" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H143" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I143" s="10" t="s">
         <v>189</v>
@@ -12690,7 +12690,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EC109"/>
+  <dimension ref="A1:EC110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -15513,400 +15513,400 @@
         <v>138</v>
       </c>
       <c r="B8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="C8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="D8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="E8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="F8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="G8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="I8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="J8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="K8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="L8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="M8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="N8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="O8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="P8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="Q8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="R8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="S8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="T8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="U8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="V8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="W8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="X8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="Y8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="Z8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AA8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AB8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AC8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AD8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AE8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AF8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AG8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AH8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AI8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AJ8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AK8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AL8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AM8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AN8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AO8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AP8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AQ8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AR8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AS8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AT8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AU8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AV8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AW8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AX8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AY8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AZ8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BA8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BB8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BC8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BD8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BE8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BF8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BG8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BH8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BI8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BJ8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BK8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BL8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BM8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BN8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BO8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BP8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BQ8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BR8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BS8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BT8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BU8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BV8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BW8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BX8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BY8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="BZ8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CA8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CB8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CC8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CD8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CE8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CF8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CG8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CH8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CI8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CJ8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CK8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CL8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CM8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CN8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CO8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CP8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CQ8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CR8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CS8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CT8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CU8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CV8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CW8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CX8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CY8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="CZ8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DA8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DB8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DC8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DD8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DE8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DF8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DG8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DH8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DI8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DJ8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DK8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DL8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DM8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DN8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DO8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DP8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DQ8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DR8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DS8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DT8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DU8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DV8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DW8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DX8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DY8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="DZ8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="EA8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="EB8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="EC8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="9" spans="1:133" x14ac:dyDescent="0.2">
@@ -15914,400 +15914,400 @@
         <v>139</v>
       </c>
       <c r="B9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="T9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="U9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="V9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="W9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="X9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Z9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AA9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AB9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AE9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AH9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AI9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AL9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AM9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AN9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AO9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AQ9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AR9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AS9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AT9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AU9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AV9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AW9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AX9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AY9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AZ9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BA9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BB9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BC9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BD9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BE9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BF9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BG9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BH9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BI9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BJ9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BK9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BL9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BM9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BN9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BO9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BP9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BQ9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BR9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BS9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BT9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BU9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BV9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BW9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BX9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BY9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BZ9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CA9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CB9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CC9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CD9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CE9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CF9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CG9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CH9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CI9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CJ9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CK9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CL9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CM9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CN9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CO9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CP9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CQ9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CR9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CS9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CT9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CU9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CV9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CW9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CX9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CY9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CZ9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="DA9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="DB9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="DC9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="DD9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="DE9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="DF9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="DG9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="DH9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="DI9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="DJ9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="DK9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="DL9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="DM9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="DN9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="DO9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="DP9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="DQ9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="DR9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="DS9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="DT9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="DU9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="DV9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="DW9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="DX9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="DY9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="DZ9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="EA9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="EB9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="EC9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:133" x14ac:dyDescent="0.2">
@@ -55970,6 +55970,407 @@
         <v>2.4</v>
       </c>
     </row>
+    <row r="110" spans="1:133" x14ac:dyDescent="0.2">
+      <c r="A110" s="9">
+        <v>44713</v>
+      </c>
+      <c r="B110" s="8">
+        <v>139.80000000000001</v>
+      </c>
+      <c r="C110" s="8">
+        <v>140.5</v>
+      </c>
+      <c r="D110" s="8">
+        <v>147.5</v>
+      </c>
+      <c r="E110" s="8">
+        <v>139.5</v>
+      </c>
+      <c r="F110" s="8">
+        <v>138.69999999999999</v>
+      </c>
+      <c r="G110" s="8">
+        <v>134.69999999999999</v>
+      </c>
+      <c r="H110" s="8">
+        <v>136.6</v>
+      </c>
+      <c r="I110" s="8">
+        <v>139.4</v>
+      </c>
+      <c r="J110" s="8">
+        <v>134.80000000000001</v>
+      </c>
+      <c r="K110" s="8">
+        <v>142.5</v>
+      </c>
+      <c r="L110" s="8">
+        <v>134.19999999999999</v>
+      </c>
+      <c r="M110" s="8">
+        <v>139</v>
+      </c>
+      <c r="N110" s="8">
+        <v>133.4</v>
+      </c>
+      <c r="O110" s="8">
+        <v>138.69999999999999</v>
+      </c>
+      <c r="P110" s="8">
+        <v>145.80000000000001</v>
+      </c>
+      <c r="Q110" s="8">
+        <v>145.5</v>
+      </c>
+      <c r="R110" s="8">
+        <v>141.30000000000001</v>
+      </c>
+      <c r="S110" s="8">
+        <v>138.19999999999999</v>
+      </c>
+      <c r="T110" s="8">
+        <v>139.19999999999999</v>
+      </c>
+      <c r="U110" s="8">
+        <v>145.1</v>
+      </c>
+      <c r="V110" s="8">
+        <v>136.80000000000001</v>
+      </c>
+      <c r="W110" s="8">
+        <v>141.30000000000001</v>
+      </c>
+      <c r="X110" s="8">
+        <v>144.9</v>
+      </c>
+      <c r="Y110" s="8">
+        <v>143.80000000000001</v>
+      </c>
+      <c r="Z110" s="8">
+        <v>143.1</v>
+      </c>
+      <c r="AA110" s="8">
+        <v>139.80000000000001</v>
+      </c>
+      <c r="AB110" s="8">
+        <v>140.5</v>
+      </c>
+      <c r="AC110" s="8">
+        <v>146.30000000000001</v>
+      </c>
+      <c r="AD110" s="8">
+        <v>139.6</v>
+      </c>
+      <c r="AE110" s="8">
+        <v>138.69999999999999</v>
+      </c>
+      <c r="AF110" s="8">
+        <v>134.69999999999999</v>
+      </c>
+      <c r="AG110" s="8">
+        <v>136.6</v>
+      </c>
+      <c r="AH110" s="8">
+        <v>139.80000000000001</v>
+      </c>
+      <c r="AI110" s="8">
+        <v>135.4</v>
+      </c>
+      <c r="AJ110" s="8">
+        <v>142.5</v>
+      </c>
+      <c r="AK110" s="8">
+        <v>134.80000000000001</v>
+      </c>
+      <c r="AL110" s="8">
+        <v>138.9</v>
+      </c>
+      <c r="AM110" s="8">
+        <v>133.6</v>
+      </c>
+      <c r="AN110" s="8">
+        <v>141.1</v>
+      </c>
+      <c r="AO110" s="8">
+        <v>145.19999999999999</v>
+      </c>
+      <c r="AP110" s="8">
+        <v>144.69999999999999</v>
+      </c>
+      <c r="AQ110" s="8">
+        <v>141</v>
+      </c>
+      <c r="AR110" s="8">
+        <v>138.30000000000001</v>
+      </c>
+      <c r="AS110" s="8">
+        <v>140.1</v>
+      </c>
+      <c r="AT110" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="AU110" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="AV110" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="AW110" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="AX110" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="AY110" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="AZ110" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="BA110" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="BB110" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="BC110" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="BD110" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="BE110" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="BF110" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="BG110" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="BH110" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="BI110" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="BJ110" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="BK110" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="BL110" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="BM110" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="BN110" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="BO110" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="BP110" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="BQ110" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="BR110" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="BS110" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="BT110" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="BU110" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="BV110" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="BW110" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="BX110" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="BY110" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="BZ110" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="CA110" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="CB110" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="CC110" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="CD110" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="CE110" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="CF110" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="CG110" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="CH110" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="CI110" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="CJ110" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="CK110" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="CL110" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CM110" s="8">
+        <v>3</v>
+      </c>
+      <c r="CN110" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="CO110" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="CP110" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="CQ110" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="CR110" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="CS110" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="CT110" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="CU110" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="CV110" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="CW110" s="8">
+        <v>3</v>
+      </c>
+      <c r="CX110" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="CY110" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="CZ110" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DA110" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DB110" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="DC110" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="DD110" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="DE110" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="DF110" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="DG110" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="DH110" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DI110" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="DJ110" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="DK110" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DL110" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="DM110" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DN110" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="DO110" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="DP110" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="DQ110" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="DR110" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="DS110" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="DT110" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="DU110" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="DV110" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="DW110" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="DX110" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="DY110" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="DZ110" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="EA110" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="EB110" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="EC110" s="8">
+        <v>2.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/data-raw/abs/6345.0/634505b.xlsx
+++ b/data-raw/abs/6345.0/634505b.xlsx
@@ -12,404 +12,404 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A2602859F">Data1!$R$1:$R$10,Data1!$R$11:$R$110</definedName>
-    <definedName name="A2602859F_Data">Data1!$R$11:$R$110</definedName>
-    <definedName name="A2602859F_Latest">Data1!$R$110</definedName>
-    <definedName name="A2602860R">Data1!$BJ$1:$BJ$10,Data1!$BJ$11:$BJ$110</definedName>
-    <definedName name="A2602860R_Data">Data1!$BJ$11:$BJ$110</definedName>
-    <definedName name="A2602860R_Latest">Data1!$BJ$110</definedName>
-    <definedName name="A2602861T">Data1!$DB$1:$DB$10,Data1!$DB$11:$DB$110</definedName>
-    <definedName name="A2602861T_Data">Data1!$DB$11:$DB$110</definedName>
-    <definedName name="A2602861T_Latest">Data1!$DB$110</definedName>
-    <definedName name="A2602869K">Data1!$H$1:$H$10,Data1!$H$11:$H$110</definedName>
-    <definedName name="A2602869K_Data">Data1!$H$11:$H$110</definedName>
-    <definedName name="A2602869K_Latest">Data1!$H$110</definedName>
-    <definedName name="A2602870V">Data1!$AZ$1:$AZ$10,Data1!$AZ$11:$AZ$110</definedName>
-    <definedName name="A2602870V_Data">Data1!$AZ$11:$AZ$110</definedName>
-    <definedName name="A2602870V_Latest">Data1!$AZ$110</definedName>
-    <definedName name="A2602871W">Data1!$CR$1:$CR$10,Data1!$CR$11:$CR$110</definedName>
-    <definedName name="A2602871W_Data">Data1!$CR$11:$CR$110</definedName>
-    <definedName name="A2602871W_Latest">Data1!$CR$110</definedName>
-    <definedName name="A2602879R">Data1!$P$1:$P$10,Data1!$P$11:$P$110</definedName>
-    <definedName name="A2602879R_Data">Data1!$P$11:$P$110</definedName>
-    <definedName name="A2602879R_Latest">Data1!$P$110</definedName>
-    <definedName name="A2602880X">Data1!$BH$1:$BH$10,Data1!$BH$11:$BH$110</definedName>
-    <definedName name="A2602880X_Data">Data1!$BH$11:$BH$110</definedName>
-    <definedName name="A2602880X_Latest">Data1!$BH$110</definedName>
-    <definedName name="A2602881A">Data1!$CZ$1:$CZ$10,Data1!$CZ$11:$CZ$110</definedName>
-    <definedName name="A2602881A_Data">Data1!$CZ$11:$CZ$110</definedName>
-    <definedName name="A2602881A_Latest">Data1!$CZ$110</definedName>
-    <definedName name="A2602889V">Data1!$K$1:$K$10,Data1!$K$11:$K$110</definedName>
-    <definedName name="A2602889V_Data">Data1!$K$11:$K$110</definedName>
-    <definedName name="A2602889V_Latest">Data1!$K$110</definedName>
-    <definedName name="A2602890C">Data1!$BC$1:$BC$10,Data1!$BC$11:$BC$110</definedName>
-    <definedName name="A2602890C_Data">Data1!$BC$11:$BC$110</definedName>
-    <definedName name="A2602890C_Latest">Data1!$BC$110</definedName>
-    <definedName name="A2602891F">Data1!$CU$1:$CU$10,Data1!$CU$11:$CU$110</definedName>
-    <definedName name="A2602891F_Data">Data1!$CU$11:$CU$110</definedName>
-    <definedName name="A2602891F_Latest">Data1!$CU$110</definedName>
-    <definedName name="A2602899X">Data1!$I$1:$I$10,Data1!$I$11:$I$110</definedName>
-    <definedName name="A2602899X_Data">Data1!$I$11:$I$110</definedName>
-    <definedName name="A2602899X_Latest">Data1!$I$110</definedName>
-    <definedName name="A2602900W">Data1!$BA$1:$BA$10,Data1!$BA$11:$BA$110</definedName>
-    <definedName name="A2602900W_Data">Data1!$BA$11:$BA$110</definedName>
-    <definedName name="A2602900W_Latest">Data1!$BA$110</definedName>
-    <definedName name="A2602901X">Data1!$CS$1:$CS$10,Data1!$CS$11:$CS$110</definedName>
-    <definedName name="A2602901X_Data">Data1!$CS$11:$CS$110</definedName>
-    <definedName name="A2602901X_Latest">Data1!$CS$110</definedName>
-    <definedName name="A2602909T">Data1!$M$1:$M$10,Data1!$M$11:$M$110</definedName>
-    <definedName name="A2602909T_Data">Data1!$M$11:$M$110</definedName>
-    <definedName name="A2602909T_Latest">Data1!$M$110</definedName>
-    <definedName name="A2602910A">Data1!$BE$1:$BE$10,Data1!$BE$11:$BE$110</definedName>
-    <definedName name="A2602910A_Data">Data1!$BE$11:$BE$110</definedName>
-    <definedName name="A2602910A_Latest">Data1!$BE$110</definedName>
-    <definedName name="A2602911C">Data1!$CW$1:$CW$10,Data1!$CW$11:$CW$110</definedName>
-    <definedName name="A2602911C_Data">Data1!$CW$11:$CW$110</definedName>
-    <definedName name="A2602911C_Latest">Data1!$CW$110</definedName>
-    <definedName name="A2602919W">Data1!$D$1:$D$10,Data1!$D$11:$D$110</definedName>
-    <definedName name="A2602919W_Data">Data1!$D$11:$D$110</definedName>
-    <definedName name="A2602919W_Latest">Data1!$D$110</definedName>
-    <definedName name="A2602920F">Data1!$AV$1:$AV$10,Data1!$AV$11:$AV$110</definedName>
-    <definedName name="A2602920F_Data">Data1!$AV$11:$AV$110</definedName>
-    <definedName name="A2602920F_Latest">Data1!$AV$110</definedName>
-    <definedName name="A2602921J">Data1!$CN$1:$CN$10,Data1!$CN$11:$CN$110</definedName>
-    <definedName name="A2602921J_Data">Data1!$CN$11:$CN$110</definedName>
-    <definedName name="A2602921J_Latest">Data1!$CN$110</definedName>
-    <definedName name="A2602929A">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$110</definedName>
-    <definedName name="A2602929A_Data">Data1!$Q$11:$Q$110</definedName>
-    <definedName name="A2602929A_Latest">Data1!$Q$110</definedName>
-    <definedName name="A2602930K">Data1!$BI$1:$BI$10,Data1!$BI$11:$BI$110</definedName>
-    <definedName name="A2602930K_Data">Data1!$BI$11:$BI$110</definedName>
-    <definedName name="A2602930K_Latest">Data1!$BI$110</definedName>
-    <definedName name="A2602931L">Data1!$DA$1:$DA$10,Data1!$DA$11:$DA$110</definedName>
-    <definedName name="A2602931L_Data">Data1!$DA$11:$DA$110</definedName>
-    <definedName name="A2602931L_Latest">Data1!$DA$110</definedName>
-    <definedName name="A2602939F">Data1!$B$1:$B$10,Data1!$B$11:$B$110</definedName>
-    <definedName name="A2602939F_Data">Data1!$B$11:$B$110</definedName>
-    <definedName name="A2602939F_Latest">Data1!$B$110</definedName>
-    <definedName name="A2602940R">Data1!$AT$1:$AT$10,Data1!$AT$11:$AT$110</definedName>
-    <definedName name="A2602940R_Data">Data1!$AT$11:$AT$110</definedName>
-    <definedName name="A2602940R_Latest">Data1!$AT$110</definedName>
-    <definedName name="A2602941T">Data1!$CL$1:$CL$10,Data1!$CL$11:$CL$110</definedName>
-    <definedName name="A2602941T_Data">Data1!$CL$11:$CL$110</definedName>
-    <definedName name="A2602941T_Latest">Data1!$CL$110</definedName>
-    <definedName name="A2602949K">Data1!$J$1:$J$10,Data1!$J$11:$J$110</definedName>
-    <definedName name="A2602949K_Data">Data1!$J$11:$J$110</definedName>
-    <definedName name="A2602949K_Latest">Data1!$J$110</definedName>
-    <definedName name="A2602950V">Data1!$BB$1:$BB$10,Data1!$BB$11:$BB$110</definedName>
-    <definedName name="A2602950V_Data">Data1!$BB$11:$BB$110</definedName>
-    <definedName name="A2602950V_Latest">Data1!$BB$110</definedName>
-    <definedName name="A2602951W">Data1!$CT$1:$CT$10,Data1!$CT$11:$CT$110</definedName>
-    <definedName name="A2602951W_Data">Data1!$CT$11:$CT$110</definedName>
-    <definedName name="A2602951W_Latest">Data1!$CT$110</definedName>
-    <definedName name="A2602959R">Data1!$C$1:$C$10,Data1!$C$11:$C$110</definedName>
-    <definedName name="A2602959R_Data">Data1!$C$11:$C$110</definedName>
-    <definedName name="A2602959R_Latest">Data1!$C$110</definedName>
-    <definedName name="A2602960X">Data1!$AU$1:$AU$10,Data1!$AU$11:$AU$110</definedName>
-    <definedName name="A2602960X_Data">Data1!$AU$11:$AU$110</definedName>
-    <definedName name="A2602960X_Latest">Data1!$AU$110</definedName>
-    <definedName name="A2602961A">Data1!$CM$1:$CM$10,Data1!$CM$11:$CM$110</definedName>
-    <definedName name="A2602961A_Data">Data1!$CM$11:$CM$110</definedName>
-    <definedName name="A2602961A_Latest">Data1!$CM$110</definedName>
-    <definedName name="A2602969V">Data1!$N$1:$N$10,Data1!$N$11:$N$110</definedName>
-    <definedName name="A2602969V_Data">Data1!$N$11:$N$110</definedName>
-    <definedName name="A2602969V_Latest">Data1!$N$110</definedName>
-    <definedName name="A2602970C">Data1!$BF$1:$BF$10,Data1!$BF$11:$BF$110</definedName>
-    <definedName name="A2602970C_Data">Data1!$BF$11:$BF$110</definedName>
-    <definedName name="A2602970C_Latest">Data1!$BF$110</definedName>
-    <definedName name="A2602971F">Data1!$CX$1:$CX$10,Data1!$CX$11:$CX$110</definedName>
-    <definedName name="A2602971F_Data">Data1!$CX$11:$CX$110</definedName>
-    <definedName name="A2602971F_Latest">Data1!$CX$110</definedName>
-    <definedName name="A2602979X">Data1!$O$1:$O$10,Data1!$O$11:$O$110</definedName>
-    <definedName name="A2602979X_Data">Data1!$O$11:$O$110</definedName>
-    <definedName name="A2602979X_Latest">Data1!$O$110</definedName>
-    <definedName name="A2602980J">Data1!$BG$1:$BG$10,Data1!$BG$11:$BG$110</definedName>
-    <definedName name="A2602980J_Data">Data1!$BG$11:$BG$110</definedName>
-    <definedName name="A2602980J_Latest">Data1!$BG$110</definedName>
-    <definedName name="A2602981K">Data1!$CY$1:$CY$10,Data1!$CY$11:$CY$110</definedName>
-    <definedName name="A2602981K_Data">Data1!$CY$11:$CY$110</definedName>
-    <definedName name="A2602981K_Latest">Data1!$CY$110</definedName>
-    <definedName name="A2602989C">Data1!$G$1:$G$10,Data1!$G$11:$G$110</definedName>
-    <definedName name="A2602989C_Data">Data1!$G$11:$G$110</definedName>
-    <definedName name="A2602989C_Latest">Data1!$G$110</definedName>
-    <definedName name="A2602990L">Data1!$AY$1:$AY$10,Data1!$AY$11:$AY$110</definedName>
-    <definedName name="A2602990L_Data">Data1!$AY$11:$AY$110</definedName>
-    <definedName name="A2602990L_Latest">Data1!$AY$110</definedName>
-    <definedName name="A2602991R">Data1!$CQ$1:$CQ$10,Data1!$CQ$11:$CQ$110</definedName>
-    <definedName name="A2602991R_Data">Data1!$CQ$11:$CQ$110</definedName>
-    <definedName name="A2602991R_Latest">Data1!$CQ$110</definedName>
-    <definedName name="A2602999J">Data1!$F$1:$F$10,Data1!$F$11:$F$110</definedName>
-    <definedName name="A2602999J_Data">Data1!$F$11:$F$110</definedName>
-    <definedName name="A2602999J_Latest">Data1!$F$110</definedName>
-    <definedName name="A2603000J">Data1!$AX$1:$AX$10,Data1!$AX$11:$AX$110</definedName>
-    <definedName name="A2603000J_Data">Data1!$AX$11:$AX$110</definedName>
-    <definedName name="A2603000J_Latest">Data1!$AX$110</definedName>
-    <definedName name="A2603001K">Data1!$CP$1:$CP$10,Data1!$CP$11:$CP$110</definedName>
-    <definedName name="A2603001K_Data">Data1!$CP$11:$CP$110</definedName>
-    <definedName name="A2603001K_Latest">Data1!$CP$110</definedName>
-    <definedName name="A2603009C">Data1!$S$1:$S$10,Data1!$S$11:$S$110</definedName>
-    <definedName name="A2603009C_Data">Data1!$S$11:$S$110</definedName>
-    <definedName name="A2603009C_Latest">Data1!$S$110</definedName>
-    <definedName name="A2603010L">Data1!$BK$1:$BK$10,Data1!$BK$11:$BK$110</definedName>
-    <definedName name="A2603010L_Data">Data1!$BK$11:$BK$110</definedName>
-    <definedName name="A2603010L_Latest">Data1!$BK$110</definedName>
-    <definedName name="A2603011R">Data1!$DC$1:$DC$10,Data1!$DC$11:$DC$110</definedName>
-    <definedName name="A2603011R_Data">Data1!$DC$11:$DC$110</definedName>
-    <definedName name="A2603011R_Latest">Data1!$DC$110</definedName>
-    <definedName name="A2603019J">Data1!$E$1:$E$10,Data1!$E$11:$E$110</definedName>
-    <definedName name="A2603019J_Data">Data1!$E$11:$E$110</definedName>
-    <definedName name="A2603019J_Latest">Data1!$E$110</definedName>
-    <definedName name="A2603020T">Data1!$AW$1:$AW$10,Data1!$AW$11:$AW$110</definedName>
-    <definedName name="A2603020T_Data">Data1!$AW$11:$AW$110</definedName>
-    <definedName name="A2603020T_Latest">Data1!$AW$110</definedName>
-    <definedName name="A2603021V">Data1!$CO$1:$CO$10,Data1!$CO$11:$CO$110</definedName>
-    <definedName name="A2603021V_Data">Data1!$CO$11:$CO$110</definedName>
-    <definedName name="A2603021V_Latest">Data1!$CO$110</definedName>
-    <definedName name="A2603029L">Data1!$L$1:$L$10,Data1!$L$11:$L$110</definedName>
-    <definedName name="A2603029L_Data">Data1!$L$11:$L$110</definedName>
-    <definedName name="A2603029L_Latest">Data1!$L$110</definedName>
-    <definedName name="A2603030W">Data1!$BD$1:$BD$10,Data1!$BD$11:$BD$110</definedName>
-    <definedName name="A2603030W_Data">Data1!$BD$11:$BD$110</definedName>
-    <definedName name="A2603030W_Latest">Data1!$BD$110</definedName>
-    <definedName name="A2603031X">Data1!$CV$1:$CV$10,Data1!$CV$11:$CV$110</definedName>
-    <definedName name="A2603031X_Data">Data1!$CV$11:$CV$110</definedName>
-    <definedName name="A2603031X_Latest">Data1!$CV$110</definedName>
-    <definedName name="A2603039T">Data1!$T$1:$T$10,Data1!$T$11:$T$110</definedName>
-    <definedName name="A2603039T_Data">Data1!$T$11:$T$110</definedName>
-    <definedName name="A2603039T_Latest">Data1!$T$110</definedName>
-    <definedName name="A2603040A">Data1!$BL$1:$BL$10,Data1!$BL$11:$BL$110</definedName>
-    <definedName name="A2603040A_Data">Data1!$BL$11:$BL$110</definedName>
-    <definedName name="A2603040A_Latest">Data1!$BL$110</definedName>
-    <definedName name="A2603041C">Data1!$DD$1:$DD$10,Data1!$DD$11:$DD$110</definedName>
-    <definedName name="A2603041C_Data">Data1!$DD$11:$DD$110</definedName>
-    <definedName name="A2603041C_Latest">Data1!$DD$110</definedName>
-    <definedName name="A2603429X">Data1!$AQ$1:$AQ$10,Data1!$AQ$11:$AQ$110</definedName>
-    <definedName name="A2603429X_Data">Data1!$AQ$11:$AQ$110</definedName>
-    <definedName name="A2603429X_Latest">Data1!$AQ$110</definedName>
-    <definedName name="A2603430J">Data1!$CI$1:$CI$10,Data1!$CI$11:$CI$110</definedName>
-    <definedName name="A2603430J_Data">Data1!$CI$11:$CI$110</definedName>
-    <definedName name="A2603430J_Latest">Data1!$CI$110</definedName>
-    <definedName name="A2603431K">Data1!$EA$1:$EA$10,Data1!$EA$11:$EA$110</definedName>
-    <definedName name="A2603431K_Data">Data1!$EA$11:$EA$110</definedName>
-    <definedName name="A2603431K_Latest">Data1!$EA$110</definedName>
-    <definedName name="A2603439C">Data1!$AG$1:$AG$10,Data1!$AG$11:$AG$110</definedName>
-    <definedName name="A2603439C_Data">Data1!$AG$11:$AG$110</definedName>
-    <definedName name="A2603439C_Latest">Data1!$AG$110</definedName>
-    <definedName name="A2603440L">Data1!$BY$1:$BY$10,Data1!$BY$11:$BY$110</definedName>
-    <definedName name="A2603440L_Data">Data1!$BY$11:$BY$110</definedName>
-    <definedName name="A2603440L_Latest">Data1!$BY$110</definedName>
-    <definedName name="A2603441R">Data1!$DQ$1:$DQ$10,Data1!$DQ$11:$DQ$110</definedName>
-    <definedName name="A2603441R_Data">Data1!$DQ$11:$DQ$110</definedName>
-    <definedName name="A2603441R_Latest">Data1!$DQ$110</definedName>
-    <definedName name="A2603449J">Data1!$AO$1:$AO$10,Data1!$AO$11:$AO$110</definedName>
-    <definedName name="A2603449J_Data">Data1!$AO$11:$AO$110</definedName>
-    <definedName name="A2603449J_Latest">Data1!$AO$110</definedName>
-    <definedName name="A2603450T">Data1!$CG$1:$CG$10,Data1!$CG$11:$CG$110</definedName>
-    <definedName name="A2603450T_Data">Data1!$CG$11:$CG$110</definedName>
-    <definedName name="A2603450T_Latest">Data1!$CG$110</definedName>
-    <definedName name="A2603451V">Data1!$DY$1:$DY$10,Data1!$DY$11:$DY$110</definedName>
-    <definedName name="A2603451V_Data">Data1!$DY$11:$DY$110</definedName>
-    <definedName name="A2603451V_Latest">Data1!$DY$110</definedName>
-    <definedName name="A2603459L">Data1!$AJ$1:$AJ$10,Data1!$AJ$11:$AJ$110</definedName>
-    <definedName name="A2603459L_Data">Data1!$AJ$11:$AJ$110</definedName>
-    <definedName name="A2603459L_Latest">Data1!$AJ$110</definedName>
-    <definedName name="A2603460W">Data1!$CB$1:$CB$10,Data1!$CB$11:$CB$110</definedName>
-    <definedName name="A2603460W_Data">Data1!$CB$11:$CB$110</definedName>
-    <definedName name="A2603460W_Latest">Data1!$CB$110</definedName>
-    <definedName name="A2603461X">Data1!$DT$1:$DT$10,Data1!$DT$11:$DT$110</definedName>
-    <definedName name="A2603461X_Data">Data1!$DT$11:$DT$110</definedName>
-    <definedName name="A2603461X_Latest">Data1!$DT$110</definedName>
-    <definedName name="A2603469T">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$110</definedName>
-    <definedName name="A2603469T_Data">Data1!$AH$11:$AH$110</definedName>
-    <definedName name="A2603469T_Latest">Data1!$AH$110</definedName>
-    <definedName name="A2603470A">Data1!$BZ$1:$BZ$10,Data1!$BZ$11:$BZ$110</definedName>
-    <definedName name="A2603470A_Data">Data1!$BZ$11:$BZ$110</definedName>
-    <definedName name="A2603470A_Latest">Data1!$BZ$110</definedName>
-    <definedName name="A2603471C">Data1!$DR$1:$DR$10,Data1!$DR$11:$DR$110</definedName>
-    <definedName name="A2603471C_Data">Data1!$DR$11:$DR$110</definedName>
-    <definedName name="A2603471C_Latest">Data1!$DR$110</definedName>
-    <definedName name="A2603479W">Data1!$AL$1:$AL$10,Data1!$AL$11:$AL$110</definedName>
-    <definedName name="A2603479W_Data">Data1!$AL$11:$AL$110</definedName>
-    <definedName name="A2603479W_Latest">Data1!$AL$110</definedName>
-    <definedName name="A2603480F">Data1!$CD$1:$CD$10,Data1!$CD$11:$CD$110</definedName>
-    <definedName name="A2603480F_Data">Data1!$CD$11:$CD$110</definedName>
-    <definedName name="A2603480F_Latest">Data1!$CD$110</definedName>
-    <definedName name="A2603481J">Data1!$DV$1:$DV$10,Data1!$DV$11:$DV$110</definedName>
-    <definedName name="A2603481J_Data">Data1!$DV$11:$DV$110</definedName>
-    <definedName name="A2603481J_Latest">Data1!$DV$110</definedName>
-    <definedName name="A2603489A">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$110</definedName>
-    <definedName name="A2603489A_Data">Data1!$AC$11:$AC$110</definedName>
-    <definedName name="A2603489A_Latest">Data1!$AC$110</definedName>
-    <definedName name="A2603490K">Data1!$BU$1:$BU$10,Data1!$BU$11:$BU$110</definedName>
-    <definedName name="A2603490K_Data">Data1!$BU$11:$BU$110</definedName>
-    <definedName name="A2603490K_Latest">Data1!$BU$110</definedName>
-    <definedName name="A2603491L">Data1!$DM$1:$DM$10,Data1!$DM$11:$DM$110</definedName>
-    <definedName name="A2603491L_Data">Data1!$DM$11:$DM$110</definedName>
-    <definedName name="A2603491L_Latest">Data1!$DM$110</definedName>
-    <definedName name="A2603499F">Data1!$AP$1:$AP$10,Data1!$AP$11:$AP$110</definedName>
-    <definedName name="A2603499F_Data">Data1!$AP$11:$AP$110</definedName>
-    <definedName name="A2603499F_Latest">Data1!$AP$110</definedName>
-    <definedName name="A2603500C">Data1!$CH$1:$CH$10,Data1!$CH$11:$CH$110</definedName>
-    <definedName name="A2603500C_Data">Data1!$CH$11:$CH$110</definedName>
-    <definedName name="A2603500C_Latest">Data1!$CH$110</definedName>
-    <definedName name="A2603501F">Data1!$DZ$1:$DZ$10,Data1!$DZ$11:$DZ$110</definedName>
-    <definedName name="A2603501F_Data">Data1!$DZ$11:$DZ$110</definedName>
-    <definedName name="A2603501F_Latest">Data1!$DZ$110</definedName>
-    <definedName name="A2603509X">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$110</definedName>
-    <definedName name="A2603509X_Data">Data1!$AA$11:$AA$110</definedName>
-    <definedName name="A2603509X_Latest">Data1!$AA$110</definedName>
-    <definedName name="A2603510J">Data1!$BS$1:$BS$10,Data1!$BS$11:$BS$110</definedName>
-    <definedName name="A2603510J_Data">Data1!$BS$11:$BS$110</definedName>
-    <definedName name="A2603510J_Latest">Data1!$BS$110</definedName>
-    <definedName name="A2603511K">Data1!$DK$1:$DK$10,Data1!$DK$11:$DK$110</definedName>
-    <definedName name="A2603511K_Data">Data1!$DK$11:$DK$110</definedName>
-    <definedName name="A2603511K_Latest">Data1!$DK$110</definedName>
-    <definedName name="A2603519C">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$110</definedName>
-    <definedName name="A2603519C_Data">Data1!$AI$11:$AI$110</definedName>
-    <definedName name="A2603519C_Latest">Data1!$AI$110</definedName>
-    <definedName name="A2603520L">Data1!$CA$1:$CA$10,Data1!$CA$11:$CA$110</definedName>
-    <definedName name="A2603520L_Data">Data1!$CA$11:$CA$110</definedName>
-    <definedName name="A2603520L_Latest">Data1!$CA$110</definedName>
-    <definedName name="A2603521R">Data1!$DS$1:$DS$10,Data1!$DS$11:$DS$110</definedName>
-    <definedName name="A2603521R_Data">Data1!$DS$11:$DS$110</definedName>
-    <definedName name="A2603521R_Latest">Data1!$DS$110</definedName>
-    <definedName name="A2603529J">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$110</definedName>
-    <definedName name="A2603529J_Data">Data1!$AB$11:$AB$110</definedName>
-    <definedName name="A2603529J_Latest">Data1!$AB$110</definedName>
-    <definedName name="A2603530T">Data1!$BT$1:$BT$10,Data1!$BT$11:$BT$110</definedName>
-    <definedName name="A2603530T_Data">Data1!$BT$11:$BT$110</definedName>
-    <definedName name="A2603530T_Latest">Data1!$BT$110</definedName>
-    <definedName name="A2603531V">Data1!$DL$1:$DL$10,Data1!$DL$11:$DL$110</definedName>
-    <definedName name="A2603531V_Data">Data1!$DL$11:$DL$110</definedName>
-    <definedName name="A2603531V_Latest">Data1!$DL$110</definedName>
-    <definedName name="A2603539L">Data1!$AM$1:$AM$10,Data1!$AM$11:$AM$110</definedName>
-    <definedName name="A2603539L_Data">Data1!$AM$11:$AM$110</definedName>
-    <definedName name="A2603539L_Latest">Data1!$AM$110</definedName>
-    <definedName name="A2603540W">Data1!$CE$1:$CE$10,Data1!$CE$11:$CE$110</definedName>
-    <definedName name="A2603540W_Data">Data1!$CE$11:$CE$110</definedName>
-    <definedName name="A2603540W_Latest">Data1!$CE$110</definedName>
-    <definedName name="A2603541X">Data1!$DW$1:$DW$10,Data1!$DW$11:$DW$110</definedName>
-    <definedName name="A2603541X_Data">Data1!$DW$11:$DW$110</definedName>
-    <definedName name="A2603541X_Latest">Data1!$DW$110</definedName>
-    <definedName name="A2603549T">Data1!$AN$1:$AN$10,Data1!$AN$11:$AN$110</definedName>
-    <definedName name="A2603549T_Data">Data1!$AN$11:$AN$110</definedName>
-    <definedName name="A2603549T_Latest">Data1!$AN$110</definedName>
-    <definedName name="A2603550A">Data1!$CF$1:$CF$10,Data1!$CF$11:$CF$110</definedName>
-    <definedName name="A2603550A_Data">Data1!$CF$11:$CF$110</definedName>
-    <definedName name="A2603550A_Latest">Data1!$CF$110</definedName>
-    <definedName name="A2603551C">Data1!$DX$1:$DX$10,Data1!$DX$11:$DX$110</definedName>
-    <definedName name="A2603551C_Data">Data1!$DX$11:$DX$110</definedName>
-    <definedName name="A2603551C_Latest">Data1!$DX$110</definedName>
-    <definedName name="A2603559W">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$110</definedName>
-    <definedName name="A2603559W_Data">Data1!$AF$11:$AF$110</definedName>
-    <definedName name="A2603559W_Latest">Data1!$AF$110</definedName>
-    <definedName name="A2603560F">Data1!$BX$1:$BX$10,Data1!$BX$11:$BX$110</definedName>
-    <definedName name="A2603560F_Data">Data1!$BX$11:$BX$110</definedName>
-    <definedName name="A2603560F_Latest">Data1!$BX$110</definedName>
-    <definedName name="A2603561J">Data1!$DP$1:$DP$10,Data1!$DP$11:$DP$110</definedName>
-    <definedName name="A2603561J_Data">Data1!$DP$11:$DP$110</definedName>
-    <definedName name="A2603561J_Latest">Data1!$DP$110</definedName>
-    <definedName name="A2603569A">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$110</definedName>
-    <definedName name="A2603569A_Data">Data1!$AE$11:$AE$110</definedName>
-    <definedName name="A2603569A_Latest">Data1!$AE$110</definedName>
-    <definedName name="A2603570K">Data1!$BW$1:$BW$10,Data1!$BW$11:$BW$110</definedName>
-    <definedName name="A2603570K_Data">Data1!$BW$11:$BW$110</definedName>
-    <definedName name="A2603570K_Latest">Data1!$BW$110</definedName>
-    <definedName name="A2603571L">Data1!$DO$1:$DO$10,Data1!$DO$11:$DO$110</definedName>
-    <definedName name="A2603571L_Data">Data1!$DO$11:$DO$110</definedName>
-    <definedName name="A2603571L_Latest">Data1!$DO$110</definedName>
-    <definedName name="A2603579F">Data1!$AR$1:$AR$10,Data1!$AR$11:$AR$110</definedName>
-    <definedName name="A2603579F_Data">Data1!$AR$11:$AR$110</definedName>
-    <definedName name="A2603579F_Latest">Data1!$AR$110</definedName>
-    <definedName name="A2603580R">Data1!$CJ$1:$CJ$10,Data1!$CJ$11:$CJ$110</definedName>
-    <definedName name="A2603580R_Data">Data1!$CJ$11:$CJ$110</definedName>
-    <definedName name="A2603580R_Latest">Data1!$CJ$110</definedName>
-    <definedName name="A2603581T">Data1!$EB$1:$EB$10,Data1!$EB$11:$EB$110</definedName>
-    <definedName name="A2603581T_Data">Data1!$EB$11:$EB$110</definedName>
-    <definedName name="A2603581T_Latest">Data1!$EB$110</definedName>
-    <definedName name="A2603589K">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$110</definedName>
-    <definedName name="A2603589K_Data">Data1!$AD$11:$AD$110</definedName>
-    <definedName name="A2603589K_Latest">Data1!$AD$110</definedName>
-    <definedName name="A2603590V">Data1!$BV$1:$BV$10,Data1!$BV$11:$BV$110</definedName>
-    <definedName name="A2603590V_Data">Data1!$BV$11:$BV$110</definedName>
-    <definedName name="A2603590V_Latest">Data1!$BV$110</definedName>
-    <definedName name="A2603591W">Data1!$DN$1:$DN$10,Data1!$DN$11:$DN$110</definedName>
-    <definedName name="A2603591W_Data">Data1!$DN$11:$DN$110</definedName>
-    <definedName name="A2603591W_Latest">Data1!$DN$110</definedName>
-    <definedName name="A2603599R">Data1!$AK$1:$AK$10,Data1!$AK$11:$AK$110</definedName>
-    <definedName name="A2603599R_Data">Data1!$AK$11:$AK$110</definedName>
-    <definedName name="A2603599R_Latest">Data1!$AK$110</definedName>
-    <definedName name="A2603600L">Data1!$CC$1:$CC$10,Data1!$CC$11:$CC$110</definedName>
-    <definedName name="A2603600L_Data">Data1!$CC$11:$CC$110</definedName>
-    <definedName name="A2603600L_Latest">Data1!$CC$110</definedName>
-    <definedName name="A2603601R">Data1!$DU$1:$DU$10,Data1!$DU$11:$DU$110</definedName>
-    <definedName name="A2603601R_Data">Data1!$DU$11:$DU$110</definedName>
-    <definedName name="A2603601R_Latest">Data1!$DU$110</definedName>
-    <definedName name="A2603609J">Data1!$AS$1:$AS$10,Data1!$AS$11:$AS$110</definedName>
-    <definedName name="A2603609J_Data">Data1!$AS$11:$AS$110</definedName>
-    <definedName name="A2603609J_Latest">Data1!$AS$110</definedName>
-    <definedName name="A2603610T">Data1!$CK$1:$CK$10,Data1!$CK$11:$CK$110</definedName>
-    <definedName name="A2603610T_Data">Data1!$CK$11:$CK$110</definedName>
-    <definedName name="A2603610T_Latest">Data1!$CK$110</definedName>
-    <definedName name="A2603611V">Data1!$EC$1:$EC$10,Data1!$EC$11:$EC$110</definedName>
-    <definedName name="A2603611V_Data">Data1!$EC$11:$EC$110</definedName>
-    <definedName name="A2603611V_Latest">Data1!$EC$110</definedName>
-    <definedName name="A2603829K">Data1!$X$1:$X$10,Data1!$X$11:$X$110</definedName>
-    <definedName name="A2603829K_Data">Data1!$X$11:$X$110</definedName>
-    <definedName name="A2603829K_Latest">Data1!$X$110</definedName>
-    <definedName name="A2603830V">Data1!$BP$1:$BP$10,Data1!$BP$11:$BP$110</definedName>
-    <definedName name="A2603830V_Data">Data1!$BP$11:$BP$110</definedName>
-    <definedName name="A2603830V_Latest">Data1!$BP$110</definedName>
-    <definedName name="A2603831W">Data1!$DH$1:$DH$10,Data1!$DH$11:$DH$110</definedName>
-    <definedName name="A2603831W_Data">Data1!$DH$11:$DH$110</definedName>
-    <definedName name="A2603831W_Latest">Data1!$DH$110</definedName>
-    <definedName name="A2603859X">Data1!$V$1:$V$10,Data1!$V$11:$V$110</definedName>
-    <definedName name="A2603859X_Data">Data1!$V$11:$V$110</definedName>
-    <definedName name="A2603859X_Latest">Data1!$V$110</definedName>
-    <definedName name="A2603860J">Data1!$BN$1:$BN$10,Data1!$BN$11:$BN$110</definedName>
-    <definedName name="A2603860J_Data">Data1!$BN$11:$BN$110</definedName>
-    <definedName name="A2603860J_Latest">Data1!$BN$110</definedName>
-    <definedName name="A2603861K">Data1!$DF$1:$DF$10,Data1!$DF$11:$DF$110</definedName>
-    <definedName name="A2603861K_Data">Data1!$DF$11:$DF$110</definedName>
-    <definedName name="A2603861K_Latest">Data1!$DF$110</definedName>
-    <definedName name="A2603869C">Data1!$U$1:$U$10,Data1!$U$11:$U$110</definedName>
-    <definedName name="A2603869C_Data">Data1!$U$11:$U$110</definedName>
-    <definedName name="A2603869C_Latest">Data1!$U$110</definedName>
-    <definedName name="A2603870L">Data1!$BM$1:$BM$10,Data1!$BM$11:$BM$110</definedName>
-    <definedName name="A2603870L_Data">Data1!$BM$11:$BM$110</definedName>
-    <definedName name="A2603870L_Latest">Data1!$BM$110</definedName>
-    <definedName name="A2603871R">Data1!$DE$1:$DE$10,Data1!$DE$11:$DE$110</definedName>
-    <definedName name="A2603871R_Data">Data1!$DE$11:$DE$110</definedName>
-    <definedName name="A2603871R_Latest">Data1!$DE$110</definedName>
-    <definedName name="A2603879J">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$110</definedName>
-    <definedName name="A2603879J_Data">Data1!$Y$11:$Y$110</definedName>
-    <definedName name="A2603879J_Latest">Data1!$Y$110</definedName>
-    <definedName name="A2603880T">Data1!$BQ$1:$BQ$10,Data1!$BQ$11:$BQ$110</definedName>
-    <definedName name="A2603880T_Data">Data1!$BQ$11:$BQ$110</definedName>
-    <definedName name="A2603880T_Latest">Data1!$BQ$110</definedName>
-    <definedName name="A2603881V">Data1!$DI$1:$DI$10,Data1!$DI$11:$DI$110</definedName>
-    <definedName name="A2603881V_Data">Data1!$DI$11:$DI$110</definedName>
-    <definedName name="A2603881V_Latest">Data1!$DI$110</definedName>
-    <definedName name="A2603929V">Data1!$W$1:$W$10,Data1!$W$11:$W$110</definedName>
-    <definedName name="A2603929V_Data">Data1!$W$11:$W$110</definedName>
-    <definedName name="A2603929V_Latest">Data1!$W$110</definedName>
-    <definedName name="A2603930C">Data1!$BO$1:$BO$10,Data1!$BO$11:$BO$110</definedName>
-    <definedName name="A2603930C_Data">Data1!$BO$11:$BO$110</definedName>
-    <definedName name="A2603930C_Latest">Data1!$BO$110</definedName>
-    <definedName name="A2603931F">Data1!$DG$1:$DG$10,Data1!$DG$11:$DG$110</definedName>
-    <definedName name="A2603931F_Data">Data1!$DG$11:$DG$110</definedName>
-    <definedName name="A2603931F_Latest">Data1!$DG$110</definedName>
-    <definedName name="A2603989W">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$110</definedName>
-    <definedName name="A2603989W_Data">Data1!$Z$11:$Z$110</definedName>
-    <definedName name="A2603989W_Latest">Data1!$Z$110</definedName>
-    <definedName name="A2603990F">Data1!$BR$1:$BR$10,Data1!$BR$11:$BR$110</definedName>
-    <definedName name="A2603990F_Data">Data1!$BR$11:$BR$110</definedName>
-    <definedName name="A2603990F_Latest">Data1!$BR$110</definedName>
-    <definedName name="A2603991J">Data1!$DJ$1:$DJ$10,Data1!$DJ$11:$DJ$110</definedName>
-    <definedName name="A2603991J_Data">Data1!$DJ$11:$DJ$110</definedName>
-    <definedName name="A2603991J_Latest">Data1!$DJ$110</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$110</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$110</definedName>
+    <definedName name="A2602859F">Data1!$R$1:$R$10,Data1!$R$11:$R$111</definedName>
+    <definedName name="A2602859F_Data">Data1!$R$11:$R$111</definedName>
+    <definedName name="A2602859F_Latest">Data1!$R$111</definedName>
+    <definedName name="A2602860R">Data1!$BJ$1:$BJ$10,Data1!$BJ$11:$BJ$111</definedName>
+    <definedName name="A2602860R_Data">Data1!$BJ$11:$BJ$111</definedName>
+    <definedName name="A2602860R_Latest">Data1!$BJ$111</definedName>
+    <definedName name="A2602861T">Data1!$DB$1:$DB$10,Data1!$DB$11:$DB$111</definedName>
+    <definedName name="A2602861T_Data">Data1!$DB$11:$DB$111</definedName>
+    <definedName name="A2602861T_Latest">Data1!$DB$111</definedName>
+    <definedName name="A2602869K">Data1!$H$1:$H$10,Data1!$H$11:$H$111</definedName>
+    <definedName name="A2602869K_Data">Data1!$H$11:$H$111</definedName>
+    <definedName name="A2602869K_Latest">Data1!$H$111</definedName>
+    <definedName name="A2602870V">Data1!$AZ$1:$AZ$10,Data1!$AZ$11:$AZ$111</definedName>
+    <definedName name="A2602870V_Data">Data1!$AZ$11:$AZ$111</definedName>
+    <definedName name="A2602870V_Latest">Data1!$AZ$111</definedName>
+    <definedName name="A2602871W">Data1!$CR$1:$CR$10,Data1!$CR$11:$CR$111</definedName>
+    <definedName name="A2602871W_Data">Data1!$CR$11:$CR$111</definedName>
+    <definedName name="A2602871W_Latest">Data1!$CR$111</definedName>
+    <definedName name="A2602879R">Data1!$P$1:$P$10,Data1!$P$11:$P$111</definedName>
+    <definedName name="A2602879R_Data">Data1!$P$11:$P$111</definedName>
+    <definedName name="A2602879R_Latest">Data1!$P$111</definedName>
+    <definedName name="A2602880X">Data1!$BH$1:$BH$10,Data1!$BH$11:$BH$111</definedName>
+    <definedName name="A2602880X_Data">Data1!$BH$11:$BH$111</definedName>
+    <definedName name="A2602880X_Latest">Data1!$BH$111</definedName>
+    <definedName name="A2602881A">Data1!$CZ$1:$CZ$10,Data1!$CZ$11:$CZ$111</definedName>
+    <definedName name="A2602881A_Data">Data1!$CZ$11:$CZ$111</definedName>
+    <definedName name="A2602881A_Latest">Data1!$CZ$111</definedName>
+    <definedName name="A2602889V">Data1!$K$1:$K$10,Data1!$K$11:$K$111</definedName>
+    <definedName name="A2602889V_Data">Data1!$K$11:$K$111</definedName>
+    <definedName name="A2602889V_Latest">Data1!$K$111</definedName>
+    <definedName name="A2602890C">Data1!$BC$1:$BC$10,Data1!$BC$11:$BC$111</definedName>
+    <definedName name="A2602890C_Data">Data1!$BC$11:$BC$111</definedName>
+    <definedName name="A2602890C_Latest">Data1!$BC$111</definedName>
+    <definedName name="A2602891F">Data1!$CU$1:$CU$10,Data1!$CU$11:$CU$111</definedName>
+    <definedName name="A2602891F_Data">Data1!$CU$11:$CU$111</definedName>
+    <definedName name="A2602891F_Latest">Data1!$CU$111</definedName>
+    <definedName name="A2602899X">Data1!$I$1:$I$10,Data1!$I$11:$I$111</definedName>
+    <definedName name="A2602899X_Data">Data1!$I$11:$I$111</definedName>
+    <definedName name="A2602899X_Latest">Data1!$I$111</definedName>
+    <definedName name="A2602900W">Data1!$BA$1:$BA$10,Data1!$BA$11:$BA$111</definedName>
+    <definedName name="A2602900W_Data">Data1!$BA$11:$BA$111</definedName>
+    <definedName name="A2602900W_Latest">Data1!$BA$111</definedName>
+    <definedName name="A2602901X">Data1!$CS$1:$CS$10,Data1!$CS$11:$CS$111</definedName>
+    <definedName name="A2602901X_Data">Data1!$CS$11:$CS$111</definedName>
+    <definedName name="A2602901X_Latest">Data1!$CS$111</definedName>
+    <definedName name="A2602909T">Data1!$M$1:$M$10,Data1!$M$11:$M$111</definedName>
+    <definedName name="A2602909T_Data">Data1!$M$11:$M$111</definedName>
+    <definedName name="A2602909T_Latest">Data1!$M$111</definedName>
+    <definedName name="A2602910A">Data1!$BE$1:$BE$10,Data1!$BE$11:$BE$111</definedName>
+    <definedName name="A2602910A_Data">Data1!$BE$11:$BE$111</definedName>
+    <definedName name="A2602910A_Latest">Data1!$BE$111</definedName>
+    <definedName name="A2602911C">Data1!$CW$1:$CW$10,Data1!$CW$11:$CW$111</definedName>
+    <definedName name="A2602911C_Data">Data1!$CW$11:$CW$111</definedName>
+    <definedName name="A2602911C_Latest">Data1!$CW$111</definedName>
+    <definedName name="A2602919W">Data1!$D$1:$D$10,Data1!$D$11:$D$111</definedName>
+    <definedName name="A2602919W_Data">Data1!$D$11:$D$111</definedName>
+    <definedName name="A2602919W_Latest">Data1!$D$111</definedName>
+    <definedName name="A2602920F">Data1!$AV$1:$AV$10,Data1!$AV$11:$AV$111</definedName>
+    <definedName name="A2602920F_Data">Data1!$AV$11:$AV$111</definedName>
+    <definedName name="A2602920F_Latest">Data1!$AV$111</definedName>
+    <definedName name="A2602921J">Data1!$CN$1:$CN$10,Data1!$CN$11:$CN$111</definedName>
+    <definedName name="A2602921J_Data">Data1!$CN$11:$CN$111</definedName>
+    <definedName name="A2602921J_Latest">Data1!$CN$111</definedName>
+    <definedName name="A2602929A">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$111</definedName>
+    <definedName name="A2602929A_Data">Data1!$Q$11:$Q$111</definedName>
+    <definedName name="A2602929A_Latest">Data1!$Q$111</definedName>
+    <definedName name="A2602930K">Data1!$BI$1:$BI$10,Data1!$BI$11:$BI$111</definedName>
+    <definedName name="A2602930K_Data">Data1!$BI$11:$BI$111</definedName>
+    <definedName name="A2602930K_Latest">Data1!$BI$111</definedName>
+    <definedName name="A2602931L">Data1!$DA$1:$DA$10,Data1!$DA$11:$DA$111</definedName>
+    <definedName name="A2602931L_Data">Data1!$DA$11:$DA$111</definedName>
+    <definedName name="A2602931L_Latest">Data1!$DA$111</definedName>
+    <definedName name="A2602939F">Data1!$B$1:$B$10,Data1!$B$11:$B$111</definedName>
+    <definedName name="A2602939F_Data">Data1!$B$11:$B$111</definedName>
+    <definedName name="A2602939F_Latest">Data1!$B$111</definedName>
+    <definedName name="A2602940R">Data1!$AT$1:$AT$10,Data1!$AT$11:$AT$111</definedName>
+    <definedName name="A2602940R_Data">Data1!$AT$11:$AT$111</definedName>
+    <definedName name="A2602940R_Latest">Data1!$AT$111</definedName>
+    <definedName name="A2602941T">Data1!$CL$1:$CL$10,Data1!$CL$11:$CL$111</definedName>
+    <definedName name="A2602941T_Data">Data1!$CL$11:$CL$111</definedName>
+    <definedName name="A2602941T_Latest">Data1!$CL$111</definedName>
+    <definedName name="A2602949K">Data1!$J$1:$J$10,Data1!$J$11:$J$111</definedName>
+    <definedName name="A2602949K_Data">Data1!$J$11:$J$111</definedName>
+    <definedName name="A2602949K_Latest">Data1!$J$111</definedName>
+    <definedName name="A2602950V">Data1!$BB$1:$BB$10,Data1!$BB$11:$BB$111</definedName>
+    <definedName name="A2602950V_Data">Data1!$BB$11:$BB$111</definedName>
+    <definedName name="A2602950V_Latest">Data1!$BB$111</definedName>
+    <definedName name="A2602951W">Data1!$CT$1:$CT$10,Data1!$CT$11:$CT$111</definedName>
+    <definedName name="A2602951W_Data">Data1!$CT$11:$CT$111</definedName>
+    <definedName name="A2602951W_Latest">Data1!$CT$111</definedName>
+    <definedName name="A2602959R">Data1!$C$1:$C$10,Data1!$C$11:$C$111</definedName>
+    <definedName name="A2602959R_Data">Data1!$C$11:$C$111</definedName>
+    <definedName name="A2602959R_Latest">Data1!$C$111</definedName>
+    <definedName name="A2602960X">Data1!$AU$1:$AU$10,Data1!$AU$11:$AU$111</definedName>
+    <definedName name="A2602960X_Data">Data1!$AU$11:$AU$111</definedName>
+    <definedName name="A2602960X_Latest">Data1!$AU$111</definedName>
+    <definedName name="A2602961A">Data1!$CM$1:$CM$10,Data1!$CM$11:$CM$111</definedName>
+    <definedName name="A2602961A_Data">Data1!$CM$11:$CM$111</definedName>
+    <definedName name="A2602961A_Latest">Data1!$CM$111</definedName>
+    <definedName name="A2602969V">Data1!$N$1:$N$10,Data1!$N$11:$N$111</definedName>
+    <definedName name="A2602969V_Data">Data1!$N$11:$N$111</definedName>
+    <definedName name="A2602969V_Latest">Data1!$N$111</definedName>
+    <definedName name="A2602970C">Data1!$BF$1:$BF$10,Data1!$BF$11:$BF$111</definedName>
+    <definedName name="A2602970C_Data">Data1!$BF$11:$BF$111</definedName>
+    <definedName name="A2602970C_Latest">Data1!$BF$111</definedName>
+    <definedName name="A2602971F">Data1!$CX$1:$CX$10,Data1!$CX$11:$CX$111</definedName>
+    <definedName name="A2602971F_Data">Data1!$CX$11:$CX$111</definedName>
+    <definedName name="A2602971F_Latest">Data1!$CX$111</definedName>
+    <definedName name="A2602979X">Data1!$O$1:$O$10,Data1!$O$11:$O$111</definedName>
+    <definedName name="A2602979X_Data">Data1!$O$11:$O$111</definedName>
+    <definedName name="A2602979X_Latest">Data1!$O$111</definedName>
+    <definedName name="A2602980J">Data1!$BG$1:$BG$10,Data1!$BG$11:$BG$111</definedName>
+    <definedName name="A2602980J_Data">Data1!$BG$11:$BG$111</definedName>
+    <definedName name="A2602980J_Latest">Data1!$BG$111</definedName>
+    <definedName name="A2602981K">Data1!$CY$1:$CY$10,Data1!$CY$11:$CY$111</definedName>
+    <definedName name="A2602981K_Data">Data1!$CY$11:$CY$111</definedName>
+    <definedName name="A2602981K_Latest">Data1!$CY$111</definedName>
+    <definedName name="A2602989C">Data1!$G$1:$G$10,Data1!$G$11:$G$111</definedName>
+    <definedName name="A2602989C_Data">Data1!$G$11:$G$111</definedName>
+    <definedName name="A2602989C_Latest">Data1!$G$111</definedName>
+    <definedName name="A2602990L">Data1!$AY$1:$AY$10,Data1!$AY$11:$AY$111</definedName>
+    <definedName name="A2602990L_Data">Data1!$AY$11:$AY$111</definedName>
+    <definedName name="A2602990L_Latest">Data1!$AY$111</definedName>
+    <definedName name="A2602991R">Data1!$CQ$1:$CQ$10,Data1!$CQ$11:$CQ$111</definedName>
+    <definedName name="A2602991R_Data">Data1!$CQ$11:$CQ$111</definedName>
+    <definedName name="A2602991R_Latest">Data1!$CQ$111</definedName>
+    <definedName name="A2602999J">Data1!$F$1:$F$10,Data1!$F$11:$F$111</definedName>
+    <definedName name="A2602999J_Data">Data1!$F$11:$F$111</definedName>
+    <definedName name="A2602999J_Latest">Data1!$F$111</definedName>
+    <definedName name="A2603000J">Data1!$AX$1:$AX$10,Data1!$AX$11:$AX$111</definedName>
+    <definedName name="A2603000J_Data">Data1!$AX$11:$AX$111</definedName>
+    <definedName name="A2603000J_Latest">Data1!$AX$111</definedName>
+    <definedName name="A2603001K">Data1!$CP$1:$CP$10,Data1!$CP$11:$CP$111</definedName>
+    <definedName name="A2603001K_Data">Data1!$CP$11:$CP$111</definedName>
+    <definedName name="A2603001K_Latest">Data1!$CP$111</definedName>
+    <definedName name="A2603009C">Data1!$S$1:$S$10,Data1!$S$11:$S$111</definedName>
+    <definedName name="A2603009C_Data">Data1!$S$11:$S$111</definedName>
+    <definedName name="A2603009C_Latest">Data1!$S$111</definedName>
+    <definedName name="A2603010L">Data1!$BK$1:$BK$10,Data1!$BK$11:$BK$111</definedName>
+    <definedName name="A2603010L_Data">Data1!$BK$11:$BK$111</definedName>
+    <definedName name="A2603010L_Latest">Data1!$BK$111</definedName>
+    <definedName name="A2603011R">Data1!$DC$1:$DC$10,Data1!$DC$11:$DC$111</definedName>
+    <definedName name="A2603011R_Data">Data1!$DC$11:$DC$111</definedName>
+    <definedName name="A2603011R_Latest">Data1!$DC$111</definedName>
+    <definedName name="A2603019J">Data1!$E$1:$E$10,Data1!$E$11:$E$111</definedName>
+    <definedName name="A2603019J_Data">Data1!$E$11:$E$111</definedName>
+    <definedName name="A2603019J_Latest">Data1!$E$111</definedName>
+    <definedName name="A2603020T">Data1!$AW$1:$AW$10,Data1!$AW$11:$AW$111</definedName>
+    <definedName name="A2603020T_Data">Data1!$AW$11:$AW$111</definedName>
+    <definedName name="A2603020T_Latest">Data1!$AW$111</definedName>
+    <definedName name="A2603021V">Data1!$CO$1:$CO$10,Data1!$CO$11:$CO$111</definedName>
+    <definedName name="A2603021V_Data">Data1!$CO$11:$CO$111</definedName>
+    <definedName name="A2603021V_Latest">Data1!$CO$111</definedName>
+    <definedName name="A2603029L">Data1!$L$1:$L$10,Data1!$L$11:$L$111</definedName>
+    <definedName name="A2603029L_Data">Data1!$L$11:$L$111</definedName>
+    <definedName name="A2603029L_Latest">Data1!$L$111</definedName>
+    <definedName name="A2603030W">Data1!$BD$1:$BD$10,Data1!$BD$11:$BD$111</definedName>
+    <definedName name="A2603030W_Data">Data1!$BD$11:$BD$111</definedName>
+    <definedName name="A2603030W_Latest">Data1!$BD$111</definedName>
+    <definedName name="A2603031X">Data1!$CV$1:$CV$10,Data1!$CV$11:$CV$111</definedName>
+    <definedName name="A2603031X_Data">Data1!$CV$11:$CV$111</definedName>
+    <definedName name="A2603031X_Latest">Data1!$CV$111</definedName>
+    <definedName name="A2603039T">Data1!$T$1:$T$10,Data1!$T$11:$T$111</definedName>
+    <definedName name="A2603039T_Data">Data1!$T$11:$T$111</definedName>
+    <definedName name="A2603039T_Latest">Data1!$T$111</definedName>
+    <definedName name="A2603040A">Data1!$BL$1:$BL$10,Data1!$BL$11:$BL$111</definedName>
+    <definedName name="A2603040A_Data">Data1!$BL$11:$BL$111</definedName>
+    <definedName name="A2603040A_Latest">Data1!$BL$111</definedName>
+    <definedName name="A2603041C">Data1!$DD$1:$DD$10,Data1!$DD$11:$DD$111</definedName>
+    <definedName name="A2603041C_Data">Data1!$DD$11:$DD$111</definedName>
+    <definedName name="A2603041C_Latest">Data1!$DD$111</definedName>
+    <definedName name="A2603429X">Data1!$AQ$1:$AQ$10,Data1!$AQ$11:$AQ$111</definedName>
+    <definedName name="A2603429X_Data">Data1!$AQ$11:$AQ$111</definedName>
+    <definedName name="A2603429X_Latest">Data1!$AQ$111</definedName>
+    <definedName name="A2603430J">Data1!$CI$1:$CI$10,Data1!$CI$11:$CI$111</definedName>
+    <definedName name="A2603430J_Data">Data1!$CI$11:$CI$111</definedName>
+    <definedName name="A2603430J_Latest">Data1!$CI$111</definedName>
+    <definedName name="A2603431K">Data1!$EA$1:$EA$10,Data1!$EA$11:$EA$111</definedName>
+    <definedName name="A2603431K_Data">Data1!$EA$11:$EA$111</definedName>
+    <definedName name="A2603431K_Latest">Data1!$EA$111</definedName>
+    <definedName name="A2603439C">Data1!$AG$1:$AG$10,Data1!$AG$11:$AG$111</definedName>
+    <definedName name="A2603439C_Data">Data1!$AG$11:$AG$111</definedName>
+    <definedName name="A2603439C_Latest">Data1!$AG$111</definedName>
+    <definedName name="A2603440L">Data1!$BY$1:$BY$10,Data1!$BY$11:$BY$111</definedName>
+    <definedName name="A2603440L_Data">Data1!$BY$11:$BY$111</definedName>
+    <definedName name="A2603440L_Latest">Data1!$BY$111</definedName>
+    <definedName name="A2603441R">Data1!$DQ$1:$DQ$10,Data1!$DQ$11:$DQ$111</definedName>
+    <definedName name="A2603441R_Data">Data1!$DQ$11:$DQ$111</definedName>
+    <definedName name="A2603441R_Latest">Data1!$DQ$111</definedName>
+    <definedName name="A2603449J">Data1!$AO$1:$AO$10,Data1!$AO$11:$AO$111</definedName>
+    <definedName name="A2603449J_Data">Data1!$AO$11:$AO$111</definedName>
+    <definedName name="A2603449J_Latest">Data1!$AO$111</definedName>
+    <definedName name="A2603450T">Data1!$CG$1:$CG$10,Data1!$CG$11:$CG$111</definedName>
+    <definedName name="A2603450T_Data">Data1!$CG$11:$CG$111</definedName>
+    <definedName name="A2603450T_Latest">Data1!$CG$111</definedName>
+    <definedName name="A2603451V">Data1!$DY$1:$DY$10,Data1!$DY$11:$DY$111</definedName>
+    <definedName name="A2603451V_Data">Data1!$DY$11:$DY$111</definedName>
+    <definedName name="A2603451V_Latest">Data1!$DY$111</definedName>
+    <definedName name="A2603459L">Data1!$AJ$1:$AJ$10,Data1!$AJ$11:$AJ$111</definedName>
+    <definedName name="A2603459L_Data">Data1!$AJ$11:$AJ$111</definedName>
+    <definedName name="A2603459L_Latest">Data1!$AJ$111</definedName>
+    <definedName name="A2603460W">Data1!$CB$1:$CB$10,Data1!$CB$11:$CB$111</definedName>
+    <definedName name="A2603460W_Data">Data1!$CB$11:$CB$111</definedName>
+    <definedName name="A2603460W_Latest">Data1!$CB$111</definedName>
+    <definedName name="A2603461X">Data1!$DT$1:$DT$10,Data1!$DT$11:$DT$111</definedName>
+    <definedName name="A2603461X_Data">Data1!$DT$11:$DT$111</definedName>
+    <definedName name="A2603461X_Latest">Data1!$DT$111</definedName>
+    <definedName name="A2603469T">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$111</definedName>
+    <definedName name="A2603469T_Data">Data1!$AH$11:$AH$111</definedName>
+    <definedName name="A2603469T_Latest">Data1!$AH$111</definedName>
+    <definedName name="A2603470A">Data1!$BZ$1:$BZ$10,Data1!$BZ$11:$BZ$111</definedName>
+    <definedName name="A2603470A_Data">Data1!$BZ$11:$BZ$111</definedName>
+    <definedName name="A2603470A_Latest">Data1!$BZ$111</definedName>
+    <definedName name="A2603471C">Data1!$DR$1:$DR$10,Data1!$DR$11:$DR$111</definedName>
+    <definedName name="A2603471C_Data">Data1!$DR$11:$DR$111</definedName>
+    <definedName name="A2603471C_Latest">Data1!$DR$111</definedName>
+    <definedName name="A2603479W">Data1!$AL$1:$AL$10,Data1!$AL$11:$AL$111</definedName>
+    <definedName name="A2603479W_Data">Data1!$AL$11:$AL$111</definedName>
+    <definedName name="A2603479W_Latest">Data1!$AL$111</definedName>
+    <definedName name="A2603480F">Data1!$CD$1:$CD$10,Data1!$CD$11:$CD$111</definedName>
+    <definedName name="A2603480F_Data">Data1!$CD$11:$CD$111</definedName>
+    <definedName name="A2603480F_Latest">Data1!$CD$111</definedName>
+    <definedName name="A2603481J">Data1!$DV$1:$DV$10,Data1!$DV$11:$DV$111</definedName>
+    <definedName name="A2603481J_Data">Data1!$DV$11:$DV$111</definedName>
+    <definedName name="A2603481J_Latest">Data1!$DV$111</definedName>
+    <definedName name="A2603489A">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$111</definedName>
+    <definedName name="A2603489A_Data">Data1!$AC$11:$AC$111</definedName>
+    <definedName name="A2603489A_Latest">Data1!$AC$111</definedName>
+    <definedName name="A2603490K">Data1!$BU$1:$BU$10,Data1!$BU$11:$BU$111</definedName>
+    <definedName name="A2603490K_Data">Data1!$BU$11:$BU$111</definedName>
+    <definedName name="A2603490K_Latest">Data1!$BU$111</definedName>
+    <definedName name="A2603491L">Data1!$DM$1:$DM$10,Data1!$DM$11:$DM$111</definedName>
+    <definedName name="A2603491L_Data">Data1!$DM$11:$DM$111</definedName>
+    <definedName name="A2603491L_Latest">Data1!$DM$111</definedName>
+    <definedName name="A2603499F">Data1!$AP$1:$AP$10,Data1!$AP$11:$AP$111</definedName>
+    <definedName name="A2603499F_Data">Data1!$AP$11:$AP$111</definedName>
+    <definedName name="A2603499F_Latest">Data1!$AP$111</definedName>
+    <definedName name="A2603500C">Data1!$CH$1:$CH$10,Data1!$CH$11:$CH$111</definedName>
+    <definedName name="A2603500C_Data">Data1!$CH$11:$CH$111</definedName>
+    <definedName name="A2603500C_Latest">Data1!$CH$111</definedName>
+    <definedName name="A2603501F">Data1!$DZ$1:$DZ$10,Data1!$DZ$11:$DZ$111</definedName>
+    <definedName name="A2603501F_Data">Data1!$DZ$11:$DZ$111</definedName>
+    <definedName name="A2603501F_Latest">Data1!$DZ$111</definedName>
+    <definedName name="A2603509X">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$111</definedName>
+    <definedName name="A2603509X_Data">Data1!$AA$11:$AA$111</definedName>
+    <definedName name="A2603509X_Latest">Data1!$AA$111</definedName>
+    <definedName name="A2603510J">Data1!$BS$1:$BS$10,Data1!$BS$11:$BS$111</definedName>
+    <definedName name="A2603510J_Data">Data1!$BS$11:$BS$111</definedName>
+    <definedName name="A2603510J_Latest">Data1!$BS$111</definedName>
+    <definedName name="A2603511K">Data1!$DK$1:$DK$10,Data1!$DK$11:$DK$111</definedName>
+    <definedName name="A2603511K_Data">Data1!$DK$11:$DK$111</definedName>
+    <definedName name="A2603511K_Latest">Data1!$DK$111</definedName>
+    <definedName name="A2603519C">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$111</definedName>
+    <definedName name="A2603519C_Data">Data1!$AI$11:$AI$111</definedName>
+    <definedName name="A2603519C_Latest">Data1!$AI$111</definedName>
+    <definedName name="A2603520L">Data1!$CA$1:$CA$10,Data1!$CA$11:$CA$111</definedName>
+    <definedName name="A2603520L_Data">Data1!$CA$11:$CA$111</definedName>
+    <definedName name="A2603520L_Latest">Data1!$CA$111</definedName>
+    <definedName name="A2603521R">Data1!$DS$1:$DS$10,Data1!$DS$11:$DS$111</definedName>
+    <definedName name="A2603521R_Data">Data1!$DS$11:$DS$111</definedName>
+    <definedName name="A2603521R_Latest">Data1!$DS$111</definedName>
+    <definedName name="A2603529J">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$111</definedName>
+    <definedName name="A2603529J_Data">Data1!$AB$11:$AB$111</definedName>
+    <definedName name="A2603529J_Latest">Data1!$AB$111</definedName>
+    <definedName name="A2603530T">Data1!$BT$1:$BT$10,Data1!$BT$11:$BT$111</definedName>
+    <definedName name="A2603530T_Data">Data1!$BT$11:$BT$111</definedName>
+    <definedName name="A2603530T_Latest">Data1!$BT$111</definedName>
+    <definedName name="A2603531V">Data1!$DL$1:$DL$10,Data1!$DL$11:$DL$111</definedName>
+    <definedName name="A2603531V_Data">Data1!$DL$11:$DL$111</definedName>
+    <definedName name="A2603531V_Latest">Data1!$DL$111</definedName>
+    <definedName name="A2603539L">Data1!$AM$1:$AM$10,Data1!$AM$11:$AM$111</definedName>
+    <definedName name="A2603539L_Data">Data1!$AM$11:$AM$111</definedName>
+    <definedName name="A2603539L_Latest">Data1!$AM$111</definedName>
+    <definedName name="A2603540W">Data1!$CE$1:$CE$10,Data1!$CE$11:$CE$111</definedName>
+    <definedName name="A2603540W_Data">Data1!$CE$11:$CE$111</definedName>
+    <definedName name="A2603540W_Latest">Data1!$CE$111</definedName>
+    <definedName name="A2603541X">Data1!$DW$1:$DW$10,Data1!$DW$11:$DW$111</definedName>
+    <definedName name="A2603541X_Data">Data1!$DW$11:$DW$111</definedName>
+    <definedName name="A2603541X_Latest">Data1!$DW$111</definedName>
+    <definedName name="A2603549T">Data1!$AN$1:$AN$10,Data1!$AN$11:$AN$111</definedName>
+    <definedName name="A2603549T_Data">Data1!$AN$11:$AN$111</definedName>
+    <definedName name="A2603549T_Latest">Data1!$AN$111</definedName>
+    <definedName name="A2603550A">Data1!$CF$1:$CF$10,Data1!$CF$11:$CF$111</definedName>
+    <definedName name="A2603550A_Data">Data1!$CF$11:$CF$111</definedName>
+    <definedName name="A2603550A_Latest">Data1!$CF$111</definedName>
+    <definedName name="A2603551C">Data1!$DX$1:$DX$10,Data1!$DX$11:$DX$111</definedName>
+    <definedName name="A2603551C_Data">Data1!$DX$11:$DX$111</definedName>
+    <definedName name="A2603551C_Latest">Data1!$DX$111</definedName>
+    <definedName name="A2603559W">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$111</definedName>
+    <definedName name="A2603559W_Data">Data1!$AF$11:$AF$111</definedName>
+    <definedName name="A2603559W_Latest">Data1!$AF$111</definedName>
+    <definedName name="A2603560F">Data1!$BX$1:$BX$10,Data1!$BX$11:$BX$111</definedName>
+    <definedName name="A2603560F_Data">Data1!$BX$11:$BX$111</definedName>
+    <definedName name="A2603560F_Latest">Data1!$BX$111</definedName>
+    <definedName name="A2603561J">Data1!$DP$1:$DP$10,Data1!$DP$11:$DP$111</definedName>
+    <definedName name="A2603561J_Data">Data1!$DP$11:$DP$111</definedName>
+    <definedName name="A2603561J_Latest">Data1!$DP$111</definedName>
+    <definedName name="A2603569A">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$111</definedName>
+    <definedName name="A2603569A_Data">Data1!$AE$11:$AE$111</definedName>
+    <definedName name="A2603569A_Latest">Data1!$AE$111</definedName>
+    <definedName name="A2603570K">Data1!$BW$1:$BW$10,Data1!$BW$11:$BW$111</definedName>
+    <definedName name="A2603570K_Data">Data1!$BW$11:$BW$111</definedName>
+    <definedName name="A2603570K_Latest">Data1!$BW$111</definedName>
+    <definedName name="A2603571L">Data1!$DO$1:$DO$10,Data1!$DO$11:$DO$111</definedName>
+    <definedName name="A2603571L_Data">Data1!$DO$11:$DO$111</definedName>
+    <definedName name="A2603571L_Latest">Data1!$DO$111</definedName>
+    <definedName name="A2603579F">Data1!$AR$1:$AR$10,Data1!$AR$11:$AR$111</definedName>
+    <definedName name="A2603579F_Data">Data1!$AR$11:$AR$111</definedName>
+    <definedName name="A2603579F_Latest">Data1!$AR$111</definedName>
+    <definedName name="A2603580R">Data1!$CJ$1:$CJ$10,Data1!$CJ$11:$CJ$111</definedName>
+    <definedName name="A2603580R_Data">Data1!$CJ$11:$CJ$111</definedName>
+    <definedName name="A2603580R_Latest">Data1!$CJ$111</definedName>
+    <definedName name="A2603581T">Data1!$EB$1:$EB$10,Data1!$EB$11:$EB$111</definedName>
+    <definedName name="A2603581T_Data">Data1!$EB$11:$EB$111</definedName>
+    <definedName name="A2603581T_Latest">Data1!$EB$111</definedName>
+    <definedName name="A2603589K">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$111</definedName>
+    <definedName name="A2603589K_Data">Data1!$AD$11:$AD$111</definedName>
+    <definedName name="A2603589K_Latest">Data1!$AD$111</definedName>
+    <definedName name="A2603590V">Data1!$BV$1:$BV$10,Data1!$BV$11:$BV$111</definedName>
+    <definedName name="A2603590V_Data">Data1!$BV$11:$BV$111</definedName>
+    <definedName name="A2603590V_Latest">Data1!$BV$111</definedName>
+    <definedName name="A2603591W">Data1!$DN$1:$DN$10,Data1!$DN$11:$DN$111</definedName>
+    <definedName name="A2603591W_Data">Data1!$DN$11:$DN$111</definedName>
+    <definedName name="A2603591W_Latest">Data1!$DN$111</definedName>
+    <definedName name="A2603599R">Data1!$AK$1:$AK$10,Data1!$AK$11:$AK$111</definedName>
+    <definedName name="A2603599R_Data">Data1!$AK$11:$AK$111</definedName>
+    <definedName name="A2603599R_Latest">Data1!$AK$111</definedName>
+    <definedName name="A2603600L">Data1!$CC$1:$CC$10,Data1!$CC$11:$CC$111</definedName>
+    <definedName name="A2603600L_Data">Data1!$CC$11:$CC$111</definedName>
+    <definedName name="A2603600L_Latest">Data1!$CC$111</definedName>
+    <definedName name="A2603601R">Data1!$DU$1:$DU$10,Data1!$DU$11:$DU$111</definedName>
+    <definedName name="A2603601R_Data">Data1!$DU$11:$DU$111</definedName>
+    <definedName name="A2603601R_Latest">Data1!$DU$111</definedName>
+    <definedName name="A2603609J">Data1!$AS$1:$AS$10,Data1!$AS$11:$AS$111</definedName>
+    <definedName name="A2603609J_Data">Data1!$AS$11:$AS$111</definedName>
+    <definedName name="A2603609J_Latest">Data1!$AS$111</definedName>
+    <definedName name="A2603610T">Data1!$CK$1:$CK$10,Data1!$CK$11:$CK$111</definedName>
+    <definedName name="A2603610T_Data">Data1!$CK$11:$CK$111</definedName>
+    <definedName name="A2603610T_Latest">Data1!$CK$111</definedName>
+    <definedName name="A2603611V">Data1!$EC$1:$EC$10,Data1!$EC$11:$EC$111</definedName>
+    <definedName name="A2603611V_Data">Data1!$EC$11:$EC$111</definedName>
+    <definedName name="A2603611V_Latest">Data1!$EC$111</definedName>
+    <definedName name="A2603829K">Data1!$X$1:$X$10,Data1!$X$11:$X$111</definedName>
+    <definedName name="A2603829K_Data">Data1!$X$11:$X$111</definedName>
+    <definedName name="A2603829K_Latest">Data1!$X$111</definedName>
+    <definedName name="A2603830V">Data1!$BP$1:$BP$10,Data1!$BP$11:$BP$111</definedName>
+    <definedName name="A2603830V_Data">Data1!$BP$11:$BP$111</definedName>
+    <definedName name="A2603830V_Latest">Data1!$BP$111</definedName>
+    <definedName name="A2603831W">Data1!$DH$1:$DH$10,Data1!$DH$11:$DH$111</definedName>
+    <definedName name="A2603831W_Data">Data1!$DH$11:$DH$111</definedName>
+    <definedName name="A2603831W_Latest">Data1!$DH$111</definedName>
+    <definedName name="A2603859X">Data1!$V$1:$V$10,Data1!$V$11:$V$111</definedName>
+    <definedName name="A2603859X_Data">Data1!$V$11:$V$111</definedName>
+    <definedName name="A2603859X_Latest">Data1!$V$111</definedName>
+    <definedName name="A2603860J">Data1!$BN$1:$BN$10,Data1!$BN$11:$BN$111</definedName>
+    <definedName name="A2603860J_Data">Data1!$BN$11:$BN$111</definedName>
+    <definedName name="A2603860J_Latest">Data1!$BN$111</definedName>
+    <definedName name="A2603861K">Data1!$DF$1:$DF$10,Data1!$DF$11:$DF$111</definedName>
+    <definedName name="A2603861K_Data">Data1!$DF$11:$DF$111</definedName>
+    <definedName name="A2603861K_Latest">Data1!$DF$111</definedName>
+    <definedName name="A2603869C">Data1!$U$1:$U$10,Data1!$U$11:$U$111</definedName>
+    <definedName name="A2603869C_Data">Data1!$U$11:$U$111</definedName>
+    <definedName name="A2603869C_Latest">Data1!$U$111</definedName>
+    <definedName name="A2603870L">Data1!$BM$1:$BM$10,Data1!$BM$11:$BM$111</definedName>
+    <definedName name="A2603870L_Data">Data1!$BM$11:$BM$111</definedName>
+    <definedName name="A2603870L_Latest">Data1!$BM$111</definedName>
+    <definedName name="A2603871R">Data1!$DE$1:$DE$10,Data1!$DE$11:$DE$111</definedName>
+    <definedName name="A2603871R_Data">Data1!$DE$11:$DE$111</definedName>
+    <definedName name="A2603871R_Latest">Data1!$DE$111</definedName>
+    <definedName name="A2603879J">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$111</definedName>
+    <definedName name="A2603879J_Data">Data1!$Y$11:$Y$111</definedName>
+    <definedName name="A2603879J_Latest">Data1!$Y$111</definedName>
+    <definedName name="A2603880T">Data1!$BQ$1:$BQ$10,Data1!$BQ$11:$BQ$111</definedName>
+    <definedName name="A2603880T_Data">Data1!$BQ$11:$BQ$111</definedName>
+    <definedName name="A2603880T_Latest">Data1!$BQ$111</definedName>
+    <definedName name="A2603881V">Data1!$DI$1:$DI$10,Data1!$DI$11:$DI$111</definedName>
+    <definedName name="A2603881V_Data">Data1!$DI$11:$DI$111</definedName>
+    <definedName name="A2603881V_Latest">Data1!$DI$111</definedName>
+    <definedName name="A2603929V">Data1!$W$1:$W$10,Data1!$W$11:$W$111</definedName>
+    <definedName name="A2603929V_Data">Data1!$W$11:$W$111</definedName>
+    <definedName name="A2603929V_Latest">Data1!$W$111</definedName>
+    <definedName name="A2603930C">Data1!$BO$1:$BO$10,Data1!$BO$11:$BO$111</definedName>
+    <definedName name="A2603930C_Data">Data1!$BO$11:$BO$111</definedName>
+    <definedName name="A2603930C_Latest">Data1!$BO$111</definedName>
+    <definedName name="A2603931F">Data1!$DG$1:$DG$10,Data1!$DG$11:$DG$111</definedName>
+    <definedName name="A2603931F_Data">Data1!$DG$11:$DG$111</definedName>
+    <definedName name="A2603931F_Latest">Data1!$DG$111</definedName>
+    <definedName name="A2603989W">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$111</definedName>
+    <definedName name="A2603989W_Data">Data1!$Z$11:$Z$111</definedName>
+    <definedName name="A2603989W_Latest">Data1!$Z$111</definedName>
+    <definedName name="A2603990F">Data1!$BR$1:$BR$10,Data1!$BR$11:$BR$111</definedName>
+    <definedName name="A2603990F_Data">Data1!$BR$11:$BR$111</definedName>
+    <definedName name="A2603990F_Latest">Data1!$BR$111</definedName>
+    <definedName name="A2603991J">Data1!$DJ$1:$DJ$10,Data1!$DJ$11:$DJ$111</definedName>
+    <definedName name="A2603991J_Data">Data1!$DJ$11:$DJ$111</definedName>
+    <definedName name="A2603991J_Latest">Data1!$DJ$111</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$111</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$111</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -8328,10 +8328,10 @@
         <v>35674</v>
       </c>
       <c r="G12" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H12" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>141</v>
@@ -8360,10 +8360,10 @@
         <v>35674</v>
       </c>
       <c r="G13" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H13" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>141</v>
@@ -8392,10 +8392,10 @@
         <v>35674</v>
       </c>
       <c r="G14" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H14" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>141</v>
@@ -8424,10 +8424,10 @@
         <v>35674</v>
       </c>
       <c r="G15" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H15" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>141</v>
@@ -8456,10 +8456,10 @@
         <v>35674</v>
       </c>
       <c r="G16" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H16" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>141</v>
@@ -8488,10 +8488,10 @@
         <v>35674</v>
       </c>
       <c r="G17" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H17" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>141</v>
@@ -8520,10 +8520,10 @@
         <v>35674</v>
       </c>
       <c r="G18" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H18" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>141</v>
@@ -8552,10 +8552,10 @@
         <v>35674</v>
       </c>
       <c r="G19" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H19" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>141</v>
@@ -8584,10 +8584,10 @@
         <v>35674</v>
       </c>
       <c r="G20" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H20" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>141</v>
@@ -8616,10 +8616,10 @@
         <v>35674</v>
       </c>
       <c r="G21" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H21" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>141</v>
@@ -8648,10 +8648,10 @@
         <v>35674</v>
       </c>
       <c r="G22" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H22" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>141</v>
@@ -8680,10 +8680,10 @@
         <v>35674</v>
       </c>
       <c r="G23" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H23" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>141</v>
@@ -8712,10 +8712,10 @@
         <v>35674</v>
       </c>
       <c r="G24" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H24" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>141</v>
@@ -8744,10 +8744,10 @@
         <v>35674</v>
       </c>
       <c r="G25" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H25" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>141</v>
@@ -8776,10 +8776,10 @@
         <v>35674</v>
       </c>
       <c r="G26" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H26" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>141</v>
@@ -8808,10 +8808,10 @@
         <v>35674</v>
       </c>
       <c r="G27" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H27" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>141</v>
@@ -8840,10 +8840,10 @@
         <v>35674</v>
       </c>
       <c r="G28" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H28" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>141</v>
@@ -8872,10 +8872,10 @@
         <v>35674</v>
       </c>
       <c r="G29" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H29" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>141</v>
@@ -8904,10 +8904,10 @@
         <v>35674</v>
       </c>
       <c r="G30" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H30" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>141</v>
@@ -8936,10 +8936,10 @@
         <v>35674</v>
       </c>
       <c r="G31" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H31" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>141</v>
@@ -8968,10 +8968,10 @@
         <v>35674</v>
       </c>
       <c r="G32" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H32" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>141</v>
@@ -9000,10 +9000,10 @@
         <v>35674</v>
       </c>
       <c r="G33" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H33" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>141</v>
@@ -9032,10 +9032,10 @@
         <v>35674</v>
       </c>
       <c r="G34" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H34" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>141</v>
@@ -9064,10 +9064,10 @@
         <v>35674</v>
       </c>
       <c r="G35" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H35" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>141</v>
@@ -9096,10 +9096,10 @@
         <v>35674</v>
       </c>
       <c r="G36" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H36" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>141</v>
@@ -9128,10 +9128,10 @@
         <v>35674</v>
       </c>
       <c r="G37" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H37" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>141</v>
@@ -9160,10 +9160,10 @@
         <v>35674</v>
       </c>
       <c r="G38" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H38" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>141</v>
@@ -9192,10 +9192,10 @@
         <v>35674</v>
       </c>
       <c r="G39" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H39" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>141</v>
@@ -9224,10 +9224,10 @@
         <v>35674</v>
       </c>
       <c r="G40" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H40" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>141</v>
@@ -9256,10 +9256,10 @@
         <v>35674</v>
       </c>
       <c r="G41" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H41" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>141</v>
@@ -9288,10 +9288,10 @@
         <v>35674</v>
       </c>
       <c r="G42" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H42" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>141</v>
@@ -9320,10 +9320,10 @@
         <v>35674</v>
       </c>
       <c r="G43" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H43" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>141</v>
@@ -9352,10 +9352,10 @@
         <v>35674</v>
       </c>
       <c r="G44" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H44" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>141</v>
@@ -9384,10 +9384,10 @@
         <v>35674</v>
       </c>
       <c r="G45" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H45" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>141</v>
@@ -9416,10 +9416,10 @@
         <v>35674</v>
       </c>
       <c r="G46" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H46" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>141</v>
@@ -9448,10 +9448,10 @@
         <v>35674</v>
       </c>
       <c r="G47" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H47" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>141</v>
@@ -9480,10 +9480,10 @@
         <v>35674</v>
       </c>
       <c r="G48" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H48" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I48" s="10" t="s">
         <v>141</v>
@@ -9512,10 +9512,10 @@
         <v>35674</v>
       </c>
       <c r="G49" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H49" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>141</v>
@@ -9544,10 +9544,10 @@
         <v>35674</v>
       </c>
       <c r="G50" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H50" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>141</v>
@@ -9576,10 +9576,10 @@
         <v>35674</v>
       </c>
       <c r="G51" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H51" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>141</v>
@@ -9608,10 +9608,10 @@
         <v>35674</v>
       </c>
       <c r="G52" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H52" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>141</v>
@@ -9640,10 +9640,10 @@
         <v>35674</v>
       </c>
       <c r="G53" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H53" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>141</v>
@@ -9672,10 +9672,10 @@
         <v>35674</v>
       </c>
       <c r="G54" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H54" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>141</v>
@@ -9704,10 +9704,10 @@
         <v>35674</v>
       </c>
       <c r="G55" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H55" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>141</v>
@@ -9736,10 +9736,10 @@
         <v>35674</v>
       </c>
       <c r="G56" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H56" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>189</v>
@@ -9768,10 +9768,10 @@
         <v>35674</v>
       </c>
       <c r="G57" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H57" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>189</v>
@@ -9800,10 +9800,10 @@
         <v>35674</v>
       </c>
       <c r="G58" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H58" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>189</v>
@@ -9832,10 +9832,10 @@
         <v>35674</v>
       </c>
       <c r="G59" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H59" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>189</v>
@@ -9864,10 +9864,10 @@
         <v>35674</v>
       </c>
       <c r="G60" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H60" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>189</v>
@@ -9896,10 +9896,10 @@
         <v>35674</v>
       </c>
       <c r="G61" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H61" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>189</v>
@@ -9928,10 +9928,10 @@
         <v>35674</v>
       </c>
       <c r="G62" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H62" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I62" s="10" t="s">
         <v>189</v>
@@ -9960,10 +9960,10 @@
         <v>35674</v>
       </c>
       <c r="G63" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H63" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>189</v>
@@ -9992,10 +9992,10 @@
         <v>35674</v>
       </c>
       <c r="G64" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H64" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>189</v>
@@ -10024,10 +10024,10 @@
         <v>35674</v>
       </c>
       <c r="G65" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H65" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>189</v>
@@ -10056,10 +10056,10 @@
         <v>35674</v>
       </c>
       <c r="G66" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H66" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I66" s="10" t="s">
         <v>189</v>
@@ -10088,10 +10088,10 @@
         <v>35674</v>
       </c>
       <c r="G67" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H67" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>189</v>
@@ -10120,10 +10120,10 @@
         <v>35674</v>
       </c>
       <c r="G68" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H68" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>189</v>
@@ -10152,10 +10152,10 @@
         <v>35674</v>
       </c>
       <c r="G69" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H69" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I69" s="10" t="s">
         <v>189</v>
@@ -10184,10 +10184,10 @@
         <v>35674</v>
       </c>
       <c r="G70" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H70" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I70" s="10" t="s">
         <v>189</v>
@@ -10216,10 +10216,10 @@
         <v>35674</v>
       </c>
       <c r="G71" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H71" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I71" s="10" t="s">
         <v>189</v>
@@ -10248,10 +10248,10 @@
         <v>35674</v>
       </c>
       <c r="G72" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H72" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I72" s="10" t="s">
         <v>189</v>
@@ -10280,10 +10280,10 @@
         <v>35674</v>
       </c>
       <c r="G73" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H73" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I73" s="10" t="s">
         <v>189</v>
@@ -10312,10 +10312,10 @@
         <v>35674</v>
       </c>
       <c r="G74" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H74" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I74" s="10" t="s">
         <v>189</v>
@@ -10344,10 +10344,10 @@
         <v>35674</v>
       </c>
       <c r="G75" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H75" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I75" s="10" t="s">
         <v>189</v>
@@ -10376,10 +10376,10 @@
         <v>35674</v>
       </c>
       <c r="G76" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H76" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I76" s="10" t="s">
         <v>189</v>
@@ -10408,10 +10408,10 @@
         <v>35674</v>
       </c>
       <c r="G77" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H77" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I77" s="10" t="s">
         <v>189</v>
@@ -10440,10 +10440,10 @@
         <v>35674</v>
       </c>
       <c r="G78" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H78" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I78" s="10" t="s">
         <v>189</v>
@@ -10472,10 +10472,10 @@
         <v>35674</v>
       </c>
       <c r="G79" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H79" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I79" s="10" t="s">
         <v>189</v>
@@ -10504,10 +10504,10 @@
         <v>35674</v>
       </c>
       <c r="G80" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H80" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I80" s="10" t="s">
         <v>189</v>
@@ -10536,10 +10536,10 @@
         <v>35674</v>
       </c>
       <c r="G81" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H81" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I81" s="10" t="s">
         <v>189</v>
@@ -10568,10 +10568,10 @@
         <v>35674</v>
       </c>
       <c r="G82" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H82" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I82" s="10" t="s">
         <v>189</v>
@@ -10600,10 +10600,10 @@
         <v>35674</v>
       </c>
       <c r="G83" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H83" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I83" s="10" t="s">
         <v>189</v>
@@ -10632,10 +10632,10 @@
         <v>35674</v>
       </c>
       <c r="G84" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H84" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I84" s="10" t="s">
         <v>189</v>
@@ -10664,10 +10664,10 @@
         <v>35674</v>
       </c>
       <c r="G85" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H85" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I85" s="10" t="s">
         <v>189</v>
@@ -10696,10 +10696,10 @@
         <v>35674</v>
       </c>
       <c r="G86" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H86" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I86" s="10" t="s">
         <v>189</v>
@@ -10728,10 +10728,10 @@
         <v>35674</v>
       </c>
       <c r="G87" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H87" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I87" s="10" t="s">
         <v>189</v>
@@ -10760,10 +10760,10 @@
         <v>35674</v>
       </c>
       <c r="G88" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H88" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I88" s="10" t="s">
         <v>189</v>
@@ -10792,10 +10792,10 @@
         <v>35674</v>
       </c>
       <c r="G89" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H89" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I89" s="10" t="s">
         <v>189</v>
@@ -10824,10 +10824,10 @@
         <v>35674</v>
       </c>
       <c r="G90" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H90" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I90" s="10" t="s">
         <v>189</v>
@@ -10856,10 +10856,10 @@
         <v>35674</v>
       </c>
       <c r="G91" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H91" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I91" s="10" t="s">
         <v>189</v>
@@ -10888,10 +10888,10 @@
         <v>35674</v>
       </c>
       <c r="G92" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H92" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I92" s="10" t="s">
         <v>189</v>
@@ -10920,10 +10920,10 @@
         <v>35674</v>
       </c>
       <c r="G93" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H93" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I93" s="10" t="s">
         <v>189</v>
@@ -10952,10 +10952,10 @@
         <v>35674</v>
       </c>
       <c r="G94" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H94" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I94" s="10" t="s">
         <v>189</v>
@@ -10984,10 +10984,10 @@
         <v>35674</v>
       </c>
       <c r="G95" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H95" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I95" s="10" t="s">
         <v>189</v>
@@ -11016,10 +11016,10 @@
         <v>35674</v>
       </c>
       <c r="G96" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H96" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I96" s="10" t="s">
         <v>189</v>
@@ -11048,10 +11048,10 @@
         <v>35674</v>
       </c>
       <c r="G97" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H97" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I97" s="10" t="s">
         <v>189</v>
@@ -11080,10 +11080,10 @@
         <v>35674</v>
       </c>
       <c r="G98" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H98" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I98" s="10" t="s">
         <v>189</v>
@@ -11112,10 +11112,10 @@
         <v>35674</v>
       </c>
       <c r="G99" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H99" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I99" s="10" t="s">
         <v>189</v>
@@ -11144,10 +11144,10 @@
         <v>35674</v>
       </c>
       <c r="G100" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H100" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I100" s="10" t="s">
         <v>189</v>
@@ -11176,10 +11176,10 @@
         <v>35674</v>
       </c>
       <c r="G101" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H101" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I101" s="10" t="s">
         <v>189</v>
@@ -11208,10 +11208,10 @@
         <v>35674</v>
       </c>
       <c r="G102" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H102" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I102" s="10" t="s">
         <v>189</v>
@@ -11240,10 +11240,10 @@
         <v>35674</v>
       </c>
       <c r="G103" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H103" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I103" s="10" t="s">
         <v>189</v>
@@ -11272,10 +11272,10 @@
         <v>35674</v>
       </c>
       <c r="G104" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H104" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I104" s="10" t="s">
         <v>189</v>
@@ -11304,10 +11304,10 @@
         <v>35674</v>
       </c>
       <c r="G105" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H105" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I105" s="10" t="s">
         <v>189</v>
@@ -11336,10 +11336,10 @@
         <v>35674</v>
       </c>
       <c r="G106" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H106" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I106" s="10" t="s">
         <v>189</v>
@@ -11368,10 +11368,10 @@
         <v>35674</v>
       </c>
       <c r="G107" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H107" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I107" s="10" t="s">
         <v>189</v>
@@ -11400,10 +11400,10 @@
         <v>35674</v>
       </c>
       <c r="G108" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H108" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I108" s="10" t="s">
         <v>189</v>
@@ -11432,10 +11432,10 @@
         <v>35674</v>
       </c>
       <c r="G109" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H109" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I109" s="10" t="s">
         <v>189</v>
@@ -11464,10 +11464,10 @@
         <v>35674</v>
       </c>
       <c r="G110" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H110" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I110" s="10" t="s">
         <v>189</v>
@@ -11496,10 +11496,10 @@
         <v>35674</v>
       </c>
       <c r="G111" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H111" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I111" s="10" t="s">
         <v>189</v>
@@ -11528,10 +11528,10 @@
         <v>35674</v>
       </c>
       <c r="G112" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H112" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I112" s="10" t="s">
         <v>189</v>
@@ -11560,10 +11560,10 @@
         <v>35674</v>
       </c>
       <c r="G113" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H113" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I113" s="10" t="s">
         <v>189</v>
@@ -11592,10 +11592,10 @@
         <v>35674</v>
       </c>
       <c r="G114" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H114" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I114" s="10" t="s">
         <v>189</v>
@@ -11624,10 +11624,10 @@
         <v>35674</v>
       </c>
       <c r="G115" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H115" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I115" s="10" t="s">
         <v>189</v>
@@ -11656,10 +11656,10 @@
         <v>35674</v>
       </c>
       <c r="G116" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H116" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I116" s="10" t="s">
         <v>189</v>
@@ -11688,10 +11688,10 @@
         <v>35674</v>
       </c>
       <c r="G117" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H117" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I117" s="10" t="s">
         <v>189</v>
@@ -11720,10 +11720,10 @@
         <v>35674</v>
       </c>
       <c r="G118" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H118" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I118" s="10" t="s">
         <v>189</v>
@@ -11752,10 +11752,10 @@
         <v>35674</v>
       </c>
       <c r="G119" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H119" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I119" s="10" t="s">
         <v>189</v>
@@ -11784,10 +11784,10 @@
         <v>35674</v>
       </c>
       <c r="G120" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H120" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I120" s="10" t="s">
         <v>189</v>
@@ -11816,10 +11816,10 @@
         <v>35674</v>
       </c>
       <c r="G121" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H121" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I121" s="10" t="s">
         <v>189</v>
@@ -11848,10 +11848,10 @@
         <v>35674</v>
       </c>
       <c r="G122" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H122" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I122" s="10" t="s">
         <v>189</v>
@@ -11880,10 +11880,10 @@
         <v>35674</v>
       </c>
       <c r="G123" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H123" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I123" s="10" t="s">
         <v>189</v>
@@ -11912,10 +11912,10 @@
         <v>35674</v>
       </c>
       <c r="G124" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H124" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I124" s="10" t="s">
         <v>189</v>
@@ -11944,10 +11944,10 @@
         <v>35674</v>
       </c>
       <c r="G125" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H125" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I125" s="10" t="s">
         <v>189</v>
@@ -11976,10 +11976,10 @@
         <v>35674</v>
       </c>
       <c r="G126" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H126" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I126" s="10" t="s">
         <v>189</v>
@@ -12008,10 +12008,10 @@
         <v>35674</v>
       </c>
       <c r="G127" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H127" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I127" s="10" t="s">
         <v>189</v>
@@ -12040,10 +12040,10 @@
         <v>35674</v>
       </c>
       <c r="G128" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H128" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I128" s="10" t="s">
         <v>189</v>
@@ -12072,10 +12072,10 @@
         <v>35674</v>
       </c>
       <c r="G129" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H129" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I129" s="10" t="s">
         <v>189</v>
@@ -12104,10 +12104,10 @@
         <v>35674</v>
       </c>
       <c r="G130" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H130" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I130" s="10" t="s">
         <v>189</v>
@@ -12136,10 +12136,10 @@
         <v>35674</v>
       </c>
       <c r="G131" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H131" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I131" s="10" t="s">
         <v>189</v>
@@ -12168,10 +12168,10 @@
         <v>35674</v>
       </c>
       <c r="G132" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H132" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I132" s="10" t="s">
         <v>189</v>
@@ -12200,10 +12200,10 @@
         <v>35674</v>
       </c>
       <c r="G133" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H133" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I133" s="10" t="s">
         <v>189</v>
@@ -12232,10 +12232,10 @@
         <v>35674</v>
       </c>
       <c r="G134" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H134" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I134" s="10" t="s">
         <v>189</v>
@@ -12264,10 +12264,10 @@
         <v>35674</v>
       </c>
       <c r="G135" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H135" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I135" s="10" t="s">
         <v>189</v>
@@ -12296,10 +12296,10 @@
         <v>35674</v>
       </c>
       <c r="G136" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H136" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I136" s="10" t="s">
         <v>189</v>
@@ -12328,10 +12328,10 @@
         <v>35674</v>
       </c>
       <c r="G137" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H137" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I137" s="10" t="s">
         <v>189</v>
@@ -12360,10 +12360,10 @@
         <v>35674</v>
       </c>
       <c r="G138" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H138" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I138" s="10" t="s">
         <v>189</v>
@@ -12392,10 +12392,10 @@
         <v>35674</v>
       </c>
       <c r="G139" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H139" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I139" s="10" t="s">
         <v>189</v>
@@ -12424,10 +12424,10 @@
         <v>35674</v>
       </c>
       <c r="G140" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H140" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I140" s="10" t="s">
         <v>189</v>
@@ -12456,10 +12456,10 @@
         <v>35674</v>
       </c>
       <c r="G141" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H141" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I141" s="10" t="s">
         <v>189</v>
@@ -12488,10 +12488,10 @@
         <v>35674</v>
       </c>
       <c r="G142" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H142" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I142" s="10" t="s">
         <v>189</v>
@@ -12520,10 +12520,10 @@
         <v>35674</v>
       </c>
       <c r="G143" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H143" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I143" s="10" t="s">
         <v>189</v>
@@ -12690,7 +12690,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EC110"/>
+  <dimension ref="A1:EC111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -15513,400 +15513,400 @@
         <v>138</v>
       </c>
       <c r="B8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="C8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="D8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="E8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="F8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="G8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="I8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="J8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="K8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="L8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="M8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="N8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="O8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="P8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="Q8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="R8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="S8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="T8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="U8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="V8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="W8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="X8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="Y8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="Z8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="AA8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="AB8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="AC8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="AD8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="AE8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="AF8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="AG8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="AH8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="AI8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="AJ8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="AK8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="AL8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="AM8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="AN8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="AO8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="AP8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="AQ8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="AR8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="AS8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="AT8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="AU8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="AV8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="AW8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="AX8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="AY8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="AZ8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="BA8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="BB8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="BC8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="BD8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="BE8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="BF8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="BG8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="BH8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="BI8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="BJ8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="BK8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="BL8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="BM8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="BN8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="BO8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="BP8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="BQ8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="BR8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="BS8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="BT8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="BU8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="BV8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="BW8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="BX8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="BY8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="BZ8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="CA8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="CB8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="CC8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="CD8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="CE8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="CF8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="CG8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="CH8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="CI8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="CJ8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="CK8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="CL8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="CM8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="CN8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="CO8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="CP8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="CQ8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="CR8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="CS8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="CT8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="CU8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="CV8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="CW8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="CX8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="CY8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="CZ8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="DA8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="DB8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="DC8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="DD8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="DE8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="DF8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="DG8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="DH8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="DI8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="DJ8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="DK8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="DL8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="DM8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="DN8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="DO8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="DP8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="DQ8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="DR8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="DS8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="DT8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="DU8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="DV8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="DW8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="DX8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="DY8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="DZ8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="EA8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="EB8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="EC8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
     </row>
     <row r="9" spans="1:133" x14ac:dyDescent="0.2">
@@ -15914,400 +15914,400 @@
         <v>139</v>
       </c>
       <c r="B9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="S9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="T9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="U9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="V9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="W9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="X9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Z9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AA9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AC9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AE9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AH9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AI9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AM9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AN9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AO9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AQ9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AR9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AU9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AV9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AW9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AX9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AY9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AZ9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BA9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BB9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BC9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BD9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BE9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BF9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BG9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BH9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BI9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BJ9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BK9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BL9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BM9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BN9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BO9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BP9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BQ9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BR9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BS9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BT9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BU9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BV9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BW9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BX9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BY9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BZ9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CA9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CB9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CC9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CD9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CE9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CF9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CG9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CH9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CI9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CJ9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CK9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CL9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CM9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CN9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CO9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CP9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CQ9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CR9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CS9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CT9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CU9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CV9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CW9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CX9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CY9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CZ9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="DA9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="DB9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="DC9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="DD9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="DE9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="DF9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="DG9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="DH9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="DI9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="DJ9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="DK9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="DL9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="DM9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="DN9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="DO9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="DP9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="DQ9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="DR9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="DS9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="DT9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="DU9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="DV9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="DW9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="DX9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="DY9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="DZ9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="EA9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="EB9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="EC9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:133" x14ac:dyDescent="0.2">
@@ -56371,6 +56371,407 @@
         <v>2.6</v>
       </c>
     </row>
+    <row r="111" spans="1:133" x14ac:dyDescent="0.2">
+      <c r="A111" s="9">
+        <v>44805</v>
+      </c>
+      <c r="B111" s="8">
+        <v>141</v>
+      </c>
+      <c r="C111" s="8">
+        <v>142.4</v>
+      </c>
+      <c r="D111" s="8">
+        <v>149.30000000000001</v>
+      </c>
+      <c r="E111" s="8">
+        <v>141.1</v>
+      </c>
+      <c r="F111" s="8">
+        <v>141.1</v>
+      </c>
+      <c r="G111" s="8">
+        <v>137.9</v>
+      </c>
+      <c r="H111" s="8">
+        <v>138.30000000000001</v>
+      </c>
+      <c r="I111" s="8">
+        <v>140.80000000000001</v>
+      </c>
+      <c r="J111" s="8">
+        <v>136.4</v>
+      </c>
+      <c r="K111" s="8">
+        <v>144.6</v>
+      </c>
+      <c r="L111" s="8">
+        <v>136.80000000000001</v>
+      </c>
+      <c r="M111" s="8">
+        <v>141.30000000000001</v>
+      </c>
+      <c r="N111" s="8">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="O111" s="8">
+        <v>142.1</v>
+      </c>
+      <c r="P111" s="8">
+        <v>146.80000000000001</v>
+      </c>
+      <c r="Q111" s="8">
+        <v>149</v>
+      </c>
+      <c r="R111" s="8">
+        <v>143.5</v>
+      </c>
+      <c r="S111" s="8">
+        <v>140.9</v>
+      </c>
+      <c r="T111" s="8">
+        <v>141.5</v>
+      </c>
+      <c r="U111" s="8">
+        <v>146.69999999999999</v>
+      </c>
+      <c r="V111" s="8">
+        <v>137.69999999999999</v>
+      </c>
+      <c r="W111" s="8">
+        <v>142.4</v>
+      </c>
+      <c r="X111" s="8">
+        <v>146.1</v>
+      </c>
+      <c r="Y111" s="8">
+        <v>144.30000000000001</v>
+      </c>
+      <c r="Z111" s="8">
+        <v>144</v>
+      </c>
+      <c r="AA111" s="8">
+        <v>141</v>
+      </c>
+      <c r="AB111" s="8">
+        <v>142.30000000000001</v>
+      </c>
+      <c r="AC111" s="8">
+        <v>148</v>
+      </c>
+      <c r="AD111" s="8">
+        <v>141.1</v>
+      </c>
+      <c r="AE111" s="8">
+        <v>141.1</v>
+      </c>
+      <c r="AF111" s="8">
+        <v>137.9</v>
+      </c>
+      <c r="AG111" s="8">
+        <v>138.4</v>
+      </c>
+      <c r="AH111" s="8">
+        <v>141</v>
+      </c>
+      <c r="AI111" s="8">
+        <v>137.19999999999999</v>
+      </c>
+      <c r="AJ111" s="8">
+        <v>144.6</v>
+      </c>
+      <c r="AK111" s="8">
+        <v>137.30000000000001</v>
+      </c>
+      <c r="AL111" s="8">
+        <v>141.19999999999999</v>
+      </c>
+      <c r="AM111" s="8">
+        <v>136.4</v>
+      </c>
+      <c r="AN111" s="8">
+        <v>142.4</v>
+      </c>
+      <c r="AO111" s="8">
+        <v>146.30000000000001</v>
+      </c>
+      <c r="AP111" s="8">
+        <v>146.9</v>
+      </c>
+      <c r="AQ111" s="8">
+        <v>143.1</v>
+      </c>
+      <c r="AR111" s="8">
+        <v>141</v>
+      </c>
+      <c r="AS111" s="8">
+        <v>142.1</v>
+      </c>
+      <c r="AT111" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="AU111" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="AV111" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="AW111" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AX111" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="AY111" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="AZ111" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="BA111" s="8">
+        <v>1</v>
+      </c>
+      <c r="BB111" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="BC111" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="BD111" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="BE111" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="BF111" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="BG111" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="BH111" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="BI111" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="BJ111" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="BK111" s="8">
+        <v>2</v>
+      </c>
+      <c r="BL111" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="BM111" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BN111" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="BO111" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="BP111" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="BQ111" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="BR111" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="BS111" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="BT111" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="BU111" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="BV111" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BW111" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="BX111" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="BY111" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="BZ111" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="CA111" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="CB111" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="CC111" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="CD111" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="CE111" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="CF111" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="CG111" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="CH111" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="CI111" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="CJ111" s="8">
+        <v>2</v>
+      </c>
+      <c r="CK111" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="CL111" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="CM111" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="CN111" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="CO111" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="CP111" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="CQ111" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="CR111" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="CS111" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="CT111" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="CU111" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="CV111" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="CW111" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="CX111" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="CY111" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="CZ111" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DA111" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="DB111" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="DC111" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="DD111" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="DE111" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="DF111" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="DG111" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="DH111" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DI111" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="DJ111" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="DK111" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="DL111" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="DM111" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="DN111" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="DO111" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="DP111" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="DQ111" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="DR111" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="DS111" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="DT111" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="DU111" s="8">
+        <v>4</v>
+      </c>
+      <c r="DV111" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="DW111" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="DX111" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="DY111" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DZ111" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="EA111" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="EB111" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="EC111" s="8">
+        <v>3.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
